--- a/JupyterNotebooks/AvgHW/CubeA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,31 +82,31 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
     <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,31 +653,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9718890071522363</v>
+        <v>1.008778341630243</v>
       </c>
       <c r="D3">
         <v>1.038098124455384</v>
       </c>
       <c r="E3">
+        <v>1.038098124455384</v>
+      </c>
+      <c r="F3">
         <v>0.9991323977173241</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.9718890071522363</v>
       </c>
-      <c r="G3">
-        <v>1.004262683892209</v>
-      </c>
       <c r="H3">
-        <v>0.9896895619473145</v>
+        <v>0.9718890071522363</v>
       </c>
       <c r="I3">
         <v>0.9718890071522363</v>
       </c>
       <c r="J3">
-        <v>1.038098124455384</v>
+        <v>0.9896895619473145</v>
       </c>
       <c r="K3">
-        <v>1.008778341630243</v>
+        <v>1.004262683892209</v>
       </c>
       <c r="L3">
         <v>0.9869348789474791</v>
@@ -764,7 +716,7 @@
         <v>1.002624761276074</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,31 +724,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9455123443089511</v>
+        <v>1.017024146827711</v>
       </c>
       <c r="D4">
         <v>1.072948661355545</v>
       </c>
       <c r="E4">
+        <v>1.072948661355545</v>
+      </c>
+      <c r="F4">
         <v>0.997907526360858</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.9455123443089511</v>
       </c>
-      <c r="G4">
-        <v>1.008630370789052</v>
-      </c>
       <c r="H4">
-        <v>0.9798891519422757</v>
+        <v>0.9455123443089511</v>
       </c>
       <c r="I4">
         <v>0.9455123443089511</v>
       </c>
       <c r="J4">
-        <v>1.072948661355545</v>
+        <v>0.9798891519422757</v>
       </c>
       <c r="K4">
-        <v>1.017024146827711</v>
+        <v>1.008630370789052</v>
       </c>
       <c r="L4">
         <v>0.975086319551327</v>
@@ -835,7 +787,7 @@
         <v>1.004987617941671</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,34 +795,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8969173518638881</v>
+        <v>1.032059379990903</v>
       </c>
       <c r="D5">
         <v>1.141477102769183</v>
       </c>
       <c r="E5">
+        <v>1.141477102769183</v>
+      </c>
+      <c r="F5">
         <v>0.9957370190239905</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.8969173518638881</v>
       </c>
-      <c r="G5">
-        <v>1.015946930822985</v>
-      </c>
       <c r="H5">
-        <v>0.9615188317563654</v>
+        <v>0.8969173518638881</v>
       </c>
       <c r="I5">
         <v>0.8969173518638881</v>
       </c>
       <c r="J5">
-        <v>1.141477102769183</v>
+        <v>0.9615188317563654</v>
       </c>
       <c r="K5">
-        <v>1.032059379990903</v>
+        <v>1.015946930822984</v>
       </c>
       <c r="L5">
-        <v>0.9520829733138202</v>
+        <v>0.95208297331382</v>
       </c>
       <c r="M5">
         <v>1.082407587582736</v>
@@ -885,7 +837,7 @@
         <v>1.068607060896587</v>
       </c>
       <c r="Q5">
-        <v>1.005841974923488</v>
+        <v>1.005841974923487</v>
       </c>
       <c r="R5">
         <v>1.011377157885687</v>
@@ -897,16 +849,16 @@
         <v>1.011377157885687</v>
       </c>
       <c r="U5">
-        <v>1.012519601120012</v>
+        <v>1.012519601120011</v>
       </c>
       <c r="V5">
-        <v>0.9893991512687871</v>
+        <v>0.9893991512687869</v>
       </c>
       <c r="W5">
         <v>1.009768397140484</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,31 +866,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8503033370542593</v>
+        <v>1.047397828025148</v>
       </c>
       <c r="D6">
         <v>1.208184877687989</v>
       </c>
       <c r="E6">
+        <v>1.208184877687989</v>
+      </c>
+      <c r="F6">
         <v>0.993467589857899</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.8503033370542593</v>
       </c>
-      <c r="G6">
-        <v>1.022855564121425</v>
-      </c>
       <c r="H6">
-        <v>0.9430601767585016</v>
+        <v>0.8503033370542593</v>
       </c>
       <c r="I6">
         <v>0.8503033370542593</v>
       </c>
       <c r="J6">
-        <v>1.208184877687989</v>
+        <v>0.9430601767585016</v>
       </c>
       <c r="K6">
-        <v>1.047397828025148</v>
+        <v>1.022855564121425</v>
       </c>
       <c r="L6">
         <v>0.9294372372200028</v>
@@ -977,7 +929,7 @@
         <v>1.014433565944689</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,49 +937,49 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9987831212398731</v>
+        <v>1.000218758635835</v>
       </c>
       <c r="D7">
         <v>1.003618233355279</v>
       </c>
       <c r="E7">
-        <v>0.9990234812033181</v>
+        <v>1.003618233355279</v>
       </c>
       <c r="F7">
-        <v>0.9987831212398731</v>
+        <v>0.9990234812033179</v>
       </c>
       <c r="G7">
+        <v>0.9987831212398735</v>
+      </c>
+      <c r="H7">
+        <v>0.9987831212398735</v>
+      </c>
+      <c r="I7">
+        <v>0.9987831212398735</v>
+      </c>
+      <c r="J7">
+        <v>0.9989536758651959</v>
+      </c>
+      <c r="K7">
         <v>1.000398622548761</v>
       </c>
-      <c r="H7">
-        <v>0.9989536758651956</v>
-      </c>
-      <c r="I7">
-        <v>0.9987831212398731</v>
-      </c>
-      <c r="J7">
-        <v>1.003618233355279</v>
-      </c>
-      <c r="K7">
-        <v>1.000218758635835</v>
-      </c>
       <c r="L7">
-        <v>0.999315338158153</v>
+        <v>0.9993153381581527</v>
       </c>
       <c r="M7">
         <v>1.001947133459606</v>
       </c>
       <c r="N7">
-        <v>0.9987831212398731</v>
+        <v>0.9987831212398735</v>
       </c>
       <c r="O7">
-        <v>0.9990234812033181</v>
+        <v>0.9990234812033179</v>
       </c>
       <c r="P7">
-        <v>1.001320857279299</v>
+        <v>1.001320857279298</v>
       </c>
       <c r="Q7">
-        <v>0.9997110518760397</v>
+        <v>0.9997110518760396</v>
       </c>
       <c r="R7">
         <v>1.000474945266157</v>
@@ -1048,7 +1000,7 @@
         <v>1.000282295558253</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,31 +1008,31 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>1.000653040086157</v>
+      </c>
+      <c r="D8">
+        <v>1.009776360203636</v>
+      </c>
+      <c r="E8">
+        <v>1.009776360203636</v>
+      </c>
+      <c r="F8">
+        <v>0.9973512063936659</v>
+      </c>
+      <c r="G8">
         <v>0.9966175327164225</v>
       </c>
-      <c r="D8">
-        <v>1.009776360203635</v>
-      </c>
-      <c r="E8">
-        <v>0.9973512063936664</v>
-      </c>
-      <c r="F8">
+      <c r="H8">
         <v>0.9966175327164225</v>
-      </c>
-      <c r="G8">
-        <v>1.00111847975456</v>
-      </c>
-      <c r="H8">
-        <v>0.99712529645409</v>
       </c>
       <c r="I8">
         <v>0.9966175327164225</v>
       </c>
       <c r="J8">
-        <v>1.009776360203635</v>
+        <v>0.9971252964540895</v>
       </c>
       <c r="K8">
-        <v>1.000653040086156</v>
+        <v>1.00111847975456</v>
       </c>
       <c r="L8">
         <v>0.9981176711792353</v>
@@ -1092,13 +1044,13 @@
         <v>0.9966175327164225</v>
       </c>
       <c r="O8">
-        <v>0.9973512063936664</v>
+        <v>0.9973512063936659</v>
       </c>
       <c r="P8">
         <v>1.003563783298651</v>
       </c>
       <c r="Q8">
-        <v>0.9992348430741134</v>
+        <v>0.9992348430741131</v>
       </c>
       <c r="R8">
         <v>1.001248366437908</v>
@@ -1119,7 +1071,7 @@
         <v>1.000759667972059</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,31 +1079,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9950297917149249</v>
+        <v>1.00095334700493</v>
       </c>
       <c r="D9">
         <v>1.014093610266912</v>
       </c>
       <c r="E9">
-        <v>0.9961200087007566</v>
+        <v>1.014093610266912</v>
       </c>
       <c r="F9">
+        <v>0.996120008700757</v>
+      </c>
+      <c r="G9">
         <v>0.9950297917149249</v>
       </c>
-      <c r="G9">
-        <v>1.001675560609047</v>
-      </c>
       <c r="H9">
-        <v>0.9958186028064048</v>
+        <v>0.9950297917149249</v>
       </c>
       <c r="I9">
         <v>0.9950297917149249</v>
       </c>
       <c r="J9">
-        <v>1.014093610266912</v>
+        <v>0.9958186028064048</v>
       </c>
       <c r="K9">
-        <v>1.00095334700493</v>
+        <v>1.001675560609047</v>
       </c>
       <c r="L9">
         <v>0.9973155417667406</v>
@@ -1163,22 +1115,22 @@
         <v>0.9950297917149249</v>
       </c>
       <c r="O9">
-        <v>0.9961200087007566</v>
+        <v>0.996120008700757</v>
       </c>
       <c r="P9">
         <v>1.005106809483834</v>
       </c>
       <c r="Q9">
-        <v>0.9988977846549019</v>
+        <v>0.9988977846549021</v>
       </c>
       <c r="R9">
-        <v>1.001747803560864</v>
+        <v>1.001747803560865</v>
       </c>
       <c r="S9">
         <v>1.003963059858905</v>
       </c>
       <c r="T9">
-        <v>1.001747803560864</v>
+        <v>1.001747803560865</v>
       </c>
       <c r="U9">
         <v>1.00172974282291</v>
@@ -1190,7 +1142,7 @@
         <v>1.001088975463674</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,31 +1150,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9893662457168499</v>
+        <v>1.002015240045356</v>
       </c>
       <c r="D10">
         <v>1.02997296244758</v>
       </c>
       <c r="E10">
+        <v>1.02997296244758</v>
+      </c>
+      <c r="F10">
         <v>0.9918647936779412</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.9893662457168499</v>
       </c>
-      <c r="G10">
-        <v>1.003525513258995</v>
-      </c>
       <c r="H10">
-        <v>0.9911704266759731</v>
+        <v>0.9893662457168499</v>
       </c>
       <c r="I10">
         <v>0.9893662457168499</v>
       </c>
       <c r="J10">
-        <v>1.02997296244758</v>
+        <v>0.9911704266759731</v>
       </c>
       <c r="K10">
-        <v>1.002015240045356</v>
+        <v>1.003525513258995</v>
       </c>
       <c r="L10">
         <v>0.9942770351226389</v>
@@ -1261,7 +1213,7 @@
         <v>1.002316402013479</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,31 +1221,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9821935340076484</v>
+        <v>1.003370062044892</v>
       </c>
       <c r="D11">
         <v>1.051256125319738</v>
       </c>
       <c r="E11">
+        <v>1.051256125319738</v>
+      </c>
+      <c r="F11">
         <v>0.98597394128689</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.9821935340076484</v>
       </c>
-      <c r="G11">
-        <v>1.005967386993258</v>
-      </c>
       <c r="H11">
-        <v>0.9848885506130653</v>
+        <v>0.9821935340076484</v>
       </c>
       <c r="I11">
         <v>0.9821935340076484</v>
       </c>
       <c r="J11">
-        <v>1.051256125319738</v>
+        <v>0.9848885506130653</v>
       </c>
       <c r="K11">
-        <v>1.003370062044892</v>
+        <v>1.005967386993258</v>
       </c>
       <c r="L11">
         <v>0.9902387075723729</v>
@@ -1332,7 +1284,7 @@
         <v>1.003975316293376</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1292,70 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.8745368999227625</v>
+      </c>
+      <c r="D12">
+        <v>0.6132311431620122</v>
+      </c>
+      <c r="E12">
+        <v>0.6132311431620122</v>
+      </c>
+      <c r="F12">
+        <v>0.9489468280812738</v>
+      </c>
+      <c r="G12">
         <v>1.391676314260136</v>
       </c>
-      <c r="D12">
-        <v>0.6132311431620127</v>
-      </c>
-      <c r="E12">
-        <v>0.9489468280812741</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
         <v>1.391676314260136</v>
-      </c>
-      <c r="G12">
-        <v>0.9525803801333577</v>
-      </c>
-      <c r="H12">
-        <v>1.097446714224897</v>
       </c>
       <c r="I12">
         <v>1.391676314260136</v>
       </c>
       <c r="J12">
-        <v>0.6132311431620127</v>
+        <v>1.097446714224897</v>
       </c>
       <c r="K12">
-        <v>0.8745368999227627</v>
+        <v>0.9525803801333577</v>
       </c>
       <c r="L12">
         <v>1.16504839110238</v>
       </c>
       <c r="M12">
-        <v>0.7638635791204471</v>
+        <v>0.7638635791204468</v>
       </c>
       <c r="N12">
         <v>1.391676314260136</v>
       </c>
       <c r="O12">
-        <v>0.9489468280812741</v>
+        <v>0.9489468280812738</v>
       </c>
       <c r="P12">
-        <v>0.7810889856216434</v>
+        <v>0.781088985621643</v>
       </c>
       <c r="Q12">
-        <v>0.9507636041073159</v>
+        <v>0.9507636041073158</v>
       </c>
       <c r="R12">
-        <v>0.9846180951678075</v>
+        <v>0.9846180951678072</v>
       </c>
       <c r="S12">
-        <v>0.8382527837922149</v>
+        <v>0.8382527837922146</v>
       </c>
       <c r="T12">
-        <v>0.9846180951678075</v>
+        <v>0.9846180951678072</v>
       </c>
       <c r="U12">
-        <v>0.9766086664091951</v>
+        <v>0.9766086664091949</v>
       </c>
       <c r="V12">
         <v>1.059622195979383</v>
       </c>
       <c r="W12">
-        <v>0.9759162812509083</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9759162812509081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9921446998649259</v>
+      </c>
+      <c r="D13">
+        <v>0.9208543484117759</v>
+      </c>
+      <c r="E13">
+        <v>0.9208543484117759</v>
+      </c>
+      <c r="F13">
+        <v>1.114500948424145</v>
+      </c>
+      <c r="G13">
         <v>1.044247981991259</v>
       </c>
-      <c r="D13">
-        <v>0.920854348411776</v>
-      </c>
-      <c r="E13">
-        <v>1.114500948424145</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
         <v>1.044247981991259</v>
-      </c>
-      <c r="G13">
-        <v>0.9330467897408178</v>
-      </c>
-      <c r="H13">
-        <v>1.074483415934369</v>
       </c>
       <c r="I13">
         <v>1.044247981991259</v>
       </c>
       <c r="J13">
-        <v>0.920854348411776</v>
+        <v>1.074483415934369</v>
       </c>
       <c r="K13">
-        <v>0.9921446998649259</v>
+        <v>0.9330467897408178</v>
       </c>
       <c r="L13">
-        <v>0.9797230111250643</v>
+        <v>0.9797230111250645</v>
       </c>
       <c r="M13">
-        <v>0.9170928555211186</v>
+        <v>0.9170928555211185</v>
       </c>
       <c r="N13">
         <v>1.044247981991259</v>
@@ -1450,7 +1402,7 @@
         <v>1.114500948424145</v>
       </c>
       <c r="P13">
-        <v>1.01767764841796</v>
+        <v>1.017677648417961</v>
       </c>
       <c r="Q13">
         <v>1.023773869082481</v>
@@ -1459,22 +1411,22 @@
         <v>1.026534426275727</v>
       </c>
       <c r="S13">
-        <v>0.9894673621922462</v>
+        <v>0.9894673621922463</v>
       </c>
       <c r="T13">
         <v>1.026534426275727</v>
       </c>
       <c r="U13">
-        <v>1.003162517141999</v>
+        <v>1.003162517142</v>
       </c>
       <c r="V13">
-        <v>1.011379610111851</v>
+        <v>1.011379610111852</v>
       </c>
       <c r="W13">
         <v>0.9970117563766845</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7695134981280533</v>
+        <v>1.097375869095959</v>
       </c>
       <c r="D14">
         <v>0.6474123980439753</v>
       </c>
       <c r="E14">
+        <v>0.6474123980439753</v>
+      </c>
+      <c r="F14">
         <v>1.383247727733637</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.7695134981280533</v>
       </c>
-      <c r="G14">
-        <v>0.9210545075827428</v>
-      </c>
       <c r="H14">
-        <v>1.176299178148569</v>
+        <v>0.7695134981280533</v>
       </c>
       <c r="I14">
         <v>0.7695134981280533</v>
       </c>
       <c r="J14">
-        <v>0.6474123980439753</v>
+        <v>1.176299178148569</v>
       </c>
       <c r="K14">
-        <v>1.097375869095959</v>
+        <v>0.9210545075827427</v>
       </c>
       <c r="L14">
         <v>0.9294315679662116</v>
       </c>
       <c r="M14">
-        <v>0.8036241904562453</v>
+        <v>0.8036241904562451</v>
       </c>
       <c r="N14">
         <v>0.7695134981280533</v>
@@ -1545,7 +1497,7 @@
         <v>0.9659948671444241</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,31 +1505,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.165039530280905</v>
+        <v>0.9361305276650942</v>
       </c>
       <c r="D15">
         <v>1.013927747195857</v>
       </c>
       <c r="E15">
+        <v>1.013927747195857</v>
+      </c>
+      <c r="F15">
         <v>0.8574694106388464</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.165039530280905</v>
       </c>
-      <c r="G15">
-        <v>1.020185115454781</v>
-      </c>
       <c r="H15">
-        <v>0.9650377884299971</v>
+        <v>1.165039530280905</v>
       </c>
       <c r="I15">
         <v>1.165039530280905</v>
       </c>
       <c r="J15">
-        <v>1.013927747195857</v>
+        <v>0.9650377884299971</v>
       </c>
       <c r="K15">
-        <v>0.9361305276650943</v>
+        <v>1.020185115454781</v>
       </c>
       <c r="L15">
         <v>1.069688241736297</v>
@@ -1616,7 +1568,7 @@
         <v>1.004150175208586</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000399194364445</v>
+        <v>1.167276980881863</v>
       </c>
       <c r="D16">
-        <v>1.000579898252708</v>
+        <v>1.738533591951291</v>
       </c>
       <c r="E16">
-        <v>0.9995246807456281</v>
+        <v>1.738533591951291</v>
       </c>
       <c r="F16">
-        <v>1.000399194364445</v>
+        <v>0.9629589977788179</v>
       </c>
       <c r="G16">
-        <v>1.0000279668196</v>
+        <v>0.459752765546561</v>
       </c>
       <c r="H16">
-        <v>0.9998331839130021</v>
+        <v>0.459752765546561</v>
       </c>
       <c r="I16">
-        <v>1.000399194364445</v>
+        <v>0.459752765546561</v>
       </c>
       <c r="J16">
-        <v>1.000579898252708</v>
+        <v>0.791282979177104</v>
       </c>
       <c r="K16">
-        <v>0.9997845127872559</v>
+        <v>1.092449638973112</v>
       </c>
       <c r="L16">
-        <v>1.000108099830392</v>
+        <v>0.755221057606827</v>
       </c>
       <c r="M16">
-        <v>1.000211242463924</v>
+        <v>1.437002068385266</v>
       </c>
       <c r="N16">
-        <v>1.000399194364445</v>
+        <v>0.459752765546561</v>
       </c>
       <c r="O16">
-        <v>0.9995246807456281</v>
+        <v>0.9629589977788179</v>
       </c>
       <c r="P16">
-        <v>1.000052289499168</v>
+        <v>1.350746294865054</v>
       </c>
       <c r="Q16">
-        <v>0.9997763237826138</v>
+        <v>1.027704318375965</v>
       </c>
       <c r="R16">
-        <v>1.00016792445426</v>
+        <v>1.05374845175889</v>
       </c>
       <c r="S16">
-        <v>1.000044181939312</v>
+        <v>1.26464740956774</v>
       </c>
       <c r="T16">
-        <v>1.00016792445426</v>
+        <v>1.05374845175889</v>
       </c>
       <c r="U16">
-        <v>1.000132935045595</v>
+        <v>1.063423748562446</v>
       </c>
       <c r="V16">
-        <v>1.000186186909365</v>
+        <v>0.9426895519592687</v>
       </c>
       <c r="W16">
-        <v>1.000058597397119</v>
+        <v>1.050559760037605</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9981284350431122</v>
+        <v>1.124335497661176</v>
       </c>
       <c r="D17">
-        <v>1.003839306369855</v>
+        <v>1.620490279891411</v>
       </c>
       <c r="E17">
-        <v>0.999416826600268</v>
+        <v>1.620490279891411</v>
       </c>
       <c r="F17">
-        <v>0.9981284350431122</v>
+        <v>0.9394744019637108</v>
       </c>
       <c r="G17">
-        <v>1.00038119888568</v>
+        <v>0.5857047570070888</v>
       </c>
       <c r="H17">
-        <v>0.9989893434187961</v>
+        <v>0.5857047570070888</v>
       </c>
       <c r="I17">
-        <v>0.9981284350431122</v>
+        <v>0.5857047570070888</v>
       </c>
       <c r="J17">
-        <v>1.003839306369855</v>
+        <v>0.8197787156013153</v>
       </c>
       <c r="K17">
-        <v>1.000438000469342</v>
+        <v>1.080348720686533</v>
       </c>
       <c r="L17">
-        <v>0.9990310435735678</v>
+        <v>0.8108199619374276</v>
       </c>
       <c r="M17">
-        <v>1.002098984670025</v>
+        <v>1.365148103960654</v>
       </c>
       <c r="N17">
-        <v>0.9981284350431122</v>
+        <v>0.5857047570070888</v>
       </c>
       <c r="O17">
-        <v>0.999416826600268</v>
+        <v>0.9394744019637108</v>
       </c>
       <c r="P17">
-        <v>1.001628066485061</v>
+        <v>1.279982340927561</v>
       </c>
       <c r="Q17">
-        <v>0.9998990127429739</v>
+        <v>1.009911561325122</v>
       </c>
       <c r="R17">
-        <v>1.000461522671078</v>
+        <v>1.048556479620737</v>
       </c>
       <c r="S17">
-        <v>1.001212443951934</v>
+        <v>1.213437800847218</v>
       </c>
       <c r="T17">
-        <v>1.000461522671078</v>
+        <v>1.048556479620737</v>
       </c>
       <c r="U17">
-        <v>1.000441441724728</v>
+        <v>1.056504539887186</v>
       </c>
       <c r="V17">
-        <v>0.9999788403884052</v>
+        <v>0.9623445833111666</v>
       </c>
       <c r="W17">
-        <v>1.000290392378831</v>
+        <v>1.043262554838664</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9917039195673593</v>
+        <v>1.038657238484366</v>
       </c>
       <c r="D18">
-        <v>1.011839892986081</v>
+        <v>1.383256341173908</v>
       </c>
       <c r="E18">
-        <v>0.9988825685582906</v>
+        <v>1.383256341173908</v>
       </c>
       <c r="F18">
-        <v>0.9917039195673593</v>
+        <v>0.893189163622372</v>
       </c>
       <c r="G18">
-        <v>1.001574625979797</v>
+        <v>0.8373413992192996</v>
       </c>
       <c r="H18">
-        <v>0.9965067294468003</v>
+        <v>0.8373413992192996</v>
       </c>
       <c r="I18">
-        <v>0.9917039195673593</v>
+        <v>0.8373413992192996</v>
       </c>
       <c r="J18">
-        <v>1.011839892986081</v>
+        <v>0.8771192296639893</v>
       </c>
       <c r="K18">
-        <v>1.002545680883233</v>
+        <v>1.056038767607439</v>
       </c>
       <c r="L18">
-        <v>0.9964016031586036</v>
+        <v>0.9219960476057456</v>
       </c>
       <c r="M18">
-        <v>1.006919911905917</v>
+        <v>1.220906361109976</v>
       </c>
       <c r="N18">
-        <v>0.9917039195673593</v>
+        <v>0.8373413992192996</v>
       </c>
       <c r="O18">
-        <v>0.9988825685582906</v>
+        <v>0.893189163622372</v>
       </c>
       <c r="P18">
-        <v>1.005361230772186</v>
+        <v>1.13822275239814</v>
       </c>
       <c r="Q18">
-        <v>1.000228597269044</v>
+        <v>0.9746139656149055</v>
       </c>
       <c r="R18">
-        <v>1.000808793703911</v>
+        <v>1.037928968005193</v>
       </c>
       <c r="S18">
-        <v>1.004099029174723</v>
+        <v>1.11082809080124</v>
       </c>
       <c r="T18">
-        <v>1.000808793703911</v>
+        <v>1.037928968005193</v>
       </c>
       <c r="U18">
-        <v>1.001000251772882</v>
+        <v>1.042456417905755</v>
       </c>
       <c r="V18">
-        <v>0.9991409853317774</v>
+        <v>1.001433414168464</v>
       </c>
       <c r="W18">
-        <v>1.00079686656076</v>
+        <v>1.028563068560887</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.032744548140657</v>
+      </c>
+      <c r="D19">
+        <v>1.448363226255342</v>
+      </c>
+      <c r="E19">
+        <v>1.448363226255342</v>
+      </c>
+      <c r="F19">
+        <v>0.8849019364999398</v>
+      </c>
+      <c r="G19">
+        <v>0.8404673446153117</v>
+      </c>
+      <c r="H19">
+        <v>0.8404673446153117</v>
+      </c>
+      <c r="I19">
+        <v>0.8404673446153117</v>
+      </c>
+      <c r="J19">
+        <v>0.8698033363328729</v>
+      </c>
+      <c r="K19">
+        <v>1.049285089024483</v>
+      </c>
+      <c r="L19">
+        <v>0.9094462423586924</v>
+      </c>
+      <c r="M19">
+        <v>1.243947219971435</v>
+      </c>
+      <c r="N19">
+        <v>0.8404673446153117</v>
+      </c>
+      <c r="O19">
+        <v>0.8849019364999398</v>
+      </c>
+      <c r="P19">
+        <v>1.166632581377641</v>
+      </c>
+      <c r="Q19">
+        <v>0.9670935127622116</v>
+      </c>
+      <c r="R19">
+        <v>1.057910835790198</v>
+      </c>
+      <c r="S19">
+        <v>1.127516750593255</v>
+      </c>
+      <c r="T19">
+        <v>1.057910835790198</v>
+      </c>
+      <c r="U19">
+        <v>1.055754399098769</v>
+      </c>
+      <c r="V19">
+        <v>1.012696988202078</v>
+      </c>
+      <c r="W19">
+        <v>1.034869867899842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9997845127872559</v>
+      </c>
+      <c r="D20">
+        <v>1.000579898252708</v>
+      </c>
+      <c r="E20">
+        <v>1.000579898252708</v>
+      </c>
+      <c r="F20">
+        <v>0.9995246807456281</v>
+      </c>
+      <c r="G20">
+        <v>1.000399194364444</v>
+      </c>
+      <c r="H20">
+        <v>1.000399194364444</v>
+      </c>
+      <c r="I20">
+        <v>1.000399194364444</v>
+      </c>
+      <c r="J20">
+        <v>0.999833183913002</v>
+      </c>
+      <c r="K20">
+        <v>1.0000279668196</v>
+      </c>
+      <c r="L20">
+        <v>1.000108099830392</v>
+      </c>
+      <c r="M20">
+        <v>1.000211242463924</v>
+      </c>
+      <c r="N20">
+        <v>1.000399194364444</v>
+      </c>
+      <c r="O20">
+        <v>0.9995246807456281</v>
+      </c>
+      <c r="P20">
+        <v>1.000052289499168</v>
+      </c>
+      <c r="Q20">
+        <v>0.9997763237826138</v>
+      </c>
+      <c r="R20">
+        <v>1.00016792445426</v>
+      </c>
+      <c r="S20">
+        <v>1.000044181939312</v>
+      </c>
+      <c r="T20">
+        <v>1.00016792445426</v>
+      </c>
+      <c r="U20">
+        <v>1.000132935045595</v>
+      </c>
+      <c r="V20">
+        <v>1.000186186909365</v>
+      </c>
+      <c r="W20">
+        <v>1.000058597397119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000438000469342</v>
+      </c>
+      <c r="D21">
+        <v>1.003839306369855</v>
+      </c>
+      <c r="E21">
+        <v>1.003839306369855</v>
+      </c>
+      <c r="F21">
+        <v>0.9994168266002679</v>
+      </c>
+      <c r="G21">
+        <v>0.998128435043112</v>
+      </c>
+      <c r="H21">
+        <v>0.998128435043112</v>
+      </c>
+      <c r="I21">
+        <v>0.998128435043112</v>
+      </c>
+      <c r="J21">
+        <v>0.998989343418796</v>
+      </c>
+      <c r="K21">
+        <v>1.00038119888568</v>
+      </c>
+      <c r="L21">
+        <v>0.9990310435735678</v>
+      </c>
+      <c r="M21">
+        <v>1.002098984670025</v>
+      </c>
+      <c r="N21">
+        <v>0.998128435043112</v>
+      </c>
+      <c r="O21">
+        <v>0.9994168266002679</v>
+      </c>
+      <c r="P21">
+        <v>1.001628066485061</v>
+      </c>
+      <c r="Q21">
+        <v>0.9998990127429738</v>
+      </c>
+      <c r="R21">
+        <v>1.000461522671078</v>
+      </c>
+      <c r="S21">
+        <v>1.001212443951934</v>
+      </c>
+      <c r="T21">
+        <v>1.000461522671078</v>
+      </c>
+      <c r="U21">
+        <v>1.000441441724728</v>
+      </c>
+      <c r="V21">
+        <v>0.9999788403884052</v>
+      </c>
+      <c r="W21">
+        <v>1.00029039237883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.002545680883234</v>
+      </c>
+      <c r="D22">
+        <v>1.011839892986081</v>
+      </c>
+      <c r="E22">
+        <v>1.011839892986081</v>
+      </c>
+      <c r="F22">
+        <v>0.9988825685582906</v>
+      </c>
+      <c r="G22">
+        <v>0.9917039195673589</v>
+      </c>
+      <c r="H22">
+        <v>0.9917039195673589</v>
+      </c>
+      <c r="I22">
+        <v>0.9917039195673589</v>
+      </c>
+      <c r="J22">
+        <v>0.9965067294468001</v>
+      </c>
+      <c r="K22">
+        <v>1.001574625979797</v>
+      </c>
+      <c r="L22">
+        <v>0.9964016031586036</v>
+      </c>
+      <c r="M22">
+        <v>1.006919911905917</v>
+      </c>
+      <c r="N22">
+        <v>0.9917039195673589</v>
+      </c>
+      <c r="O22">
+        <v>0.9988825685582906</v>
+      </c>
+      <c r="P22">
+        <v>1.005361230772186</v>
+      </c>
+      <c r="Q22">
+        <v>1.000228597269044</v>
+      </c>
+      <c r="R22">
+        <v>1.00080879370391</v>
+      </c>
+      <c r="S22">
+        <v>1.004099029174723</v>
+      </c>
+      <c r="T22">
+        <v>1.00080879370391</v>
+      </c>
+      <c r="U22">
+        <v>1.001000251772882</v>
+      </c>
+      <c r="V22">
+        <v>0.9991409853317773</v>
+      </c>
+      <c r="W22">
+        <v>1.00079686656076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.00651111731119</v>
+      </c>
+      <c r="D23">
+        <v>1.027017926107413</v>
+      </c>
+      <c r="E23">
+        <v>1.027017926107413</v>
+      </c>
+      <c r="F23">
+        <v>0.9993529746897861</v>
+      </c>
+      <c r="G23">
         <v>0.9792462999134202</v>
       </c>
-      <c r="D19">
-        <v>1.027017926107413</v>
-      </c>
-      <c r="E19">
-        <v>0.999352974689786</v>
-      </c>
-      <c r="F19">
+      <c r="H23">
         <v>0.9792462999134202</v>
       </c>
-      <c r="G19">
+      <c r="I23">
+        <v>0.9792462999134202</v>
+      </c>
+      <c r="J23">
+        <v>0.992505511108699</v>
+      </c>
+      <c r="K23">
         <v>1.003283701559858</v>
       </c>
-      <c r="H19">
-        <v>0.992505511108699</v>
-      </c>
-      <c r="I19">
+      <c r="L23">
+        <v>0.9907141891232444</v>
+      </c>
+      <c r="M23">
+        <v>1.015927470897878</v>
+      </c>
+      <c r="N23">
         <v>0.9792462999134202</v>
       </c>
-      <c r="J19">
-        <v>1.027017926107413</v>
-      </c>
-      <c r="K19">
-        <v>1.00651111731119</v>
-      </c>
-      <c r="L19">
-        <v>0.9907141891232444</v>
-      </c>
-      <c r="M19">
-        <v>1.015927470897878</v>
-      </c>
-      <c r="N19">
-        <v>0.9792462999134202</v>
-      </c>
-      <c r="O19">
-        <v>0.999352974689786</v>
-      </c>
-      <c r="P19">
-        <v>1.013185450398599</v>
-      </c>
-      <c r="Q19">
+      <c r="O23">
+        <v>0.9993529746897861</v>
+      </c>
+      <c r="P23">
+        <v>1.0131854503986</v>
+      </c>
+      <c r="Q23">
         <v>1.001318338124822</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.001872400236873</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.009884867452352</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.001872400236873</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.002225225567619</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.9976294404367796</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.001819898838936</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CubeA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW20.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 2, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.008778341630243</v>
+        <v>1.047374604884727</v>
       </c>
       <c r="D3">
-        <v>1.038098124455384</v>
+        <v>1.461995371485593</v>
       </c>
       <c r="E3">
-        <v>1.038098124455384</v>
+        <v>1.461995371485593</v>
       </c>
       <c r="F3">
-        <v>0.9991323977173241</v>
+        <v>0.8798063211023061</v>
       </c>
       <c r="G3">
-        <v>0.9718890071522363</v>
+        <v>0.8010647349553307</v>
       </c>
       <c r="H3">
-        <v>0.9718890071522363</v>
+        <v>0.8010647349553307</v>
       </c>
       <c r="I3">
-        <v>0.9718890071522363</v>
+        <v>0.8010647349553307</v>
       </c>
       <c r="J3">
-        <v>0.9896895619473145</v>
+        <v>0.855893715367433</v>
       </c>
       <c r="K3">
-        <v>1.004262683892209</v>
+        <v>1.063723666822767</v>
       </c>
       <c r="L3">
-        <v>0.9869348789474791</v>
+        <v>0.9028590499567732</v>
       </c>
       <c r="M3">
-        <v>1.022213094466405</v>
+        <v>1.263500918170029</v>
       </c>
       <c r="N3">
-        <v>0.9718890071522363</v>
+        <v>0.8010647349553307</v>
       </c>
       <c r="O3">
-        <v>0.9991323977173241</v>
+        <v>0.8798063211023061</v>
       </c>
       <c r="P3">
-        <v>1.018615261086354</v>
+        <v>1.17090084629395</v>
       </c>
       <c r="Q3">
-        <v>1.001697540804766</v>
+        <v>0.9717649939625368</v>
       </c>
       <c r="R3">
-        <v>1.003039843108315</v>
+        <v>1.04762214251441</v>
       </c>
       <c r="S3">
-        <v>1.013831068688305</v>
+        <v>1.135175119803556</v>
       </c>
       <c r="T3">
-        <v>1.003039843108315</v>
+        <v>1.04762214251441</v>
       </c>
       <c r="U3">
-        <v>1.003345553304288</v>
+        <v>1.051647523591499</v>
       </c>
       <c r="V3">
-        <v>0.9970542440738777</v>
+        <v>1.001530965864265</v>
       </c>
       <c r="W3">
-        <v>1.002624761276074</v>
+        <v>1.03452729784312</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.017024146827711</v>
+        <v>1.04250428720089</v>
       </c>
       <c r="D4">
-        <v>1.072948661355545</v>
+        <v>1.4180051016079</v>
       </c>
       <c r="E4">
-        <v>1.072948661355545</v>
+        <v>1.4180051016079</v>
       </c>
       <c r="F4">
-        <v>0.997907526360858</v>
+        <v>0.8872783970108057</v>
       </c>
       <c r="G4">
-        <v>0.9455123443089511</v>
+        <v>0.8213335538352595</v>
       </c>
       <c r="H4">
-        <v>0.9455123443089511</v>
+        <v>0.8213335538352595</v>
       </c>
       <c r="I4">
-        <v>0.9455123443089511</v>
+        <v>0.8213335538352595</v>
       </c>
       <c r="J4">
-        <v>0.9798891519422757</v>
+        <v>0.8677496414088723</v>
       </c>
       <c r="K4">
-        <v>1.008630370789052</v>
+        <v>1.05943230956765</v>
       </c>
       <c r="L4">
-        <v>0.975086319551327</v>
+        <v>0.9135520100000034</v>
       </c>
       <c r="M4">
-        <v>1.042902422397654</v>
+        <v>1.239705712083496</v>
       </c>
       <c r="N4">
-        <v>0.9455123443089511</v>
+        <v>0.8213335538352595</v>
       </c>
       <c r="O4">
-        <v>0.997907526360858</v>
+        <v>0.8872783970108057</v>
       </c>
       <c r="P4">
-        <v>1.035428093858201</v>
+        <v>1.152641749309353</v>
       </c>
       <c r="Q4">
-        <v>1.003268948574955</v>
+        <v>0.9733553532892278</v>
       </c>
       <c r="R4">
-        <v>1.005456177341785</v>
+        <v>1.042205684151322</v>
       </c>
       <c r="S4">
-        <v>1.026495519501818</v>
+        <v>1.121571936062119</v>
       </c>
       <c r="T4">
-        <v>1.005456177341785</v>
+        <v>1.042205684151322</v>
       </c>
       <c r="U4">
-        <v>1.006249725703601</v>
+        <v>1.046512340505404</v>
       </c>
       <c r="V4">
-        <v>0.9941022494246713</v>
+        <v>1.001476583171375</v>
       </c>
       <c r="W4">
-        <v>1.004987617941671</v>
+        <v>1.03119512658936</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.032059379990903</v>
+        <v>1.056401256657683</v>
       </c>
       <c r="D5">
-        <v>1.141477102769183</v>
+        <v>1.546535779892183</v>
       </c>
       <c r="E5">
-        <v>1.141477102769183</v>
+        <v>1.546535779892183</v>
       </c>
       <c r="F5">
-        <v>0.9957370190239905</v>
+        <v>0.8649610275202164</v>
       </c>
       <c r="G5">
-        <v>0.8969173518638881</v>
+        <v>0.7629101755417776</v>
       </c>
       <c r="H5">
-        <v>0.8969173518638881</v>
+        <v>0.7629101755417776</v>
       </c>
       <c r="I5">
-        <v>0.8969173518638881</v>
+        <v>0.7629101755417776</v>
       </c>
       <c r="J5">
-        <v>0.9615188317563654</v>
+        <v>0.8330720157142859</v>
       </c>
       <c r="K5">
-        <v>1.015946930822984</v>
+        <v>1.07196425946092</v>
       </c>
       <c r="L5">
-        <v>0.95208297331382</v>
+        <v>0.882609373665769</v>
       </c>
       <c r="M5">
-        <v>1.082407587582736</v>
+        <v>1.309141265714286</v>
       </c>
       <c r="N5">
-        <v>0.8969173518638881</v>
+        <v>0.7629101755417776</v>
       </c>
       <c r="O5">
-        <v>0.9957370190239905</v>
+        <v>0.8649610275202164</v>
       </c>
       <c r="P5">
-        <v>1.068607060896587</v>
+        <v>1.2057484037062</v>
       </c>
       <c r="Q5">
-        <v>1.005841974923487</v>
+        <v>0.9684626434905683</v>
       </c>
       <c r="R5">
-        <v>1.011377157885687</v>
+        <v>1.058135660984726</v>
       </c>
       <c r="S5">
-        <v>1.051053684205386</v>
+        <v>1.161153688957773</v>
       </c>
       <c r="T5">
-        <v>1.011377157885687</v>
+        <v>1.058135660984726</v>
       </c>
       <c r="U5">
-        <v>1.012519601120011</v>
+        <v>1.061592810603774</v>
       </c>
       <c r="V5">
-        <v>0.9893991512687869</v>
+        <v>1.001856283591375</v>
       </c>
       <c r="W5">
-        <v>1.009768397140484</v>
+        <v>1.04094939427089</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.047397828025148</v>
+        <v>1.064564683068182</v>
       </c>
       <c r="D6">
-        <v>1.208184877687989</v>
+        <v>1.626657841693182</v>
       </c>
       <c r="E6">
-        <v>1.208184877687989</v>
+        <v>1.626657841693182</v>
       </c>
       <c r="F6">
-        <v>0.993467589857899</v>
+        <v>0.8503210741477255</v>
       </c>
       <c r="G6">
-        <v>0.8503033370542593</v>
+        <v>0.7276874912045453</v>
       </c>
       <c r="H6">
-        <v>0.8503033370542593</v>
+        <v>0.7276874912045453</v>
       </c>
       <c r="I6">
-        <v>0.8503033370542593</v>
+        <v>0.7276874912045453</v>
       </c>
       <c r="J6">
-        <v>0.9430601767585016</v>
+        <v>0.8113995575568186</v>
       </c>
       <c r="K6">
-        <v>1.022855564121425</v>
+        <v>1.079766506193181</v>
       </c>
       <c r="L6">
-        <v>0.9294372372200028</v>
+        <v>0.8637705871590909</v>
       </c>
       <c r="M6">
-        <v>1.120761916832289</v>
+        <v>1.352291459431817</v>
       </c>
       <c r="N6">
-        <v>0.8503033370542593</v>
+        <v>0.7276874912045453</v>
       </c>
       <c r="O6">
-        <v>0.993467589857899</v>
+        <v>0.8503210741477255</v>
       </c>
       <c r="P6">
-        <v>1.100826233772944</v>
+        <v>1.238489457920454</v>
       </c>
       <c r="Q6">
-        <v>1.008161576989662</v>
+        <v>0.9650437901704532</v>
       </c>
       <c r="R6">
-        <v>1.017318601533383</v>
+        <v>1.068222135681818</v>
       </c>
       <c r="S6">
-        <v>1.074836010555771</v>
+        <v>1.185581807344696</v>
       </c>
       <c r="T6">
-        <v>1.017318601533382</v>
+        <v>1.068222135681818</v>
       </c>
       <c r="U6">
-        <v>1.018702842180393</v>
+        <v>1.071108228309658</v>
       </c>
       <c r="V6">
-        <v>0.9850229411551663</v>
+        <v>1.002424080888636</v>
       </c>
       <c r="W6">
-        <v>1.014433565944689</v>
+        <v>1.047057400056818</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000218758635835</v>
+        <v>1.212698346749282</v>
       </c>
       <c r="D7">
-        <v>1.003618233355279</v>
+        <v>1.753293680532668</v>
       </c>
       <c r="E7">
-        <v>1.003618233355279</v>
+        <v>1.753293680532668</v>
       </c>
       <c r="F7">
-        <v>0.9990234812033179</v>
+        <v>1.025693414716481</v>
       </c>
       <c r="G7">
-        <v>0.9987831212398735</v>
+        <v>0.3476965117295542</v>
       </c>
       <c r="H7">
-        <v>0.9987831212398735</v>
+        <v>0.3476965117295542</v>
       </c>
       <c r="I7">
-        <v>0.9987831212398735</v>
+        <v>0.3476965117295542</v>
       </c>
       <c r="J7">
-        <v>0.9989536758651959</v>
+        <v>0.7929182601989913</v>
       </c>
       <c r="K7">
-        <v>1.000398622548761</v>
+        <v>1.094064825980021</v>
       </c>
       <c r="L7">
-        <v>0.9993153381581527</v>
+        <v>0.7117918711324998</v>
       </c>
       <c r="M7">
-        <v>1.001947133459606</v>
+        <v>1.45612459246865</v>
       </c>
       <c r="N7">
-        <v>0.9987831212398735</v>
+        <v>0.3476965117295542</v>
       </c>
       <c r="O7">
-        <v>0.9990234812033179</v>
+        <v>1.025693414716481</v>
       </c>
       <c r="P7">
-        <v>1.001320857279298</v>
+        <v>1.389493547624575</v>
       </c>
       <c r="Q7">
-        <v>0.9997110518760396</v>
+        <v>1.059879120348251</v>
       </c>
       <c r="R7">
-        <v>1.000474945266157</v>
+        <v>1.042227868992901</v>
       </c>
       <c r="S7">
-        <v>1.001013445702453</v>
+        <v>1.29101730707639</v>
       </c>
       <c r="T7">
-        <v>1.000474945266157</v>
+        <v>1.042227868992901</v>
       </c>
       <c r="U7">
-        <v>1.000455864586808</v>
+        <v>1.055187108239681</v>
       </c>
       <c r="V7">
-        <v>1.000121315917421</v>
+        <v>0.9136889889376556</v>
       </c>
       <c r="W7">
-        <v>1.000282295558253</v>
+        <v>1.049285187938518</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000653040086157</v>
+        <v>1.21237980931583</v>
       </c>
       <c r="D8">
-        <v>1.009776360203636</v>
+        <v>1.765550952476064</v>
       </c>
       <c r="E8">
-        <v>1.009776360203636</v>
+        <v>1.765550952476064</v>
       </c>
       <c r="F8">
-        <v>0.9973512063936659</v>
+        <v>1.021184500117918</v>
       </c>
       <c r="G8">
-        <v>0.9966175327164225</v>
+        <v>0.346056142105057</v>
       </c>
       <c r="H8">
-        <v>0.9966175327164225</v>
+        <v>0.346056142105057</v>
       </c>
       <c r="I8">
-        <v>0.9966175327164225</v>
+        <v>0.346056142105057</v>
       </c>
       <c r="J8">
-        <v>0.9971252964540895</v>
+        <v>0.7894356102796086</v>
       </c>
       <c r="K8">
-        <v>1.00111847975456</v>
+        <v>1.095223269890927</v>
       </c>
       <c r="L8">
-        <v>0.9981176711792353</v>
+        <v>0.7103156254172743</v>
       </c>
       <c r="M8">
-        <v>1.005317756988708</v>
+        <v>1.462304289233247</v>
       </c>
       <c r="N8">
-        <v>0.9966175327164225</v>
+        <v>0.346056142105057</v>
       </c>
       <c r="O8">
-        <v>0.9973512063936659</v>
+        <v>1.021184500117918</v>
       </c>
       <c r="P8">
-        <v>1.003563783298651</v>
+        <v>1.393367726296991</v>
       </c>
       <c r="Q8">
-        <v>0.9992348430741131</v>
+        <v>1.058203885004423</v>
       </c>
       <c r="R8">
-        <v>1.001248366437908</v>
+        <v>1.04426386489968</v>
       </c>
       <c r="S8">
-        <v>1.002748682117287</v>
+        <v>1.293986240828303</v>
       </c>
       <c r="T8">
-        <v>1.001248366437908</v>
+        <v>1.04426386489968</v>
       </c>
       <c r="U8">
-        <v>1.001215894767071</v>
+        <v>1.057003716147491</v>
       </c>
       <c r="V8">
-        <v>1.000296222356941</v>
+        <v>0.9148142013390046</v>
       </c>
       <c r="W8">
-        <v>1.000759667972059</v>
+        <v>1.050306274854491</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00095334700493</v>
+        <v>1.212096178294547</v>
       </c>
       <c r="D9">
-        <v>1.014093610266912</v>
+        <v>1.774846269470767</v>
       </c>
       <c r="E9">
-        <v>1.014093610266912</v>
+        <v>1.774846269470767</v>
       </c>
       <c r="F9">
-        <v>0.996120008700757</v>
+        <v>1.017912771202046</v>
       </c>
       <c r="G9">
-        <v>0.9950297917149249</v>
+        <v>0.3448561955017754</v>
       </c>
       <c r="H9">
-        <v>0.9950297917149249</v>
+        <v>0.3448561955017754</v>
       </c>
       <c r="I9">
-        <v>0.9950297917149249</v>
+        <v>0.3448561955017754</v>
       </c>
       <c r="J9">
-        <v>0.9958186028064048</v>
+        <v>0.7868982188559495</v>
       </c>
       <c r="K9">
-        <v>1.001675560609047</v>
+        <v>1.096004896404216</v>
       </c>
       <c r="L9">
-        <v>0.9973155417667406</v>
+        <v>0.7091725480908413</v>
       </c>
       <c r="M9">
-        <v>1.007705340839672</v>
+        <v>1.466899386339992</v>
       </c>
       <c r="N9">
-        <v>0.9950297917149249</v>
+        <v>0.3448561955017754</v>
       </c>
       <c r="O9">
-        <v>0.996120008700757</v>
+        <v>1.017912771202046</v>
       </c>
       <c r="P9">
-        <v>1.005106809483834</v>
+        <v>1.396379520336407</v>
       </c>
       <c r="Q9">
-        <v>0.9988977846549021</v>
+        <v>1.056958833803131</v>
       </c>
       <c r="R9">
-        <v>1.001747803560865</v>
+        <v>1.04587174539153</v>
       </c>
       <c r="S9">
-        <v>1.003963059858905</v>
+        <v>1.296254645692343</v>
       </c>
       <c r="T9">
-        <v>1.001747803560865</v>
+        <v>1.04587174539153</v>
       </c>
       <c r="U9">
-        <v>1.00172974282291</v>
+        <v>1.058405033144701</v>
       </c>
       <c r="V9">
-        <v>1.000389752601313</v>
+        <v>0.9156952656161161</v>
       </c>
       <c r="W9">
-        <v>1.001088975463674</v>
+        <v>1.051085808020017</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.002015240045356</v>
+        <v>1.211075737048889</v>
       </c>
       <c r="D10">
-        <v>1.02997296244758</v>
+        <v>1.809199443940946</v>
       </c>
       <c r="E10">
-        <v>1.02997296244758</v>
+        <v>1.809199443940946</v>
       </c>
       <c r="F10">
-        <v>0.9918647936779412</v>
+        <v>1.00573191020189</v>
       </c>
       <c r="G10">
-        <v>0.9893662457168499</v>
+        <v>0.3403950069410622</v>
       </c>
       <c r="H10">
-        <v>0.9893662457168499</v>
+        <v>0.3403950069410622</v>
       </c>
       <c r="I10">
-        <v>0.9893662457168499</v>
+        <v>0.3403950069410622</v>
       </c>
       <c r="J10">
-        <v>0.9911704266759731</v>
+        <v>0.7774578296566048</v>
       </c>
       <c r="K10">
-        <v>1.003525513258995</v>
+        <v>1.098949482570084</v>
       </c>
       <c r="L10">
-        <v>0.9942770351226389</v>
+        <v>0.7049639238662861</v>
       </c>
       <c r="M10">
-        <v>1.0163389991625</v>
+        <v>1.483931661478012</v>
       </c>
       <c r="N10">
-        <v>0.9893662457168499</v>
+        <v>0.3403950069410622</v>
       </c>
       <c r="O10">
-        <v>0.9918647936779412</v>
+        <v>1.00573191020189</v>
       </c>
       <c r="P10">
-        <v>1.01091887806276</v>
+        <v>1.407465677071418</v>
       </c>
       <c r="Q10">
-        <v>0.997695153468468</v>
+        <v>1.052340696385987</v>
       </c>
       <c r="R10">
-        <v>1.00373466728079</v>
+        <v>1.051775453694633</v>
       </c>
       <c r="S10">
-        <v>1.008454423128172</v>
+        <v>1.304626945570973</v>
       </c>
       <c r="T10">
-        <v>1.00373466728079</v>
+        <v>1.051775453694633</v>
       </c>
       <c r="U10">
-        <v>1.003682378775341</v>
+        <v>1.063568960913496</v>
       </c>
       <c r="V10">
-        <v>1.000819152163643</v>
+        <v>0.918934170119009</v>
       </c>
       <c r="W10">
-        <v>1.002316402013479</v>
+        <v>1.053963124462972</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.003370062044892</v>
+        <v>1.010184408263242</v>
       </c>
       <c r="D11">
-        <v>1.051256125319738</v>
+        <v>1.042846022819864</v>
       </c>
       <c r="E11">
-        <v>1.051256125319738</v>
+        <v>1.042846022819864</v>
       </c>
       <c r="F11">
-        <v>0.98597394128689</v>
+        <v>0.9980358260533719</v>
       </c>
       <c r="G11">
-        <v>0.9821935340076484</v>
+        <v>0.9676516073423105</v>
       </c>
       <c r="H11">
-        <v>0.9821935340076484</v>
+        <v>0.9676516073423105</v>
       </c>
       <c r="I11">
-        <v>0.9821935340076484</v>
+        <v>0.9676516073423105</v>
       </c>
       <c r="J11">
-        <v>0.9848885506130653</v>
+        <v>0.9876801666157652</v>
       </c>
       <c r="K11">
-        <v>1.005967386993258</v>
+        <v>1.005605799979156</v>
       </c>
       <c r="L11">
-        <v>0.9902387075723729</v>
+        <v>0.9855160528997359</v>
       </c>
       <c r="M11">
-        <v>1.02791422250914</v>
+        <v>1.025677135731166</v>
       </c>
       <c r="N11">
-        <v>0.9821935340076484</v>
+        <v>0.9676516073423105</v>
       </c>
       <c r="O11">
-        <v>0.98597394128689</v>
+        <v>0.9980358260533719</v>
       </c>
       <c r="P11">
-        <v>1.018615033303314</v>
+        <v>1.020440924436618</v>
       </c>
       <c r="Q11">
-        <v>0.9959706641400738</v>
+        <v>1.001820813016264</v>
       </c>
       <c r="R11">
-        <v>1.006474533538092</v>
+        <v>1.002844485405182</v>
       </c>
       <c r="S11">
-        <v>1.014399151199962</v>
+        <v>1.015495882950797</v>
       </c>
       <c r="T11">
-        <v>1.006474533538092</v>
+        <v>1.002844485405182</v>
       </c>
       <c r="U11">
-        <v>1.006347746901884</v>
+        <v>1.003534814048676</v>
       </c>
       <c r="V11">
-        <v>1.001516904323037</v>
+        <v>0.9963581727074026</v>
       </c>
       <c r="W11">
-        <v>1.003975316293376</v>
+        <v>1.002899627463077</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8745368999227625</v>
+        <v>1.005446530393043</v>
       </c>
       <c r="D12">
-        <v>0.6132311431620122</v>
+        <v>1.022904684544989</v>
       </c>
       <c r="E12">
-        <v>0.6132311431620122</v>
+        <v>1.022904684544989</v>
       </c>
       <c r="F12">
-        <v>0.9489468280812738</v>
+        <v>0.9996467531748828</v>
       </c>
       <c r="G12">
-        <v>1.391676314260136</v>
+        <v>0.9825287269424353</v>
       </c>
       <c r="H12">
-        <v>1.391676314260136</v>
+        <v>0.9825287269424353</v>
       </c>
       <c r="I12">
-        <v>1.391676314260136</v>
+        <v>0.9825287269424353</v>
       </c>
       <c r="J12">
-        <v>1.097446714224897</v>
+        <v>0.9937737648273089</v>
       </c>
       <c r="K12">
-        <v>0.9525803801333577</v>
+        <v>1.002674136159745</v>
       </c>
       <c r="L12">
-        <v>1.16504839110238</v>
+        <v>0.9920446908044466</v>
       </c>
       <c r="M12">
-        <v>0.7638635791204468</v>
+        <v>1.013465222174056</v>
       </c>
       <c r="N12">
-        <v>1.391676314260136</v>
+        <v>0.9825287269424353</v>
       </c>
       <c r="O12">
-        <v>0.9489468280812738</v>
+        <v>0.9996467531748828</v>
       </c>
       <c r="P12">
-        <v>0.781088985621643</v>
+        <v>1.011275718859936</v>
       </c>
       <c r="Q12">
-        <v>0.9507636041073158</v>
+        <v>1.001160444667314</v>
       </c>
       <c r="R12">
-        <v>0.9846180951678072</v>
+        <v>1.001693388220769</v>
       </c>
       <c r="S12">
-        <v>0.8382527837922146</v>
+        <v>1.008408524626539</v>
       </c>
       <c r="T12">
-        <v>0.9846180951678072</v>
+        <v>1.001693388220769</v>
       </c>
       <c r="U12">
-        <v>0.9766086664091949</v>
+        <v>1.001938575205513</v>
       </c>
       <c r="V12">
-        <v>1.059622195979383</v>
+        <v>0.9980566055528974</v>
       </c>
       <c r="W12">
-        <v>0.9759162812509081</v>
+        <v>1.001560563627613</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9921446998649259</v>
+        <v>1.018944561409086</v>
       </c>
       <c r="D13">
-        <v>0.9208543484117759</v>
+        <v>1.080443263011368</v>
       </c>
       <c r="E13">
-        <v>0.9208543484117759</v>
+        <v>1.080443263011368</v>
       </c>
       <c r="F13">
-        <v>1.114500948424145</v>
+        <v>0.9986405622661204</v>
       </c>
       <c r="G13">
-        <v>1.044247981991259</v>
+        <v>0.9392985800758341</v>
       </c>
       <c r="H13">
-        <v>1.044247981991259</v>
+        <v>0.9392985800758341</v>
       </c>
       <c r="I13">
-        <v>1.044247981991259</v>
+        <v>0.9392985800758341</v>
       </c>
       <c r="J13">
-        <v>1.074483415934369</v>
+        <v>0.9781948358353609</v>
       </c>
       <c r="K13">
-        <v>0.9330467897408178</v>
+        <v>1.009234139009567</v>
       </c>
       <c r="L13">
-        <v>0.9797230111250645</v>
+        <v>0.9721060862973903</v>
       </c>
       <c r="M13">
-        <v>0.9170928555211185</v>
+        <v>1.047189468823615</v>
       </c>
       <c r="N13">
-        <v>1.044247981991259</v>
+        <v>0.9392985800758341</v>
       </c>
       <c r="O13">
-        <v>1.114500948424145</v>
+        <v>0.9986405622661204</v>
       </c>
       <c r="P13">
-        <v>1.017677648417961</v>
+        <v>1.039541912638744</v>
       </c>
       <c r="Q13">
-        <v>1.023773869082481</v>
+        <v>1.003937350637844</v>
       </c>
       <c r="R13">
-        <v>1.026534426275727</v>
+        <v>1.006127468451107</v>
       </c>
       <c r="S13">
-        <v>0.9894673621922463</v>
+        <v>1.029439321429019</v>
       </c>
       <c r="T13">
-        <v>1.026534426275727</v>
+        <v>1.006127468451107</v>
       </c>
       <c r="U13">
-        <v>1.003162517142</v>
+        <v>1.006904136090722</v>
       </c>
       <c r="V13">
-        <v>1.011379610111852</v>
+        <v>0.9933830248877447</v>
       </c>
       <c r="W13">
-        <v>0.9970117563766845</v>
+        <v>1.005506437091042</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.097375869095959</v>
+        <v>1.024249002957055</v>
       </c>
       <c r="D14">
-        <v>0.6474123980439753</v>
+        <v>1.106379256981556</v>
       </c>
       <c r="E14">
-        <v>0.6474123980439753</v>
+        <v>1.106379256981556</v>
       </c>
       <c r="F14">
-        <v>1.383247727733637</v>
+        <v>0.996712515070894</v>
       </c>
       <c r="G14">
-        <v>0.7695134981280533</v>
+        <v>0.9217093912997802</v>
       </c>
       <c r="H14">
-        <v>0.7695134981280533</v>
+        <v>0.9217093912997802</v>
       </c>
       <c r="I14">
-        <v>0.7695134981280533</v>
+        <v>0.9217093912997802</v>
       </c>
       <c r="J14">
-        <v>1.176299178148569</v>
+        <v>0.9709160351435457</v>
       </c>
       <c r="K14">
-        <v>0.9210545075827427</v>
+        <v>1.012330801897677</v>
       </c>
       <c r="L14">
-        <v>0.9294315679662116</v>
+        <v>0.963985091042761</v>
       </c>
       <c r="M14">
-        <v>0.8036241904562451</v>
+        <v>1.062238674551411</v>
       </c>
       <c r="N14">
-        <v>0.7695134981280533</v>
+        <v>0.9217093912997802</v>
       </c>
       <c r="O14">
-        <v>1.383247727733637</v>
+        <v>0.996712515070894</v>
       </c>
       <c r="P14">
-        <v>1.015330062888806</v>
+        <v>1.051545886026225</v>
       </c>
       <c r="Q14">
-        <v>1.15215111765819</v>
+        <v>1.004521658484286</v>
       </c>
       <c r="R14">
-        <v>0.9333912079685552</v>
+        <v>1.008267054450743</v>
       </c>
       <c r="S14">
-        <v>0.983904877786785</v>
+        <v>1.038474191316709</v>
       </c>
       <c r="T14">
-        <v>0.9333912079685552</v>
+        <v>1.008267054450743</v>
       </c>
       <c r="U14">
-        <v>0.9303070328721021</v>
+        <v>1.009282991312477</v>
       </c>
       <c r="V14">
-        <v>0.8981483259232924</v>
+        <v>0.9917682713099374</v>
       </c>
       <c r="W14">
-        <v>0.9659948671444241</v>
+        <v>1.007315096118085</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9361305276650942</v>
+        <v>1.008778341630243</v>
       </c>
       <c r="D15">
-        <v>1.013927747195857</v>
+        <v>1.038098124455384</v>
       </c>
       <c r="E15">
-        <v>1.013927747195857</v>
+        <v>1.038098124455384</v>
       </c>
       <c r="F15">
-        <v>0.8574694106388464</v>
+        <v>0.9991323977173241</v>
       </c>
       <c r="G15">
-        <v>1.165039530280905</v>
+        <v>0.9718890071522363</v>
       </c>
       <c r="H15">
-        <v>1.165039530280905</v>
+        <v>0.9718890071522363</v>
       </c>
       <c r="I15">
-        <v>1.165039530280905</v>
+        <v>0.9718890071522363</v>
       </c>
       <c r="J15">
-        <v>0.9650377884299971</v>
+        <v>0.9896895619473145</v>
       </c>
       <c r="K15">
-        <v>1.020185115454781</v>
+        <v>1.004262683892209</v>
       </c>
       <c r="L15">
-        <v>1.069688241736297</v>
+        <v>0.9869348789474791</v>
       </c>
       <c r="M15">
-        <v>1.00572304026691</v>
+        <v>1.022213094466405</v>
       </c>
       <c r="N15">
-        <v>1.165039530280905</v>
+        <v>0.9718890071522363</v>
       </c>
       <c r="O15">
-        <v>0.8574694106388464</v>
+        <v>0.9991323977173241</v>
       </c>
       <c r="P15">
-        <v>0.9356985789173518</v>
+        <v>1.018615261086354</v>
       </c>
       <c r="Q15">
-        <v>0.9388272630468135</v>
+        <v>1.001697540804766</v>
       </c>
       <c r="R15">
-        <v>1.012145562705203</v>
+        <v>1.003039843108315</v>
       </c>
       <c r="S15">
-        <v>0.9638607577631614</v>
+        <v>1.013831068688305</v>
       </c>
       <c r="T15">
-        <v>1.012145562705203</v>
+        <v>1.003039843108315</v>
       </c>
       <c r="U15">
-        <v>1.014155450892597</v>
+        <v>1.003345553304288</v>
       </c>
       <c r="V15">
-        <v>1.044332266770259</v>
+        <v>0.9970542440738777</v>
       </c>
       <c r="W15">
-        <v>1.004150175208586</v>
+        <v>1.002624761276074</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.167276980881863</v>
+        <v>1.017024146827711</v>
       </c>
       <c r="D16">
-        <v>1.738533591951291</v>
+        <v>1.072948661355545</v>
       </c>
       <c r="E16">
-        <v>1.738533591951291</v>
+        <v>1.072948661355545</v>
       </c>
       <c r="F16">
-        <v>0.9629589977788179</v>
+        <v>0.997907526360858</v>
       </c>
       <c r="G16">
-        <v>0.459752765546561</v>
+        <v>0.9455123443089511</v>
       </c>
       <c r="H16">
-        <v>0.459752765546561</v>
+        <v>0.9455123443089511</v>
       </c>
       <c r="I16">
-        <v>0.459752765546561</v>
+        <v>0.9455123443089511</v>
       </c>
       <c r="J16">
-        <v>0.791282979177104</v>
+        <v>0.9798891519422757</v>
       </c>
       <c r="K16">
-        <v>1.092449638973112</v>
+        <v>1.008630370789052</v>
       </c>
       <c r="L16">
-        <v>0.755221057606827</v>
+        <v>0.975086319551327</v>
       </c>
       <c r="M16">
-        <v>1.437002068385266</v>
+        <v>1.042902422397654</v>
       </c>
       <c r="N16">
-        <v>0.459752765546561</v>
+        <v>0.9455123443089511</v>
       </c>
       <c r="O16">
-        <v>0.9629589977788179</v>
+        <v>0.997907526360858</v>
       </c>
       <c r="P16">
-        <v>1.350746294865054</v>
+        <v>1.035428093858201</v>
       </c>
       <c r="Q16">
-        <v>1.027704318375965</v>
+        <v>1.003268948574955</v>
       </c>
       <c r="R16">
-        <v>1.05374845175889</v>
+        <v>1.005456177341785</v>
       </c>
       <c r="S16">
-        <v>1.26464740956774</v>
+        <v>1.026495519501818</v>
       </c>
       <c r="T16">
-        <v>1.05374845175889</v>
+        <v>1.005456177341785</v>
       </c>
       <c r="U16">
-        <v>1.063423748562446</v>
+        <v>1.006249725703601</v>
       </c>
       <c r="V16">
-        <v>0.9426895519592687</v>
+        <v>0.9941022494246713</v>
       </c>
       <c r="W16">
-        <v>1.050559760037605</v>
+        <v>1.004987617941671</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.124335497661176</v>
+        <v>1.032059379990903</v>
       </c>
       <c r="D17">
-        <v>1.620490279891411</v>
+        <v>1.141477102769183</v>
       </c>
       <c r="E17">
-        <v>1.620490279891411</v>
+        <v>1.141477102769183</v>
       </c>
       <c r="F17">
-        <v>0.9394744019637108</v>
+        <v>0.9957370190239905</v>
       </c>
       <c r="G17">
-        <v>0.5857047570070888</v>
+        <v>0.8969173518638881</v>
       </c>
       <c r="H17">
-        <v>0.5857047570070888</v>
+        <v>0.8969173518638881</v>
       </c>
       <c r="I17">
-        <v>0.5857047570070888</v>
+        <v>0.8969173518638881</v>
       </c>
       <c r="J17">
-        <v>0.8197787156013153</v>
+        <v>0.9615188317563654</v>
       </c>
       <c r="K17">
-        <v>1.080348720686533</v>
+        <v>1.015946930822984</v>
       </c>
       <c r="L17">
-        <v>0.8108199619374276</v>
+        <v>0.95208297331382</v>
       </c>
       <c r="M17">
-        <v>1.365148103960654</v>
+        <v>1.082407587582736</v>
       </c>
       <c r="N17">
-        <v>0.5857047570070888</v>
+        <v>0.8969173518638881</v>
       </c>
       <c r="O17">
-        <v>0.9394744019637108</v>
+        <v>0.9957370190239905</v>
       </c>
       <c r="P17">
-        <v>1.279982340927561</v>
+        <v>1.068607060896587</v>
       </c>
       <c r="Q17">
-        <v>1.009911561325122</v>
+        <v>1.005841974923487</v>
       </c>
       <c r="R17">
-        <v>1.048556479620737</v>
+        <v>1.011377157885687</v>
       </c>
       <c r="S17">
-        <v>1.213437800847218</v>
+        <v>1.051053684205386</v>
       </c>
       <c r="T17">
-        <v>1.048556479620737</v>
+        <v>1.011377157885687</v>
       </c>
       <c r="U17">
-        <v>1.056504539887186</v>
+        <v>1.012519601120011</v>
       </c>
       <c r="V17">
-        <v>0.9623445833111666</v>
+        <v>0.9893991512687869</v>
       </c>
       <c r="W17">
-        <v>1.043262554838664</v>
+        <v>1.009768397140484</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.038657238484366</v>
+        <v>1.047397828025148</v>
       </c>
       <c r="D18">
-        <v>1.383256341173908</v>
+        <v>1.208184877687989</v>
       </c>
       <c r="E18">
-        <v>1.383256341173908</v>
+        <v>1.208184877687989</v>
       </c>
       <c r="F18">
-        <v>0.893189163622372</v>
+        <v>0.993467589857899</v>
       </c>
       <c r="G18">
-        <v>0.8373413992192996</v>
+        <v>0.8503033370542593</v>
       </c>
       <c r="H18">
-        <v>0.8373413992192996</v>
+        <v>0.8503033370542593</v>
       </c>
       <c r="I18">
-        <v>0.8373413992192996</v>
+        <v>0.8503033370542593</v>
       </c>
       <c r="J18">
-        <v>0.8771192296639893</v>
+        <v>0.9430601767585016</v>
       </c>
       <c r="K18">
-        <v>1.056038767607439</v>
+        <v>1.022855564121425</v>
       </c>
       <c r="L18">
-        <v>0.9219960476057456</v>
+        <v>0.9294372372200028</v>
       </c>
       <c r="M18">
-        <v>1.220906361109976</v>
+        <v>1.120761916832289</v>
       </c>
       <c r="N18">
-        <v>0.8373413992192996</v>
+        <v>0.8503033370542593</v>
       </c>
       <c r="O18">
-        <v>0.893189163622372</v>
+        <v>0.993467589857899</v>
       </c>
       <c r="P18">
-        <v>1.13822275239814</v>
+        <v>1.100826233772944</v>
       </c>
       <c r="Q18">
-        <v>0.9746139656149055</v>
+        <v>1.008161576989662</v>
       </c>
       <c r="R18">
-        <v>1.037928968005193</v>
+        <v>1.017318601533383</v>
       </c>
       <c r="S18">
-        <v>1.11082809080124</v>
+        <v>1.074836010555771</v>
       </c>
       <c r="T18">
-        <v>1.037928968005193</v>
+        <v>1.017318601533382</v>
       </c>
       <c r="U18">
-        <v>1.042456417905755</v>
+        <v>1.018702842180393</v>
       </c>
       <c r="V18">
-        <v>1.001433414168464</v>
+        <v>0.9850229411551663</v>
       </c>
       <c r="W18">
-        <v>1.028563068560887</v>
+        <v>1.014433565944689</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.032744548140657</v>
+        <v>1.000218758635835</v>
       </c>
       <c r="D19">
-        <v>1.448363226255342</v>
+        <v>1.003618233355279</v>
       </c>
       <c r="E19">
-        <v>1.448363226255342</v>
+        <v>1.003618233355279</v>
       </c>
       <c r="F19">
-        <v>0.8849019364999398</v>
+        <v>0.9990234812033179</v>
       </c>
       <c r="G19">
-        <v>0.8404673446153117</v>
+        <v>0.9987831212398735</v>
       </c>
       <c r="H19">
-        <v>0.8404673446153117</v>
+        <v>0.9987831212398735</v>
       </c>
       <c r="I19">
-        <v>0.8404673446153117</v>
+        <v>0.9987831212398735</v>
       </c>
       <c r="J19">
-        <v>0.8698033363328729</v>
+        <v>0.9989536758651959</v>
       </c>
       <c r="K19">
-        <v>1.049285089024483</v>
+        <v>1.000398622548761</v>
       </c>
       <c r="L19">
-        <v>0.9094462423586924</v>
+        <v>0.9993153381581527</v>
       </c>
       <c r="M19">
-        <v>1.243947219971435</v>
+        <v>1.001947133459606</v>
       </c>
       <c r="N19">
-        <v>0.8404673446153117</v>
+        <v>0.9987831212398735</v>
       </c>
       <c r="O19">
-        <v>0.8849019364999398</v>
+        <v>0.9990234812033179</v>
       </c>
       <c r="P19">
-        <v>1.166632581377641</v>
+        <v>1.001320857279298</v>
       </c>
       <c r="Q19">
-        <v>0.9670935127622116</v>
+        <v>0.9997110518760396</v>
       </c>
       <c r="R19">
-        <v>1.057910835790198</v>
+        <v>1.000474945266157</v>
       </c>
       <c r="S19">
-        <v>1.127516750593255</v>
+        <v>1.001013445702453</v>
       </c>
       <c r="T19">
-        <v>1.057910835790198</v>
+        <v>1.000474945266157</v>
       </c>
       <c r="U19">
-        <v>1.055754399098769</v>
+        <v>1.000455864586808</v>
       </c>
       <c r="V19">
-        <v>1.012696988202078</v>
+        <v>1.000121315917421</v>
       </c>
       <c r="W19">
-        <v>1.034869867899842</v>
+        <v>1.000282295558253</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9997845127872559</v>
+        <v>1.000653040086157</v>
       </c>
       <c r="D20">
-        <v>1.000579898252708</v>
+        <v>1.009776360203636</v>
       </c>
       <c r="E20">
-        <v>1.000579898252708</v>
+        <v>1.009776360203636</v>
       </c>
       <c r="F20">
-        <v>0.9995246807456281</v>
+        <v>0.9973512063936659</v>
       </c>
       <c r="G20">
-        <v>1.000399194364444</v>
+        <v>0.9966175327164225</v>
       </c>
       <c r="H20">
-        <v>1.000399194364444</v>
+        <v>0.9966175327164225</v>
       </c>
       <c r="I20">
-        <v>1.000399194364444</v>
+        <v>0.9966175327164225</v>
       </c>
       <c r="J20">
-        <v>0.999833183913002</v>
+        <v>0.9971252964540895</v>
       </c>
       <c r="K20">
-        <v>1.0000279668196</v>
+        <v>1.00111847975456</v>
       </c>
       <c r="L20">
-        <v>1.000108099830392</v>
+        <v>0.9981176711792353</v>
       </c>
       <c r="M20">
-        <v>1.000211242463924</v>
+        <v>1.005317756988708</v>
       </c>
       <c r="N20">
-        <v>1.000399194364444</v>
+        <v>0.9966175327164225</v>
       </c>
       <c r="O20">
-        <v>0.9995246807456281</v>
+        <v>0.9973512063936659</v>
       </c>
       <c r="P20">
-        <v>1.000052289499168</v>
+        <v>1.003563783298651</v>
       </c>
       <c r="Q20">
-        <v>0.9997763237826138</v>
+        <v>0.9992348430741131</v>
       </c>
       <c r="R20">
-        <v>1.00016792445426</v>
+        <v>1.001248366437908</v>
       </c>
       <c r="S20">
-        <v>1.000044181939312</v>
+        <v>1.002748682117287</v>
       </c>
       <c r="T20">
-        <v>1.00016792445426</v>
+        <v>1.001248366437908</v>
       </c>
       <c r="U20">
-        <v>1.000132935045595</v>
+        <v>1.001215894767071</v>
       </c>
       <c r="V20">
-        <v>1.000186186909365</v>
+        <v>1.000296222356941</v>
       </c>
       <c r="W20">
-        <v>1.000058597397119</v>
+        <v>1.000759667972059</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000438000469342</v>
+        <v>1.00095334700493</v>
       </c>
       <c r="D21">
-        <v>1.003839306369855</v>
+        <v>1.014093610266912</v>
       </c>
       <c r="E21">
-        <v>1.003839306369855</v>
+        <v>1.014093610266912</v>
       </c>
       <c r="F21">
-        <v>0.9994168266002679</v>
+        <v>0.996120008700757</v>
       </c>
       <c r="G21">
-        <v>0.998128435043112</v>
+        <v>0.9950297917149249</v>
       </c>
       <c r="H21">
-        <v>0.998128435043112</v>
+        <v>0.9950297917149249</v>
       </c>
       <c r="I21">
-        <v>0.998128435043112</v>
+        <v>0.9950297917149249</v>
       </c>
       <c r="J21">
-        <v>0.998989343418796</v>
+        <v>0.9958186028064048</v>
       </c>
       <c r="K21">
-        <v>1.00038119888568</v>
+        <v>1.001675560609047</v>
       </c>
       <c r="L21">
-        <v>0.9990310435735678</v>
+        <v>0.9973155417667406</v>
       </c>
       <c r="M21">
-        <v>1.002098984670025</v>
+        <v>1.007705340839672</v>
       </c>
       <c r="N21">
-        <v>0.998128435043112</v>
+        <v>0.9950297917149249</v>
       </c>
       <c r="O21">
-        <v>0.9994168266002679</v>
+        <v>0.996120008700757</v>
       </c>
       <c r="P21">
-        <v>1.001628066485061</v>
+        <v>1.005106809483834</v>
       </c>
       <c r="Q21">
-        <v>0.9998990127429738</v>
+        <v>0.9988977846549021</v>
       </c>
       <c r="R21">
-        <v>1.000461522671078</v>
+        <v>1.001747803560865</v>
       </c>
       <c r="S21">
-        <v>1.001212443951934</v>
+        <v>1.003963059858905</v>
       </c>
       <c r="T21">
-        <v>1.000461522671078</v>
+        <v>1.001747803560865</v>
       </c>
       <c r="U21">
-        <v>1.000441441724728</v>
+        <v>1.00172974282291</v>
       </c>
       <c r="V21">
-        <v>0.9999788403884052</v>
+        <v>1.000389752601313</v>
       </c>
       <c r="W21">
-        <v>1.00029039237883</v>
+        <v>1.001088975463674</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.002545680883234</v>
+        <v>1.002015240045356</v>
       </c>
       <c r="D22">
-        <v>1.011839892986081</v>
+        <v>1.02997296244758</v>
       </c>
       <c r="E22">
-        <v>1.011839892986081</v>
+        <v>1.02997296244758</v>
       </c>
       <c r="F22">
-        <v>0.9988825685582906</v>
+        <v>0.9918647936779412</v>
       </c>
       <c r="G22">
-        <v>0.9917039195673589</v>
+        <v>0.9893662457168499</v>
       </c>
       <c r="H22">
-        <v>0.9917039195673589</v>
+        <v>0.9893662457168499</v>
       </c>
       <c r="I22">
-        <v>0.9917039195673589</v>
+        <v>0.9893662457168499</v>
       </c>
       <c r="J22">
-        <v>0.9965067294468001</v>
+        <v>0.9911704266759731</v>
       </c>
       <c r="K22">
-        <v>1.001574625979797</v>
+        <v>1.003525513258995</v>
       </c>
       <c r="L22">
-        <v>0.9964016031586036</v>
+        <v>0.9942770351226389</v>
       </c>
       <c r="M22">
-        <v>1.006919911905917</v>
+        <v>1.0163389991625</v>
       </c>
       <c r="N22">
-        <v>0.9917039195673589</v>
+        <v>0.9893662457168499</v>
       </c>
       <c r="O22">
-        <v>0.9988825685582906</v>
+        <v>0.9918647936779412</v>
       </c>
       <c r="P22">
-        <v>1.005361230772186</v>
+        <v>1.01091887806276</v>
       </c>
       <c r="Q22">
-        <v>1.000228597269044</v>
+        <v>0.997695153468468</v>
       </c>
       <c r="R22">
-        <v>1.00080879370391</v>
+        <v>1.00373466728079</v>
       </c>
       <c r="S22">
-        <v>1.004099029174723</v>
+        <v>1.008454423128172</v>
       </c>
       <c r="T22">
-        <v>1.00080879370391</v>
+        <v>1.00373466728079</v>
       </c>
       <c r="U22">
-        <v>1.001000251772882</v>
+        <v>1.003682378775341</v>
       </c>
       <c r="V22">
-        <v>0.9991409853317773</v>
+        <v>1.000819152163643</v>
       </c>
       <c r="W22">
-        <v>1.00079686656076</v>
+        <v>1.002316402013479</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.003370062044892</v>
+      </c>
+      <c r="D23">
+        <v>1.051256125319738</v>
+      </c>
+      <c r="E23">
+        <v>1.051256125319738</v>
+      </c>
+      <c r="F23">
+        <v>0.98597394128689</v>
+      </c>
+      <c r="G23">
+        <v>0.9821935340076484</v>
+      </c>
+      <c r="H23">
+        <v>0.9821935340076484</v>
+      </c>
+      <c r="I23">
+        <v>0.9821935340076484</v>
+      </c>
+      <c r="J23">
+        <v>0.9848885506130653</v>
+      </c>
+      <c r="K23">
+        <v>1.005967386993258</v>
+      </c>
+      <c r="L23">
+        <v>0.9902387075723729</v>
+      </c>
+      <c r="M23">
+        <v>1.02791422250914</v>
+      </c>
+      <c r="N23">
+        <v>0.9821935340076484</v>
+      </c>
+      <c r="O23">
+        <v>0.98597394128689</v>
+      </c>
+      <c r="P23">
+        <v>1.018615033303314</v>
+      </c>
+      <c r="Q23">
+        <v>0.9959706641400738</v>
+      </c>
+      <c r="R23">
+        <v>1.006474533538092</v>
+      </c>
+      <c r="S23">
+        <v>1.014399151199962</v>
+      </c>
+      <c r="T23">
+        <v>1.006474533538092</v>
+      </c>
+      <c r="U23">
+        <v>1.006347746901884</v>
+      </c>
+      <c r="V23">
+        <v>1.001516904323037</v>
+      </c>
+      <c r="W23">
+        <v>1.003975316293376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.8745368999227625</v>
+      </c>
+      <c r="D24">
+        <v>0.6132311431620122</v>
+      </c>
+      <c r="E24">
+        <v>0.6132311431620122</v>
+      </c>
+      <c r="F24">
+        <v>0.9489468280812738</v>
+      </c>
+      <c r="G24">
+        <v>1.391676314260136</v>
+      </c>
+      <c r="H24">
+        <v>1.391676314260136</v>
+      </c>
+      <c r="I24">
+        <v>1.391676314260136</v>
+      </c>
+      <c r="J24">
+        <v>1.097446714224897</v>
+      </c>
+      <c r="K24">
+        <v>0.9525803801333577</v>
+      </c>
+      <c r="L24">
+        <v>1.16504839110238</v>
+      </c>
+      <c r="M24">
+        <v>0.7638635791204468</v>
+      </c>
+      <c r="N24">
+        <v>1.391676314260136</v>
+      </c>
+      <c r="O24">
+        <v>0.9489468280812738</v>
+      </c>
+      <c r="P24">
+        <v>0.781088985621643</v>
+      </c>
+      <c r="Q24">
+        <v>0.9507636041073158</v>
+      </c>
+      <c r="R24">
+        <v>0.9846180951678072</v>
+      </c>
+      <c r="S24">
+        <v>0.8382527837922146</v>
+      </c>
+      <c r="T24">
+        <v>0.9846180951678072</v>
+      </c>
+      <c r="U24">
+        <v>0.9766086664091949</v>
+      </c>
+      <c r="V24">
+        <v>1.059622195979383</v>
+      </c>
+      <c r="W24">
+        <v>0.9759162812509081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9921446998649259</v>
+      </c>
+      <c r="D25">
+        <v>0.9208543484117759</v>
+      </c>
+      <c r="E25">
+        <v>0.9208543484117759</v>
+      </c>
+      <c r="F25">
+        <v>1.114500948424145</v>
+      </c>
+      <c r="G25">
+        <v>1.044247981991259</v>
+      </c>
+      <c r="H25">
+        <v>1.044247981991259</v>
+      </c>
+      <c r="I25">
+        <v>1.044247981991259</v>
+      </c>
+      <c r="J25">
+        <v>1.074483415934369</v>
+      </c>
+      <c r="K25">
+        <v>0.9330467897408178</v>
+      </c>
+      <c r="L25">
+        <v>0.9797230111250645</v>
+      </c>
+      <c r="M25">
+        <v>0.9170928555211185</v>
+      </c>
+      <c r="N25">
+        <v>1.044247981991259</v>
+      </c>
+      <c r="O25">
+        <v>1.114500948424145</v>
+      </c>
+      <c r="P25">
+        <v>1.017677648417961</v>
+      </c>
+      <c r="Q25">
+        <v>1.023773869082481</v>
+      </c>
+      <c r="R25">
+        <v>1.026534426275727</v>
+      </c>
+      <c r="S25">
+        <v>0.9894673621922463</v>
+      </c>
+      <c r="T25">
+        <v>1.026534426275727</v>
+      </c>
+      <c r="U25">
+        <v>1.003162517142</v>
+      </c>
+      <c r="V25">
+        <v>1.011379610111852</v>
+      </c>
+      <c r="W25">
+        <v>0.9970117563766845</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.097375869095959</v>
+      </c>
+      <c r="D26">
+        <v>0.6474123980439753</v>
+      </c>
+      <c r="E26">
+        <v>0.6474123980439753</v>
+      </c>
+      <c r="F26">
+        <v>1.383247727733637</v>
+      </c>
+      <c r="G26">
+        <v>0.7695134981280533</v>
+      </c>
+      <c r="H26">
+        <v>0.7695134981280533</v>
+      </c>
+      <c r="I26">
+        <v>0.7695134981280533</v>
+      </c>
+      <c r="J26">
+        <v>1.176299178148569</v>
+      </c>
+      <c r="K26">
+        <v>0.9210545075827427</v>
+      </c>
+      <c r="L26">
+        <v>0.9294315679662116</v>
+      </c>
+      <c r="M26">
+        <v>0.8036241904562451</v>
+      </c>
+      <c r="N26">
+        <v>0.7695134981280533</v>
+      </c>
+      <c r="O26">
+        <v>1.383247727733637</v>
+      </c>
+      <c r="P26">
+        <v>1.015330062888806</v>
+      </c>
+      <c r="Q26">
+        <v>1.15215111765819</v>
+      </c>
+      <c r="R26">
+        <v>0.9333912079685552</v>
+      </c>
+      <c r="S26">
+        <v>0.983904877786785</v>
+      </c>
+      <c r="T26">
+        <v>0.9333912079685552</v>
+      </c>
+      <c r="U26">
+        <v>0.9303070328721021</v>
+      </c>
+      <c r="V26">
+        <v>0.8981483259232924</v>
+      </c>
+      <c r="W26">
+        <v>0.9659948671444241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9361305276650942</v>
+      </c>
+      <c r="D27">
+        <v>1.013927747195857</v>
+      </c>
+      <c r="E27">
+        <v>1.013927747195857</v>
+      </c>
+      <c r="F27">
+        <v>0.8574694106388464</v>
+      </c>
+      <c r="G27">
+        <v>1.165039530280905</v>
+      </c>
+      <c r="H27">
+        <v>1.165039530280905</v>
+      </c>
+      <c r="I27">
+        <v>1.165039530280905</v>
+      </c>
+      <c r="J27">
+        <v>0.9650377884299971</v>
+      </c>
+      <c r="K27">
+        <v>1.020185115454781</v>
+      </c>
+      <c r="L27">
+        <v>1.069688241736297</v>
+      </c>
+      <c r="M27">
+        <v>1.00572304026691</v>
+      </c>
+      <c r="N27">
+        <v>1.165039530280905</v>
+      </c>
+      <c r="O27">
+        <v>0.8574694106388464</v>
+      </c>
+      <c r="P27">
+        <v>0.9356985789173518</v>
+      </c>
+      <c r="Q27">
+        <v>0.9388272630468135</v>
+      </c>
+      <c r="R27">
+        <v>1.012145562705203</v>
+      </c>
+      <c r="S27">
+        <v>0.9638607577631614</v>
+      </c>
+      <c r="T27">
+        <v>1.012145562705203</v>
+      </c>
+      <c r="U27">
+        <v>1.014155450892597</v>
+      </c>
+      <c r="V27">
+        <v>1.044332266770259</v>
+      </c>
+      <c r="W27">
+        <v>1.004150175208586</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.167276980881863</v>
+      </c>
+      <c r="D28">
+        <v>1.738533591951291</v>
+      </c>
+      <c r="E28">
+        <v>1.738533591951291</v>
+      </c>
+      <c r="F28">
+        <v>0.9629589977788179</v>
+      </c>
+      <c r="G28">
+        <v>0.459752765546561</v>
+      </c>
+      <c r="H28">
+        <v>0.459752765546561</v>
+      </c>
+      <c r="I28">
+        <v>0.459752765546561</v>
+      </c>
+      <c r="J28">
+        <v>0.791282979177104</v>
+      </c>
+      <c r="K28">
+        <v>1.092449638973112</v>
+      </c>
+      <c r="L28">
+        <v>0.755221057606827</v>
+      </c>
+      <c r="M28">
+        <v>1.437002068385266</v>
+      </c>
+      <c r="N28">
+        <v>0.459752765546561</v>
+      </c>
+      <c r="O28">
+        <v>0.9629589977788179</v>
+      </c>
+      <c r="P28">
+        <v>1.350746294865054</v>
+      </c>
+      <c r="Q28">
+        <v>1.027704318375965</v>
+      </c>
+      <c r="R28">
+        <v>1.05374845175889</v>
+      </c>
+      <c r="S28">
+        <v>1.26464740956774</v>
+      </c>
+      <c r="T28">
+        <v>1.05374845175889</v>
+      </c>
+      <c r="U28">
+        <v>1.063423748562446</v>
+      </c>
+      <c r="V28">
+        <v>0.9426895519592687</v>
+      </c>
+      <c r="W28">
+        <v>1.050559760037605</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.124335497661176</v>
+      </c>
+      <c r="D29">
+        <v>1.620490279891411</v>
+      </c>
+      <c r="E29">
+        <v>1.620490279891411</v>
+      </c>
+      <c r="F29">
+        <v>0.9394744019637108</v>
+      </c>
+      <c r="G29">
+        <v>0.5857047570070888</v>
+      </c>
+      <c r="H29">
+        <v>0.5857047570070888</v>
+      </c>
+      <c r="I29">
+        <v>0.5857047570070888</v>
+      </c>
+      <c r="J29">
+        <v>0.8197787156013153</v>
+      </c>
+      <c r="K29">
+        <v>1.080348720686533</v>
+      </c>
+      <c r="L29">
+        <v>0.8108199619374276</v>
+      </c>
+      <c r="M29">
+        <v>1.365148103960654</v>
+      </c>
+      <c r="N29">
+        <v>0.5857047570070888</v>
+      </c>
+      <c r="O29">
+        <v>0.9394744019637108</v>
+      </c>
+      <c r="P29">
+        <v>1.279982340927561</v>
+      </c>
+      <c r="Q29">
+        <v>1.009911561325122</v>
+      </c>
+      <c r="R29">
+        <v>1.048556479620737</v>
+      </c>
+      <c r="S29">
+        <v>1.213437800847218</v>
+      </c>
+      <c r="T29">
+        <v>1.048556479620737</v>
+      </c>
+      <c r="U29">
+        <v>1.056504539887186</v>
+      </c>
+      <c r="V29">
+        <v>0.9623445833111666</v>
+      </c>
+      <c r="W29">
+        <v>1.043262554838664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.038657238484366</v>
+      </c>
+      <c r="D30">
+        <v>1.383256341173908</v>
+      </c>
+      <c r="E30">
+        <v>1.383256341173908</v>
+      </c>
+      <c r="F30">
+        <v>0.893189163622372</v>
+      </c>
+      <c r="G30">
+        <v>0.8373413992192996</v>
+      </c>
+      <c r="H30">
+        <v>0.8373413992192996</v>
+      </c>
+      <c r="I30">
+        <v>0.8373413992192996</v>
+      </c>
+      <c r="J30">
+        <v>0.8771192296639893</v>
+      </c>
+      <c r="K30">
+        <v>1.056038767607439</v>
+      </c>
+      <c r="L30">
+        <v>0.9219960476057456</v>
+      </c>
+      <c r="M30">
+        <v>1.220906361109976</v>
+      </c>
+      <c r="N30">
+        <v>0.8373413992192996</v>
+      </c>
+      <c r="O30">
+        <v>0.893189163622372</v>
+      </c>
+      <c r="P30">
+        <v>1.13822275239814</v>
+      </c>
+      <c r="Q30">
+        <v>0.9746139656149055</v>
+      </c>
+      <c r="R30">
+        <v>1.037928968005193</v>
+      </c>
+      <c r="S30">
+        <v>1.11082809080124</v>
+      </c>
+      <c r="T30">
+        <v>1.037928968005193</v>
+      </c>
+      <c r="U30">
+        <v>1.042456417905755</v>
+      </c>
+      <c r="V30">
+        <v>1.001433414168464</v>
+      </c>
+      <c r="W30">
+        <v>1.028563068560887</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.032744548140657</v>
+      </c>
+      <c r="D31">
+        <v>1.448363226255342</v>
+      </c>
+      <c r="E31">
+        <v>1.448363226255342</v>
+      </c>
+      <c r="F31">
+        <v>0.8849019364999398</v>
+      </c>
+      <c r="G31">
+        <v>0.8404673446153117</v>
+      </c>
+      <c r="H31">
+        <v>0.8404673446153117</v>
+      </c>
+      <c r="I31">
+        <v>0.8404673446153117</v>
+      </c>
+      <c r="J31">
+        <v>0.8698033363328729</v>
+      </c>
+      <c r="K31">
+        <v>1.049285089024483</v>
+      </c>
+      <c r="L31">
+        <v>0.9094462423586924</v>
+      </c>
+      <c r="M31">
+        <v>1.243947219971435</v>
+      </c>
+      <c r="N31">
+        <v>0.8404673446153117</v>
+      </c>
+      <c r="O31">
+        <v>0.8849019364999398</v>
+      </c>
+      <c r="P31">
+        <v>1.166632581377641</v>
+      </c>
+      <c r="Q31">
+        <v>0.9670935127622116</v>
+      </c>
+      <c r="R31">
+        <v>1.057910835790198</v>
+      </c>
+      <c r="S31">
+        <v>1.127516750593255</v>
+      </c>
+      <c r="T31">
+        <v>1.057910835790198</v>
+      </c>
+      <c r="U31">
+        <v>1.055754399098769</v>
+      </c>
+      <c r="V31">
+        <v>1.012696988202078</v>
+      </c>
+      <c r="W31">
+        <v>1.034869867899842</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.209545138356164</v>
+      </c>
+      <c r="D32">
+        <v>1.886962695068492</v>
+      </c>
+      <c r="E32">
+        <v>1.886962695068492</v>
+      </c>
+      <c r="F32">
+        <v>0.9753982209589043</v>
+      </c>
+      <c r="G32">
+        <v>0.3294725000821919</v>
+      </c>
+      <c r="H32">
+        <v>0.3294725000821919</v>
+      </c>
+      <c r="I32">
+        <v>0.3294725000821919</v>
+      </c>
+      <c r="J32">
+        <v>0.7541493502739726</v>
+      </c>
+      <c r="K32">
+        <v>1.107435649863014</v>
+      </c>
+      <c r="L32">
+        <v>0.6958725647945209</v>
+      </c>
+      <c r="M32">
+        <v>1.52421080630137</v>
+      </c>
+      <c r="N32">
+        <v>0.3294725000821919</v>
+      </c>
+      <c r="O32">
+        <v>0.9753982209589043</v>
+      </c>
+      <c r="P32">
+        <v>1.431180458013698</v>
+      </c>
+      <c r="Q32">
+        <v>1.041416935410959</v>
+      </c>
+      <c r="R32">
+        <v>1.06394447203653</v>
+      </c>
+      <c r="S32">
+        <v>1.32326552196347</v>
+      </c>
+      <c r="T32">
+        <v>1.063944472036529</v>
+      </c>
+      <c r="U32">
+        <v>1.074817266493151</v>
+      </c>
+      <c r="V32">
+        <v>0.9257483132109587</v>
+      </c>
+      <c r="W32">
+        <v>1.060380865712329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.207465884210527</v>
+      </c>
+      <c r="D33">
+        <v>1.967978105789474</v>
+      </c>
+      <c r="E33">
+        <v>1.967978105789474</v>
+      </c>
+      <c r="F33">
+        <v>0.9455348294736843</v>
+      </c>
+      <c r="G33">
+        <v>0.3186126825263157</v>
+      </c>
+      <c r="H33">
+        <v>0.3186126825263157</v>
+      </c>
+      <c r="I33">
+        <v>0.3186126825263157</v>
+      </c>
+      <c r="J33">
+        <v>0.7310871999999999</v>
+      </c>
+      <c r="K33">
+        <v>1.115122437368421</v>
+      </c>
+      <c r="L33">
+        <v>0.6861311110526316</v>
+      </c>
+      <c r="M33">
+        <v>1.565074086315789</v>
+      </c>
+      <c r="N33">
+        <v>0.3186126825263157</v>
+      </c>
+      <c r="O33">
+        <v>0.9455348294736843</v>
+      </c>
+      <c r="P33">
+        <v>1.456756467631579</v>
+      </c>
+      <c r="Q33">
+        <v>1.030328633421053</v>
+      </c>
+      <c r="R33">
+        <v>1.077375205929825</v>
+      </c>
+      <c r="S33">
+        <v>1.34287845754386</v>
+      </c>
+      <c r="T33">
+        <v>1.077375205929824</v>
+      </c>
+      <c r="U33">
+        <v>1.086812013789474</v>
+      </c>
+      <c r="V33">
+        <v>0.933172147536842</v>
+      </c>
+      <c r="W33">
+        <v>1.067125792092105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.207465884210527</v>
+      </c>
+      <c r="D34">
+        <v>1.967978105789474</v>
+      </c>
+      <c r="E34">
+        <v>1.967978105789474</v>
+      </c>
+      <c r="F34">
+        <v>0.9455348294736843</v>
+      </c>
+      <c r="G34">
+        <v>0.3186126825263157</v>
+      </c>
+      <c r="H34">
+        <v>0.3186126825263157</v>
+      </c>
+      <c r="I34">
+        <v>0.3186126825263157</v>
+      </c>
+      <c r="J34">
+        <v>0.7310871999999999</v>
+      </c>
+      <c r="K34">
+        <v>1.115122437368421</v>
+      </c>
+      <c r="L34">
+        <v>0.6861311110526316</v>
+      </c>
+      <c r="M34">
+        <v>1.565074086315789</v>
+      </c>
+      <c r="N34">
+        <v>0.3186126825263157</v>
+      </c>
+      <c r="O34">
+        <v>0.9455348294736843</v>
+      </c>
+      <c r="P34">
+        <v>1.456756467631579</v>
+      </c>
+      <c r="Q34">
+        <v>1.030328633421053</v>
+      </c>
+      <c r="R34">
+        <v>1.077375205929825</v>
+      </c>
+      <c r="S34">
+        <v>1.34287845754386</v>
+      </c>
+      <c r="T34">
+        <v>1.077375205929824</v>
+      </c>
+      <c r="U34">
+        <v>1.086812013789474</v>
+      </c>
+      <c r="V34">
+        <v>0.933172147536842</v>
+      </c>
+      <c r="W34">
+        <v>1.067125792092105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.097130482808417</v>
+      </c>
+      <c r="D35">
+        <v>2.656109404141916</v>
+      </c>
+      <c r="E35">
+        <v>2.656109404141916</v>
+      </c>
+      <c r="F35">
+        <v>0.5568150880210136</v>
+      </c>
+      <c r="G35">
+        <v>0.4483900230707777</v>
+      </c>
+      <c r="H35">
+        <v>0.4483900230707777</v>
+      </c>
+      <c r="I35">
+        <v>0.4483900230707777</v>
+      </c>
+      <c r="J35">
+        <v>0.524904094014556</v>
+      </c>
+      <c r="K35">
+        <v>1.178596350589907</v>
+      </c>
+      <c r="L35">
+        <v>0.6868586105271516</v>
+      </c>
+      <c r="M35">
+        <v>1.887336381531393</v>
+      </c>
+      <c r="N35">
+        <v>0.4483900230707777</v>
+      </c>
+      <c r="O35">
+        <v>0.5568150880210136</v>
+      </c>
+      <c r="P35">
+        <v>1.606462246081465</v>
+      </c>
+      <c r="Q35">
+        <v>0.8677057193054601</v>
+      </c>
+      <c r="R35">
+        <v>1.220438171744569</v>
+      </c>
+      <c r="S35">
+        <v>1.463840280917612</v>
+      </c>
+      <c r="T35">
+        <v>1.220438171744569</v>
+      </c>
+      <c r="U35">
+        <v>1.209977716455903</v>
+      </c>
+      <c r="V35">
+        <v>1.057660177778878</v>
+      </c>
+      <c r="W35">
+        <v>1.129517554338141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9997845127872559</v>
+      </c>
+      <c r="D36">
+        <v>1.000579898252708</v>
+      </c>
+      <c r="E36">
+        <v>1.000579898252708</v>
+      </c>
+      <c r="F36">
+        <v>0.9995246807456281</v>
+      </c>
+      <c r="G36">
+        <v>1.000399194364444</v>
+      </c>
+      <c r="H36">
+        <v>1.000399194364444</v>
+      </c>
+      <c r="I36">
+        <v>1.000399194364444</v>
+      </c>
+      <c r="J36">
+        <v>0.999833183913002</v>
+      </c>
+      <c r="K36">
+        <v>1.0000279668196</v>
+      </c>
+      <c r="L36">
+        <v>1.000108099830392</v>
+      </c>
+      <c r="M36">
+        <v>1.000211242463924</v>
+      </c>
+      <c r="N36">
+        <v>1.000399194364444</v>
+      </c>
+      <c r="O36">
+        <v>0.9995246807456281</v>
+      </c>
+      <c r="P36">
+        <v>1.000052289499168</v>
+      </c>
+      <c r="Q36">
+        <v>0.9997763237826138</v>
+      </c>
+      <c r="R36">
+        <v>1.00016792445426</v>
+      </c>
+      <c r="S36">
+        <v>1.000044181939312</v>
+      </c>
+      <c r="T36">
+        <v>1.00016792445426</v>
+      </c>
+      <c r="U36">
+        <v>1.000132935045595</v>
+      </c>
+      <c r="V36">
+        <v>1.000186186909365</v>
+      </c>
+      <c r="W36">
+        <v>1.000058597397119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000438000469342</v>
+      </c>
+      <c r="D37">
+        <v>1.003839306369855</v>
+      </c>
+      <c r="E37">
+        <v>1.003839306369855</v>
+      </c>
+      <c r="F37">
+        <v>0.9994168266002679</v>
+      </c>
+      <c r="G37">
+        <v>0.998128435043112</v>
+      </c>
+      <c r="H37">
+        <v>0.998128435043112</v>
+      </c>
+      <c r="I37">
+        <v>0.998128435043112</v>
+      </c>
+      <c r="J37">
+        <v>0.998989343418796</v>
+      </c>
+      <c r="K37">
+        <v>1.00038119888568</v>
+      </c>
+      <c r="L37">
+        <v>0.9990310435735678</v>
+      </c>
+      <c r="M37">
+        <v>1.002098984670025</v>
+      </c>
+      <c r="N37">
+        <v>0.998128435043112</v>
+      </c>
+      <c r="O37">
+        <v>0.9994168266002679</v>
+      </c>
+      <c r="P37">
+        <v>1.001628066485061</v>
+      </c>
+      <c r="Q37">
+        <v>0.9998990127429738</v>
+      </c>
+      <c r="R37">
+        <v>1.000461522671078</v>
+      </c>
+      <c r="S37">
+        <v>1.001212443951934</v>
+      </c>
+      <c r="T37">
+        <v>1.000461522671078</v>
+      </c>
+      <c r="U37">
+        <v>1.000441441724728</v>
+      </c>
+      <c r="V37">
+        <v>0.9999788403884052</v>
+      </c>
+      <c r="W37">
+        <v>1.00029039237883</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.002545680883234</v>
+      </c>
+      <c r="D38">
+        <v>1.011839892986081</v>
+      </c>
+      <c r="E38">
+        <v>1.011839892986081</v>
+      </c>
+      <c r="F38">
+        <v>0.9988825685582906</v>
+      </c>
+      <c r="G38">
+        <v>0.9917039195673589</v>
+      </c>
+      <c r="H38">
+        <v>0.9917039195673589</v>
+      </c>
+      <c r="I38">
+        <v>0.9917039195673589</v>
+      </c>
+      <c r="J38">
+        <v>0.9965067294468001</v>
+      </c>
+      <c r="K38">
+        <v>1.001574625979797</v>
+      </c>
+      <c r="L38">
+        <v>0.9964016031586036</v>
+      </c>
+      <c r="M38">
+        <v>1.006919911905917</v>
+      </c>
+      <c r="N38">
+        <v>0.9917039195673589</v>
+      </c>
+      <c r="O38">
+        <v>0.9988825685582906</v>
+      </c>
+      <c r="P38">
+        <v>1.005361230772186</v>
+      </c>
+      <c r="Q38">
+        <v>1.000228597269044</v>
+      </c>
+      <c r="R38">
+        <v>1.00080879370391</v>
+      </c>
+      <c r="S38">
+        <v>1.004099029174723</v>
+      </c>
+      <c r="T38">
+        <v>1.00080879370391</v>
+      </c>
+      <c r="U38">
+        <v>1.001000251772882</v>
+      </c>
+      <c r="V38">
+        <v>0.9991409853317773</v>
+      </c>
+      <c r="W38">
+        <v>1.00079686656076</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.00651111731119</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.027017926107413</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.027017926107413</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9993529746897861</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9792462999134202</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9792462999134202</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9792462999134202</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.992505511108699</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.003283701559858</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9907141891232444</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.015927470897878</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9792462999134202</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9993529746897861</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.0131854503986</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.001318338124822</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.001872400236873</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.009884867452352</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.001872400236873</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.002225225567619</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.9976294404367796</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.001819898838936</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.042115245659225</v>
+      </c>
+      <c r="D40">
+        <v>1.36870651348404</v>
+      </c>
+      <c r="E40">
+        <v>1.36870651348404</v>
+      </c>
+      <c r="F40">
+        <v>0.9007147947639962</v>
+      </c>
+      <c r="G40">
+        <v>0.8322912771900883</v>
+      </c>
+      <c r="H40">
+        <v>0.8322912771900883</v>
+      </c>
+      <c r="I40">
+        <v>0.8322912771900883</v>
+      </c>
+      <c r="J40">
+        <v>0.8803710178967409</v>
+      </c>
+      <c r="K40">
+        <v>1.055906010167462</v>
+      </c>
+      <c r="L40">
+        <v>0.9216811425341112</v>
+      </c>
+      <c r="M40">
+        <v>1.215365410615678</v>
+      </c>
+      <c r="N40">
+        <v>0.8322912771900883</v>
+      </c>
+      <c r="O40">
+        <v>0.9007147947639962</v>
+      </c>
+      <c r="P40">
+        <v>1.134710654124018</v>
+      </c>
+      <c r="Q40">
+        <v>0.9783104024657293</v>
+      </c>
+      <c r="R40">
+        <v>1.033904195146041</v>
+      </c>
+      <c r="S40">
+        <v>1.108442439471833</v>
+      </c>
+      <c r="T40">
+        <v>1.033904195146042</v>
+      </c>
+      <c r="U40">
+        <v>1.039404648901397</v>
+      </c>
+      <c r="V40">
+        <v>0.9979819745591352</v>
+      </c>
+      <c r="W40">
+        <v>1.027143926538918</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9534524544273854</v>
+      </c>
+      <c r="D41">
+        <v>0.8631564978395204</v>
+      </c>
+      <c r="E41">
+        <v>0.8631564978395204</v>
+      </c>
+      <c r="F41">
+        <v>1.006334063719997</v>
+      </c>
+      <c r="G41">
+        <v>1.144546846611279</v>
+      </c>
+      <c r="H41">
+        <v>1.144546846611279</v>
+      </c>
+      <c r="I41">
+        <v>1.144546846611279</v>
+      </c>
+      <c r="J41">
+        <v>1.048653034089059</v>
+      </c>
+      <c r="K41">
+        <v>0.9677186722876262</v>
+      </c>
+      <c r="L41">
+        <v>1.050130677011762</v>
+      </c>
+      <c r="M41">
+        <v>0.905064422312181</v>
+      </c>
+      <c r="N41">
+        <v>1.144546846611279</v>
+      </c>
+      <c r="O41">
+        <v>1.006334063719997</v>
+      </c>
+      <c r="P41">
+        <v>0.9347452807797589</v>
+      </c>
+      <c r="Q41">
+        <v>0.9870263680038118</v>
+      </c>
+      <c r="R41">
+        <v>1.004679136056932</v>
+      </c>
+      <c r="S41">
+        <v>0.9457364112823813</v>
+      </c>
+      <c r="T41">
+        <v>1.004679136056932</v>
+      </c>
+      <c r="U41">
+        <v>0.9954390201146057</v>
+      </c>
+      <c r="V41">
+        <v>1.02526058541394</v>
+      </c>
+      <c r="W41">
+        <v>0.9923820835373514</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.09635670187862</v>
+      </c>
+      <c r="D42">
+        <v>1.48825402128991</v>
+      </c>
+      <c r="E42">
+        <v>1.48825402128991</v>
+      </c>
+      <c r="F42">
+        <v>0.9098258709398918</v>
+      </c>
+      <c r="G42">
+        <v>0.6691911803244049</v>
+      </c>
+      <c r="H42">
+        <v>0.6691911803244049</v>
+      </c>
+      <c r="I42">
+        <v>0.6691911803244049</v>
+      </c>
+      <c r="J42">
+        <v>0.8369174628992135</v>
+      </c>
+      <c r="K42">
+        <v>1.088396203156964</v>
+      </c>
+      <c r="L42">
+        <v>0.8683496706293842</v>
+      </c>
+      <c r="M42">
+        <v>1.304105830146387</v>
+      </c>
+      <c r="N42">
+        <v>0.6691911803244049</v>
+      </c>
+      <c r="O42">
+        <v>0.9098258709398918</v>
+      </c>
+      <c r="P42">
+        <v>1.199039946114901</v>
+      </c>
+      <c r="Q42">
+        <v>0.999111037048428</v>
+      </c>
+      <c r="R42">
+        <v>1.022423690851402</v>
+      </c>
+      <c r="S42">
+        <v>1.162158698462255</v>
+      </c>
+      <c r="T42">
+        <v>1.022423690851402</v>
+      </c>
+      <c r="U42">
+        <v>1.038916818927793</v>
+      </c>
+      <c r="V42">
+        <v>0.9649716912071151</v>
+      </c>
+      <c r="W42">
+        <v>1.032674617658097</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW20.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,49 +85,46 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
     <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9718890071522363</v>
+        <v>1.000653040086157</v>
       </c>
       <c r="D3">
-        <v>1.038098124455384</v>
+        <v>1.009776360203636</v>
       </c>
       <c r="E3">
-        <v>0.9991323977173241</v>
+        <v>1.009776360203636</v>
       </c>
       <c r="F3">
-        <v>0.9718890071522363</v>
+        <v>0.9973512063936659</v>
       </c>
       <c r="G3">
-        <v>1.004262683892209</v>
+        <v>0.9966175327164225</v>
       </c>
       <c r="H3">
-        <v>0.9896895619473145</v>
+        <v>0.9966175327164225</v>
       </c>
       <c r="I3">
-        <v>0.9718890071522363</v>
+        <v>0.9966175327164225</v>
       </c>
       <c r="J3">
-        <v>1.038098124455384</v>
+        <v>0.9971252964540895</v>
       </c>
       <c r="K3">
-        <v>1.008778341630243</v>
+        <v>1.00111847975456</v>
       </c>
       <c r="L3">
-        <v>0.9869348789474791</v>
+        <v>0.9981176711792353</v>
       </c>
       <c r="M3">
-        <v>1.022213094466405</v>
+        <v>1.005317756988708</v>
       </c>
       <c r="N3">
-        <v>0.9718890071522363</v>
+        <v>0.9966175327164225</v>
       </c>
       <c r="O3">
-        <v>0.9991323977173241</v>
+        <v>0.9973512063936659</v>
       </c>
       <c r="P3">
-        <v>1.018615261086354</v>
+        <v>1.003563783298651</v>
       </c>
       <c r="Q3">
-        <v>1.001697540804766</v>
+        <v>0.9992348430741131</v>
       </c>
       <c r="R3">
-        <v>1.003039843108315</v>
+        <v>1.001248366437908</v>
       </c>
       <c r="S3">
-        <v>1.013831068688305</v>
+        <v>1.002748682117287</v>
       </c>
       <c r="T3">
-        <v>1.003039843108315</v>
+        <v>1.001248366437908</v>
       </c>
       <c r="U3">
-        <v>1.003345553304288</v>
+        <v>1.001215894767071</v>
       </c>
       <c r="V3">
-        <v>0.9970542440738777</v>
+        <v>1.000296222356941</v>
       </c>
       <c r="W3">
-        <v>1.002624761276074</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>1.000759667972059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9455123443089511</v>
+        <v>1.042115245659225</v>
       </c>
       <c r="D4">
-        <v>1.072948661355545</v>
+        <v>1.36870651348404</v>
       </c>
       <c r="E4">
-        <v>0.997907526360858</v>
+        <v>1.36870651348404</v>
       </c>
       <c r="F4">
-        <v>0.9455123443089511</v>
+        <v>0.9007147947639962</v>
       </c>
       <c r="G4">
-        <v>1.008630370789052</v>
+        <v>0.8322912771900883</v>
       </c>
       <c r="H4">
-        <v>0.9798891519422757</v>
+        <v>0.8322912771900883</v>
       </c>
       <c r="I4">
-        <v>0.9455123443089511</v>
+        <v>0.8322912771900883</v>
       </c>
       <c r="J4">
-        <v>1.072948661355545</v>
+        <v>0.8803710178967409</v>
       </c>
       <c r="K4">
-        <v>1.017024146827711</v>
+        <v>1.055906010167462</v>
       </c>
       <c r="L4">
-        <v>0.975086319551327</v>
+        <v>0.9216811425341112</v>
       </c>
       <c r="M4">
-        <v>1.042902422397654</v>
+        <v>1.215365410615678</v>
       </c>
       <c r="N4">
-        <v>0.9455123443089511</v>
+        <v>0.8322912771900883</v>
       </c>
       <c r="O4">
-        <v>0.997907526360858</v>
+        <v>0.9007147947639962</v>
       </c>
       <c r="P4">
-        <v>1.035428093858201</v>
+        <v>1.134710654124018</v>
       </c>
       <c r="Q4">
-        <v>1.003268948574955</v>
+        <v>0.9783104024657293</v>
       </c>
       <c r="R4">
-        <v>1.005456177341785</v>
+        <v>1.033904195146041</v>
       </c>
       <c r="S4">
-        <v>1.026495519501818</v>
+        <v>1.108442439471833</v>
       </c>
       <c r="T4">
-        <v>1.005456177341785</v>
+        <v>1.033904195146042</v>
       </c>
       <c r="U4">
-        <v>1.006249725703601</v>
+        <v>1.039404648901397</v>
       </c>
       <c r="V4">
-        <v>0.9941022494246713</v>
+        <v>0.9979819745591352</v>
       </c>
       <c r="W4">
-        <v>1.004987617941671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>1.027143926538918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8969173518638881</v>
+        <v>1.047374604884727</v>
       </c>
       <c r="D5">
-        <v>1.141477102769183</v>
+        <v>1.461995371485593</v>
       </c>
       <c r="E5">
-        <v>0.9957370190239905</v>
+        <v>1.461995371485593</v>
       </c>
       <c r="F5">
-        <v>0.8969173518638881</v>
+        <v>0.8798063211023061</v>
       </c>
       <c r="G5">
-        <v>1.015946930822985</v>
+        <v>0.8010647349553307</v>
       </c>
       <c r="H5">
-        <v>0.9615188317563654</v>
+        <v>0.8010647349553307</v>
       </c>
       <c r="I5">
-        <v>0.8969173518638881</v>
+        <v>0.8010647349553307</v>
       </c>
       <c r="J5">
-        <v>1.141477102769183</v>
+        <v>0.855893715367433</v>
       </c>
       <c r="K5">
-        <v>1.032059379990903</v>
+        <v>1.063723666822767</v>
       </c>
       <c r="L5">
-        <v>0.9520829733138202</v>
+        <v>0.9028590499567732</v>
       </c>
       <c r="M5">
-        <v>1.082407587582736</v>
+        <v>1.263500918170029</v>
       </c>
       <c r="N5">
-        <v>0.8969173518638881</v>
+        <v>0.8010647349553307</v>
       </c>
       <c r="O5">
-        <v>0.9957370190239905</v>
+        <v>0.8798063211023061</v>
       </c>
       <c r="P5">
-        <v>1.068607060896587</v>
+        <v>1.17090084629395</v>
       </c>
       <c r="Q5">
-        <v>1.005841974923488</v>
+        <v>0.9717649939625368</v>
       </c>
       <c r="R5">
-        <v>1.011377157885687</v>
+        <v>1.04762214251441</v>
       </c>
       <c r="S5">
-        <v>1.051053684205386</v>
+        <v>1.135175119803556</v>
       </c>
       <c r="T5">
-        <v>1.011377157885687</v>
+        <v>1.04762214251441</v>
       </c>
       <c r="U5">
-        <v>1.012519601120012</v>
+        <v>1.051647523591499</v>
       </c>
       <c r="V5">
-        <v>0.9893991512687871</v>
+        <v>1.001530965864265</v>
       </c>
       <c r="W5">
-        <v>1.009768397140484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>1.03452729784312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8503033370542593</v>
+        <v>1.097130482808417</v>
       </c>
       <c r="D6">
-        <v>1.208184877687989</v>
+        <v>2.656109404141916</v>
       </c>
       <c r="E6">
-        <v>0.993467589857899</v>
+        <v>2.656109404141916</v>
       </c>
       <c r="F6">
-        <v>0.8503033370542593</v>
+        <v>0.5568150880210136</v>
       </c>
       <c r="G6">
-        <v>1.022855564121425</v>
+        <v>0.4483900230707777</v>
       </c>
       <c r="H6">
-        <v>0.9430601767585016</v>
+        <v>0.4483900230707777</v>
       </c>
       <c r="I6">
-        <v>0.8503033370542593</v>
+        <v>0.4483900230707777</v>
       </c>
       <c r="J6">
-        <v>1.208184877687989</v>
+        <v>0.524904094014556</v>
       </c>
       <c r="K6">
-        <v>1.047397828025148</v>
+        <v>1.178596350589907</v>
       </c>
       <c r="L6">
-        <v>0.9294372372200028</v>
+        <v>0.6868586105271516</v>
       </c>
       <c r="M6">
-        <v>1.120761916832289</v>
+        <v>1.887336381531393</v>
       </c>
       <c r="N6">
-        <v>0.8503033370542593</v>
+        <v>0.4483900230707777</v>
       </c>
       <c r="O6">
-        <v>0.993467589857899</v>
+        <v>0.5568150880210136</v>
       </c>
       <c r="P6">
-        <v>1.100826233772944</v>
+        <v>1.606462246081465</v>
       </c>
       <c r="Q6">
-        <v>1.008161576989662</v>
+        <v>0.8677057193054601</v>
       </c>
       <c r="R6">
-        <v>1.017318601533383</v>
+        <v>1.220438171744569</v>
       </c>
       <c r="S6">
-        <v>1.074836010555771</v>
+        <v>1.463840280917612</v>
       </c>
       <c r="T6">
-        <v>1.017318601533382</v>
+        <v>1.220438171744569</v>
       </c>
       <c r="U6">
-        <v>1.018702842180393</v>
+        <v>1.209977716455903</v>
       </c>
       <c r="V6">
-        <v>0.9850229411551663</v>
+        <v>1.057660177778878</v>
       </c>
       <c r="W6">
-        <v>1.014433565944689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>1.129517554338141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9987831212398731</v>
+        <v>1.010184408263242</v>
       </c>
       <c r="D7">
-        <v>1.003618233355279</v>
+        <v>1.042846022819864</v>
       </c>
       <c r="E7">
-        <v>0.9990234812033181</v>
+        <v>1.042846022819864</v>
       </c>
       <c r="F7">
-        <v>0.9987831212398731</v>
+        <v>0.9980358260533719</v>
       </c>
       <c r="G7">
-        <v>1.000398622548761</v>
+        <v>0.9676516073423105</v>
       </c>
       <c r="H7">
-        <v>0.9989536758651956</v>
+        <v>0.9676516073423105</v>
       </c>
       <c r="I7">
-        <v>0.9987831212398731</v>
+        <v>0.9676516073423105</v>
       </c>
       <c r="J7">
-        <v>1.003618233355279</v>
+        <v>0.9876801666157652</v>
       </c>
       <c r="K7">
-        <v>1.000218758635835</v>
+        <v>1.005605799979156</v>
       </c>
       <c r="L7">
-        <v>0.999315338158153</v>
+        <v>0.9855160528997359</v>
       </c>
       <c r="M7">
-        <v>1.001947133459606</v>
+        <v>1.025677135731166</v>
       </c>
       <c r="N7">
-        <v>0.9987831212398731</v>
+        <v>0.9676516073423105</v>
       </c>
       <c r="O7">
-        <v>0.9990234812033181</v>
+        <v>0.9980358260533719</v>
       </c>
       <c r="P7">
-        <v>1.001320857279299</v>
+        <v>1.020440924436618</v>
       </c>
       <c r="Q7">
-        <v>0.9997110518760397</v>
+        <v>1.001820813016264</v>
       </c>
       <c r="R7">
-        <v>1.000474945266157</v>
+        <v>1.002844485405182</v>
       </c>
       <c r="S7">
-        <v>1.001013445702453</v>
+        <v>1.015495882950797</v>
       </c>
       <c r="T7">
-        <v>1.000474945266157</v>
+        <v>1.002844485405182</v>
       </c>
       <c r="U7">
-        <v>1.000455864586808</v>
+        <v>1.003534814048676</v>
       </c>
       <c r="V7">
-        <v>1.000121315917421</v>
+        <v>0.9963581727074026</v>
       </c>
       <c r="W7">
-        <v>1.000282295558253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>1.002899627463077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9966175327164225</v>
+        <v>1.000438000469342</v>
       </c>
       <c r="D8">
-        <v>1.009776360203635</v>
+        <v>1.003839306369855</v>
       </c>
       <c r="E8">
-        <v>0.9973512063936664</v>
+        <v>1.003839306369855</v>
       </c>
       <c r="F8">
-        <v>0.9966175327164225</v>
+        <v>0.9994168266002679</v>
       </c>
       <c r="G8">
-        <v>1.00111847975456</v>
+        <v>0.998128435043112</v>
       </c>
       <c r="H8">
-        <v>0.99712529645409</v>
+        <v>0.998128435043112</v>
       </c>
       <c r="I8">
-        <v>0.9966175327164225</v>
+        <v>0.998128435043112</v>
       </c>
       <c r="J8">
-        <v>1.009776360203635</v>
+        <v>0.998989343418796</v>
       </c>
       <c r="K8">
-        <v>1.000653040086156</v>
+        <v>1.00038119888568</v>
       </c>
       <c r="L8">
-        <v>0.9981176711792353</v>
+        <v>0.9990310435735678</v>
       </c>
       <c r="M8">
-        <v>1.005317756988708</v>
+        <v>1.002098984670025</v>
       </c>
       <c r="N8">
-        <v>0.9966175327164225</v>
+        <v>0.998128435043112</v>
       </c>
       <c r="O8">
-        <v>0.9973512063936664</v>
+        <v>0.9994168266002679</v>
       </c>
       <c r="P8">
-        <v>1.003563783298651</v>
+        <v>1.001628066485061</v>
       </c>
       <c r="Q8">
-        <v>0.9992348430741134</v>
+        <v>0.9998990127429738</v>
       </c>
       <c r="R8">
-        <v>1.001248366437908</v>
+        <v>1.000461522671078</v>
       </c>
       <c r="S8">
-        <v>1.002748682117287</v>
+        <v>1.001212443951934</v>
       </c>
       <c r="T8">
-        <v>1.001248366437908</v>
+        <v>1.000461522671078</v>
       </c>
       <c r="U8">
-        <v>1.001215894767071</v>
+        <v>1.000441441724728</v>
       </c>
       <c r="V8">
-        <v>1.000296222356941</v>
+        <v>0.9999788403884052</v>
       </c>
       <c r="W8">
-        <v>1.000759667972059</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>1.00029039237883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9950297917149249</v>
+        <v>1.017024146827711</v>
       </c>
       <c r="D9">
-        <v>1.014093610266912</v>
+        <v>1.072948661355545</v>
       </c>
       <c r="E9">
-        <v>0.9961200087007566</v>
+        <v>1.072948661355545</v>
       </c>
       <c r="F9">
-        <v>0.9950297917149249</v>
+        <v>0.997907526360858</v>
       </c>
       <c r="G9">
-        <v>1.001675560609047</v>
+        <v>0.9455123443089511</v>
       </c>
       <c r="H9">
-        <v>0.9958186028064048</v>
+        <v>0.9455123443089511</v>
       </c>
       <c r="I9">
-        <v>0.9950297917149249</v>
+        <v>0.9455123443089511</v>
       </c>
       <c r="J9">
-        <v>1.014093610266912</v>
+        <v>0.9798891519422757</v>
       </c>
       <c r="K9">
-        <v>1.00095334700493</v>
+        <v>1.008630370789052</v>
       </c>
       <c r="L9">
-        <v>0.9973155417667406</v>
+        <v>0.975086319551327</v>
       </c>
       <c r="M9">
-        <v>1.007705340839672</v>
+        <v>1.042902422397654</v>
       </c>
       <c r="N9">
-        <v>0.9950297917149249</v>
+        <v>0.9455123443089511</v>
       </c>
       <c r="O9">
-        <v>0.9961200087007566</v>
+        <v>0.997907526360858</v>
       </c>
       <c r="P9">
-        <v>1.005106809483834</v>
+        <v>1.035428093858201</v>
       </c>
       <c r="Q9">
-        <v>0.9988977846549019</v>
+        <v>1.003268948574955</v>
       </c>
       <c r="R9">
-        <v>1.001747803560864</v>
+        <v>1.005456177341785</v>
       </c>
       <c r="S9">
-        <v>1.003963059858905</v>
+        <v>1.026495519501818</v>
       </c>
       <c r="T9">
-        <v>1.001747803560864</v>
+        <v>1.005456177341785</v>
       </c>
       <c r="U9">
-        <v>1.00172974282291</v>
+        <v>1.006249725703601</v>
       </c>
       <c r="V9">
-        <v>1.000389752601313</v>
+        <v>0.9941022494246713</v>
       </c>
       <c r="W9">
-        <v>1.001088975463674</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>1.004987617941671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9893662457168499</v>
+        <v>1.094784945641312</v>
       </c>
       <c r="D10">
-        <v>1.02997296244758</v>
+        <v>2.69322854883295</v>
       </c>
       <c r="E10">
-        <v>0.9918647936779412</v>
+        <v>2.69322854883295</v>
       </c>
       <c r="F10">
-        <v>0.9893662457168499</v>
+        <v>0.5519893919522594</v>
       </c>
       <c r="G10">
-        <v>1.003525513258995</v>
+        <v>0.4474462936349127</v>
       </c>
       <c r="H10">
-        <v>0.9911704266759731</v>
+        <v>0.4474462936349127</v>
       </c>
       <c r="I10">
-        <v>0.9893662457168499</v>
+        <v>0.4474462936349127</v>
       </c>
       <c r="J10">
-        <v>1.02997296244758</v>
+        <v>0.5199906024143297</v>
       </c>
       <c r="K10">
-        <v>1.002015240045356</v>
+        <v>1.175764032522311</v>
       </c>
       <c r="L10">
-        <v>0.9942770351226389</v>
+        <v>0.6794064581312521</v>
       </c>
       <c r="M10">
-        <v>1.0163389991625</v>
+        <v>1.901431690981314</v>
       </c>
       <c r="N10">
-        <v>0.9893662457168499</v>
+        <v>0.4474462936349127</v>
       </c>
       <c r="O10">
-        <v>0.9918647936779412</v>
+        <v>0.5519893919522594</v>
       </c>
       <c r="P10">
-        <v>1.01091887806276</v>
+        <v>1.622608970392605</v>
       </c>
       <c r="Q10">
-        <v>0.997695153468468</v>
+        <v>0.8638767122372852</v>
       </c>
       <c r="R10">
-        <v>1.00373466728079</v>
+        <v>1.230888078140041</v>
       </c>
       <c r="S10">
-        <v>1.008454423128172</v>
+        <v>1.473660657769173</v>
       </c>
       <c r="T10">
-        <v>1.00373466728079</v>
+        <v>1.230888078140041</v>
       </c>
       <c r="U10">
-        <v>1.003682378775341</v>
+        <v>1.217107066735608</v>
       </c>
       <c r="V10">
-        <v>1.000819152163643</v>
+        <v>1.063174912115469</v>
       </c>
       <c r="W10">
-        <v>1.002316402013479</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>1.13300524551383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9821935340076484</v>
+        <v>1.000377852829018</v>
       </c>
       <c r="D11">
-        <v>1.051256125319738</v>
+        <v>1.267020059974008</v>
       </c>
       <c r="E11">
-        <v>0.98597394128689</v>
+        <v>1.267020059974008</v>
       </c>
       <c r="F11">
-        <v>0.9821935340076484</v>
+        <v>0.8898629817129452</v>
       </c>
       <c r="G11">
-        <v>1.005967386993258</v>
+        <v>0.9577701891361196</v>
       </c>
       <c r="H11">
-        <v>0.9848885506130653</v>
+        <v>0.9577701891361196</v>
       </c>
       <c r="I11">
-        <v>0.9821935340076484</v>
+        <v>0.9577701891361196</v>
       </c>
       <c r="J11">
-        <v>1.051256125319738</v>
+        <v>0.9129102717908916</v>
       </c>
       <c r="K11">
-        <v>1.003370062044892</v>
+        <v>1.034438843493537</v>
       </c>
       <c r="L11">
-        <v>0.9902387075723729</v>
+        <v>0.9670852576667915</v>
       </c>
       <c r="M11">
-        <v>1.02791422250914</v>
+        <v>1.144942954176899</v>
       </c>
       <c r="N11">
-        <v>0.9821935340076484</v>
+        <v>0.9577701891361196</v>
       </c>
       <c r="O11">
-        <v>0.98597394128689</v>
+        <v>0.8898629817129452</v>
       </c>
       <c r="P11">
-        <v>1.018615033303314</v>
+        <v>1.078441520843477</v>
       </c>
       <c r="Q11">
-        <v>0.9959706641400738</v>
+        <v>0.962150912603241</v>
       </c>
       <c r="R11">
-        <v>1.006474533538092</v>
+        <v>1.038217743607691</v>
       </c>
       <c r="S11">
-        <v>1.014399151199962</v>
+        <v>1.06377396172683</v>
       </c>
       <c r="T11">
-        <v>1.006474533538092</v>
+        <v>1.038217743607691</v>
       </c>
       <c r="U11">
-        <v>1.006347746901884</v>
+        <v>1.037273018579153</v>
       </c>
       <c r="V11">
-        <v>1.001516904323037</v>
+        <v>1.021372452690546</v>
       </c>
       <c r="W11">
-        <v>1.003975316293376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>1.021801051347526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.391676314260136</v>
+        <v>1.031928635410527</v>
       </c>
       <c r="D12">
-        <v>0.6132311431620127</v>
+        <v>1.506451411185266</v>
       </c>
       <c r="E12">
-        <v>0.9489468280812741</v>
+        <v>1.506451411185266</v>
       </c>
       <c r="F12">
-        <v>1.391676314260136</v>
+        <v>0.8672452017999999</v>
       </c>
       <c r="G12">
-        <v>0.9525803801333577</v>
+        <v>0.8320350566684199</v>
       </c>
       <c r="H12">
-        <v>1.097446714224897</v>
+        <v>0.8320350566684199</v>
       </c>
       <c r="I12">
-        <v>1.391676314260136</v>
+        <v>0.8320350566684199</v>
       </c>
       <c r="J12">
-        <v>0.6132311431620127</v>
+        <v>0.8547848749789464</v>
       </c>
       <c r="K12">
-        <v>0.8745368999227627</v>
+        <v>1.052912969105268</v>
       </c>
       <c r="L12">
-        <v>1.16504839110238</v>
+        <v>0.9008243625157891</v>
       </c>
       <c r="M12">
-        <v>0.7638635791204471</v>
+        <v>1.272027712210529</v>
       </c>
       <c r="N12">
-        <v>1.391676314260136</v>
+        <v>0.8320350566684199</v>
       </c>
       <c r="O12">
-        <v>0.9489468280812741</v>
+        <v>0.8672452017999999</v>
       </c>
       <c r="P12">
-        <v>0.7810889856216434</v>
+        <v>1.186848306492633</v>
       </c>
       <c r="Q12">
-        <v>0.9507636041073159</v>
+        <v>0.9600790854526339</v>
       </c>
       <c r="R12">
-        <v>0.9846180951678075</v>
+        <v>1.068577223217895</v>
       </c>
       <c r="S12">
-        <v>0.8382527837922149</v>
+        <v>1.142203194030178</v>
       </c>
       <c r="T12">
-        <v>0.9846180951678075</v>
+        <v>1.068577223217895</v>
       </c>
       <c r="U12">
-        <v>0.9766086664091951</v>
+        <v>1.064661159689738</v>
       </c>
       <c r="V12">
-        <v>1.059622195979383</v>
+        <v>1.018135939085475</v>
       </c>
       <c r="W12">
-        <v>0.9759162812509083</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>1.039776277984343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.044247981991259</v>
+        <v>0.948415354163217</v>
       </c>
       <c r="D13">
-        <v>0.920854348411776</v>
+        <v>0.7612809037377597</v>
       </c>
       <c r="E13">
-        <v>1.114500948424145</v>
+        <v>0.7612809037377597</v>
       </c>
       <c r="F13">
-        <v>1.044247981991259</v>
+        <v>1.084916004420995</v>
       </c>
       <c r="G13">
-        <v>0.9330467897408178</v>
+        <v>1.168697173486799</v>
       </c>
       <c r="H13">
-        <v>1.074483415934369</v>
+        <v>1.168697173486799</v>
       </c>
       <c r="I13">
-        <v>1.044247981991259</v>
+        <v>1.168697173486799</v>
       </c>
       <c r="J13">
-        <v>0.920854348411776</v>
+        <v>1.104619725467156</v>
       </c>
       <c r="K13">
-        <v>0.9921446998649259</v>
+        <v>0.9312628468662161</v>
       </c>
       <c r="L13">
-        <v>0.9797230111250643</v>
+        <v>1.05146463038284</v>
       </c>
       <c r="M13">
-        <v>0.9170928555211186</v>
+        <v>0.8318362937857001</v>
       </c>
       <c r="N13">
-        <v>1.044247981991259</v>
+        <v>1.168697173486799</v>
       </c>
       <c r="O13">
-        <v>1.114500948424145</v>
+        <v>1.084916004420995</v>
       </c>
       <c r="P13">
-        <v>1.01767764841796</v>
+        <v>0.9230984540793772</v>
       </c>
       <c r="Q13">
-        <v>1.023773869082481</v>
+        <v>1.008089425643605</v>
       </c>
       <c r="R13">
-        <v>1.026534426275727</v>
+        <v>1.004964693881851</v>
       </c>
       <c r="S13">
-        <v>0.9894673621922462</v>
+        <v>0.9258199183416568</v>
       </c>
       <c r="T13">
-        <v>1.026534426275727</v>
+        <v>1.004964693881851</v>
       </c>
       <c r="U13">
-        <v>1.003162517141999</v>
+        <v>0.9865392321279425</v>
       </c>
       <c r="V13">
-        <v>1.011379610111851</v>
+        <v>1.022970820399714</v>
       </c>
       <c r="W13">
-        <v>0.9970117563766845</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>0.9853116165388354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7695134981280533</v>
+        <v>1.156870699999999</v>
       </c>
       <c r="D14">
-        <v>0.6474123980439753</v>
+        <v>3.939353100000003</v>
       </c>
       <c r="E14">
-        <v>1.383247727733637</v>
+        <v>3.939353100000003</v>
       </c>
       <c r="F14">
-        <v>0.7695134981280533</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="G14">
-        <v>0.9210545075827428</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="H14">
-        <v>1.176299178148569</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="I14">
-        <v>0.7695134981280533</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="J14">
-        <v>0.6474123980439753</v>
+        <v>0.1699082099999997</v>
       </c>
       <c r="K14">
-        <v>1.097375869095959</v>
+        <v>1.3021676</v>
       </c>
       <c r="L14">
-        <v>0.9294315679662116</v>
+        <v>0.4490890699999996</v>
       </c>
       <c r="M14">
-        <v>0.8036241904562453</v>
+        <v>2.559413900000002</v>
       </c>
       <c r="N14">
-        <v>0.7695134981280533</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="O14">
-        <v>1.383247727733637</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="P14">
-        <v>1.015330062888806</v>
+        <v>2.079106035000001</v>
       </c>
       <c r="Q14">
-        <v>1.15215111765819</v>
+        <v>0.7605132850000001</v>
       </c>
       <c r="R14">
-        <v>0.9333912079685552</v>
+        <v>1.404189730666668</v>
       </c>
       <c r="S14">
-        <v>0.983904877786785</v>
+        <v>1.820126556666668</v>
       </c>
       <c r="T14">
-        <v>0.9333912079685552</v>
+        <v>1.404189730666668</v>
       </c>
       <c r="U14">
-        <v>0.9303070328721021</v>
+        <v>1.378684198000001</v>
       </c>
       <c r="V14">
-        <v>0.8981483259232924</v>
+        <v>1.113818782800001</v>
       </c>
       <c r="W14">
-        <v>0.9659948671444241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>1.231252334000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.165039530280905</v>
+        <v>1.1568707</v>
       </c>
       <c r="D15">
-        <v>1.013927747195857</v>
+        <v>3.9393531</v>
       </c>
       <c r="E15">
-        <v>0.8574694106388464</v>
+        <v>3.9393531</v>
       </c>
       <c r="F15">
-        <v>1.165039530280905</v>
+        <v>0.21885897</v>
       </c>
       <c r="G15">
-        <v>1.020185115454781</v>
+        <v>0.054357122</v>
       </c>
       <c r="H15">
-        <v>0.9650377884299971</v>
+        <v>0.054357122</v>
       </c>
       <c r="I15">
-        <v>1.165039530280905</v>
+        <v>0.054357122</v>
       </c>
       <c r="J15">
-        <v>1.013927747195857</v>
+        <v>0.16990821</v>
       </c>
       <c r="K15">
-        <v>0.9361305276650943</v>
+        <v>1.3021676</v>
       </c>
       <c r="L15">
-        <v>1.069688241736297</v>
+        <v>0.44908907</v>
       </c>
       <c r="M15">
-        <v>1.00572304026691</v>
+        <v>2.5594139</v>
       </c>
       <c r="N15">
-        <v>1.165039530280905</v>
+        <v>0.054357122</v>
       </c>
       <c r="O15">
-        <v>0.8574694106388464</v>
+        <v>0.21885897</v>
       </c>
       <c r="P15">
-        <v>0.9356985789173518</v>
+        <v>2.079106035</v>
       </c>
       <c r="Q15">
-        <v>0.9388272630468135</v>
+        <v>0.760513285</v>
       </c>
       <c r="R15">
-        <v>1.012145562705203</v>
+        <v>1.404189730666667</v>
       </c>
       <c r="S15">
-        <v>0.9638607577631614</v>
+        <v>1.820126556666667</v>
       </c>
       <c r="T15">
-        <v>1.012145562705203</v>
+        <v>1.404189730666667</v>
       </c>
       <c r="U15">
-        <v>1.014155450892597</v>
+        <v>1.378684198</v>
       </c>
       <c r="V15">
-        <v>1.044332266770259</v>
+        <v>1.1138187828</v>
       </c>
       <c r="W15">
-        <v>1.004150175208586</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>1.231252334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000399194364445</v>
+        <v>1.1568707</v>
       </c>
       <c r="D16">
-        <v>1.000579898252708</v>
+        <v>3.9393531</v>
       </c>
       <c r="E16">
-        <v>0.9995246807456281</v>
+        <v>3.9393531</v>
       </c>
       <c r="F16">
-        <v>1.000399194364445</v>
+        <v>0.21885897</v>
       </c>
       <c r="G16">
-        <v>1.0000279668196</v>
+        <v>0.054357122</v>
       </c>
       <c r="H16">
-        <v>0.9998331839130021</v>
+        <v>0.054357122</v>
       </c>
       <c r="I16">
-        <v>1.000399194364445</v>
+        <v>0.054357122</v>
       </c>
       <c r="J16">
-        <v>1.000579898252708</v>
+        <v>0.16990821</v>
       </c>
       <c r="K16">
-        <v>0.9997845127872559</v>
+        <v>1.3021676</v>
       </c>
       <c r="L16">
-        <v>1.000108099830392</v>
+        <v>0.44908907</v>
       </c>
       <c r="M16">
-        <v>1.000211242463924</v>
+        <v>2.5594139</v>
       </c>
       <c r="N16">
-        <v>1.000399194364445</v>
+        <v>0.054357122</v>
       </c>
       <c r="O16">
-        <v>0.9995246807456281</v>
+        <v>0.21885897</v>
       </c>
       <c r="P16">
-        <v>1.000052289499168</v>
+        <v>2.079106035</v>
       </c>
       <c r="Q16">
-        <v>0.9997763237826138</v>
+        <v>0.760513285</v>
       </c>
       <c r="R16">
-        <v>1.00016792445426</v>
+        <v>1.404189730666667</v>
       </c>
       <c r="S16">
-        <v>1.000044181939312</v>
+        <v>1.820126556666667</v>
       </c>
       <c r="T16">
-        <v>1.00016792445426</v>
+        <v>1.404189730666667</v>
       </c>
       <c r="U16">
-        <v>1.000132935045595</v>
+        <v>1.378684198</v>
       </c>
       <c r="V16">
-        <v>1.000186186909365</v>
+        <v>1.1138187828</v>
       </c>
       <c r="W16">
-        <v>1.000058597397119</v>
+        <v>1.231252334</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9981284350431122</v>
+        <v>1.240911</v>
       </c>
       <c r="D17">
-        <v>1.003839306369855</v>
+        <v>0.82576034</v>
       </c>
       <c r="E17">
-        <v>0.999416826600268</v>
+        <v>0.82576034</v>
       </c>
       <c r="F17">
-        <v>0.9981284350431122</v>
+        <v>1.3656747</v>
       </c>
       <c r="G17">
-        <v>1.00038119888568</v>
+        <v>0.47174105</v>
       </c>
       <c r="H17">
-        <v>0.9989893434187961</v>
+        <v>0.47174105</v>
       </c>
       <c r="I17">
-        <v>0.9981284350431122</v>
+        <v>0.47174105</v>
       </c>
       <c r="J17">
-        <v>1.003839306369855</v>
+        <v>1.0555159</v>
       </c>
       <c r="K17">
-        <v>1.000438000469342</v>
+        <v>1.0027216</v>
       </c>
       <c r="L17">
-        <v>0.9990310435735678</v>
+        <v>0.8263528499999999</v>
       </c>
       <c r="M17">
-        <v>1.002098984670025</v>
+        <v>0.98061785</v>
       </c>
       <c r="N17">
-        <v>0.9981284350431122</v>
+        <v>0.47174105</v>
       </c>
       <c r="O17">
-        <v>0.999416826600268</v>
+        <v>1.3656747</v>
       </c>
       <c r="P17">
-        <v>1.001628066485061</v>
+        <v>1.09571752</v>
       </c>
       <c r="Q17">
-        <v>0.9998990127429739</v>
+        <v>1.18419815</v>
       </c>
       <c r="R17">
-        <v>1.000461522671078</v>
+        <v>0.8877253633333333</v>
       </c>
       <c r="S17">
-        <v>1.001212443951934</v>
+        <v>1.06471888</v>
       </c>
       <c r="T17">
-        <v>1.000461522671078</v>
+        <v>0.8877253633333334</v>
       </c>
       <c r="U17">
-        <v>1.000441441724728</v>
+        <v>0.9164744225000001</v>
       </c>
       <c r="V17">
-        <v>0.9999788403884052</v>
+        <v>0.8275277480000002</v>
       </c>
       <c r="W17">
-        <v>1.000290392378831</v>
+        <v>0.9711619112500001</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9917039195673593</v>
+        <v>1.209545138356164</v>
       </c>
       <c r="D18">
-        <v>1.011839892986081</v>
+        <v>1.886962695068492</v>
       </c>
       <c r="E18">
-        <v>0.9988825685582906</v>
+        <v>1.886962695068492</v>
       </c>
       <c r="F18">
-        <v>0.9917039195673593</v>
+        <v>0.9753982209589043</v>
       </c>
       <c r="G18">
-        <v>1.001574625979797</v>
+        <v>0.3294725000821919</v>
       </c>
       <c r="H18">
-        <v>0.9965067294468003</v>
+        <v>0.3294725000821919</v>
       </c>
       <c r="I18">
-        <v>0.9917039195673593</v>
+        <v>0.3294725000821919</v>
       </c>
       <c r="J18">
-        <v>1.011839892986081</v>
+        <v>0.7541493502739726</v>
       </c>
       <c r="K18">
-        <v>1.002545680883233</v>
+        <v>1.107435649863014</v>
       </c>
       <c r="L18">
-        <v>0.9964016031586036</v>
+        <v>0.6958725647945209</v>
       </c>
       <c r="M18">
-        <v>1.006919911905917</v>
+        <v>1.52421080630137</v>
       </c>
       <c r="N18">
-        <v>0.9917039195673593</v>
+        <v>0.3294725000821919</v>
       </c>
       <c r="O18">
-        <v>0.9988825685582906</v>
+        <v>0.9753982209589043</v>
       </c>
       <c r="P18">
-        <v>1.005361230772186</v>
+        <v>1.431180458013698</v>
       </c>
       <c r="Q18">
-        <v>1.000228597269044</v>
+        <v>1.041416935410959</v>
       </c>
       <c r="R18">
-        <v>1.000808793703911</v>
+        <v>1.06394447203653</v>
       </c>
       <c r="S18">
-        <v>1.004099029174723</v>
+        <v>1.32326552196347</v>
       </c>
       <c r="T18">
-        <v>1.000808793703911</v>
+        <v>1.063944472036529</v>
       </c>
       <c r="U18">
-        <v>1.001000251772882</v>
+        <v>1.074817266493151</v>
       </c>
       <c r="V18">
-        <v>0.9991409853317774</v>
+        <v>0.9257483132109587</v>
       </c>
       <c r="W18">
-        <v>1.00079686656076</v>
+        <v>1.060380865712329</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9792462999134202</v>
+        <v>1.207465884210527</v>
       </c>
       <c r="D19">
-        <v>1.027017926107413</v>
+        <v>1.967978105789474</v>
       </c>
       <c r="E19">
-        <v>0.999352974689786</v>
+        <v>1.967978105789474</v>
       </c>
       <c r="F19">
-        <v>0.9792462999134202</v>
+        <v>0.9455348294736843</v>
       </c>
       <c r="G19">
-        <v>1.003283701559858</v>
+        <v>0.3186126825263157</v>
       </c>
       <c r="H19">
-        <v>0.992505511108699</v>
+        <v>0.3186126825263157</v>
       </c>
       <c r="I19">
-        <v>0.9792462999134202</v>
+        <v>0.3186126825263157</v>
       </c>
       <c r="J19">
-        <v>1.027017926107413</v>
+        <v>0.7310871999999999</v>
       </c>
       <c r="K19">
-        <v>1.00651111731119</v>
+        <v>1.115122437368421</v>
       </c>
       <c r="L19">
-        <v>0.9907141891232444</v>
+        <v>0.6861311110526316</v>
       </c>
       <c r="M19">
-        <v>1.015927470897878</v>
+        <v>1.565074086315789</v>
       </c>
       <c r="N19">
-        <v>0.9792462999134202</v>
+        <v>0.3186126825263157</v>
       </c>
       <c r="O19">
-        <v>0.999352974689786</v>
+        <v>0.9455348294736843</v>
       </c>
       <c r="P19">
-        <v>1.013185450398599</v>
+        <v>1.456756467631579</v>
       </c>
       <c r="Q19">
-        <v>1.001318338124822</v>
+        <v>1.030328633421053</v>
       </c>
       <c r="R19">
-        <v>1.001872400236873</v>
+        <v>1.077375205929825</v>
       </c>
       <c r="S19">
-        <v>1.009884867452352</v>
+        <v>1.34287845754386</v>
       </c>
       <c r="T19">
-        <v>1.001872400236873</v>
+        <v>1.077375205929824</v>
       </c>
       <c r="U19">
-        <v>1.002225225567619</v>
+        <v>1.086812013789474</v>
       </c>
       <c r="V19">
-        <v>0.9976294404367796</v>
+        <v>0.933172147536842</v>
       </c>
       <c r="W19">
-        <v>1.001819898838936</v>
+        <v>1.067125792092105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.207465884210527</v>
+      </c>
+      <c r="D20">
+        <v>1.967978105789474</v>
+      </c>
+      <c r="E20">
+        <v>1.967978105789474</v>
+      </c>
+      <c r="F20">
+        <v>0.9455348294736843</v>
+      </c>
+      <c r="G20">
+        <v>0.3186126825263157</v>
+      </c>
+      <c r="H20">
+        <v>0.3186126825263157</v>
+      </c>
+      <c r="I20">
+        <v>0.3186126825263157</v>
+      </c>
+      <c r="J20">
+        <v>0.7310871999999999</v>
+      </c>
+      <c r="K20">
+        <v>1.115122437368421</v>
+      </c>
+      <c r="L20">
+        <v>0.6861311110526316</v>
+      </c>
+      <c r="M20">
+        <v>1.565074086315789</v>
+      </c>
+      <c r="N20">
+        <v>0.3186126825263157</v>
+      </c>
+      <c r="O20">
+        <v>0.9455348294736843</v>
+      </c>
+      <c r="P20">
+        <v>1.456756467631579</v>
+      </c>
+      <c r="Q20">
+        <v>1.030328633421053</v>
+      </c>
+      <c r="R20">
+        <v>1.077375205929825</v>
+      </c>
+      <c r="S20">
+        <v>1.34287845754386</v>
+      </c>
+      <c r="T20">
+        <v>1.077375205929824</v>
+      </c>
+      <c r="U20">
+        <v>1.086812013789474</v>
+      </c>
+      <c r="V20">
+        <v>0.933172147536842</v>
+      </c>
+      <c r="W20">
+        <v>1.067125792092105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.097375869095959</v>
+      </c>
+      <c r="D21">
+        <v>0.6474123980439753</v>
+      </c>
+      <c r="E21">
+        <v>0.6474123980439753</v>
+      </c>
+      <c r="F21">
+        <v>1.383247727733637</v>
+      </c>
+      <c r="G21">
+        <v>0.7695134981280533</v>
+      </c>
+      <c r="H21">
+        <v>0.7695134981280533</v>
+      </c>
+      <c r="I21">
+        <v>0.7695134981280533</v>
+      </c>
+      <c r="J21">
+        <v>1.176299178148569</v>
+      </c>
+      <c r="K21">
+        <v>0.9210545075827427</v>
+      </c>
+      <c r="L21">
+        <v>0.9294315679662116</v>
+      </c>
+      <c r="M21">
+        <v>0.8036241904562451</v>
+      </c>
+      <c r="N21">
+        <v>0.7695134981280533</v>
+      </c>
+      <c r="O21">
+        <v>1.383247727733637</v>
+      </c>
+      <c r="P21">
+        <v>1.015330062888806</v>
+      </c>
+      <c r="Q21">
+        <v>1.15215111765819</v>
+      </c>
+      <c r="R21">
+        <v>0.9333912079685552</v>
+      </c>
+      <c r="S21">
+        <v>0.983904877786785</v>
+      </c>
+      <c r="T21">
+        <v>0.9333912079685552</v>
+      </c>
+      <c r="U21">
+        <v>0.9303070328721021</v>
+      </c>
+      <c r="V21">
+        <v>0.8981483259232924</v>
+      </c>
+      <c r="W21">
+        <v>0.9659948671444241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9361305276650942</v>
+      </c>
+      <c r="D22">
+        <v>1.013927747195857</v>
+      </c>
+      <c r="E22">
+        <v>1.013927747195857</v>
+      </c>
+      <c r="F22">
+        <v>0.8574694106388464</v>
+      </c>
+      <c r="G22">
+        <v>1.165039530280905</v>
+      </c>
+      <c r="H22">
+        <v>1.165039530280905</v>
+      </c>
+      <c r="I22">
+        <v>1.165039530280905</v>
+      </c>
+      <c r="J22">
+        <v>0.9650377884299971</v>
+      </c>
+      <c r="K22">
+        <v>1.020185115454781</v>
+      </c>
+      <c r="L22">
+        <v>1.069688241736297</v>
+      </c>
+      <c r="M22">
+        <v>1.00572304026691</v>
+      </c>
+      <c r="N22">
+        <v>1.165039530280905</v>
+      </c>
+      <c r="O22">
+        <v>0.8574694106388464</v>
+      </c>
+      <c r="P22">
+        <v>0.9356985789173518</v>
+      </c>
+      <c r="Q22">
+        <v>0.9388272630468135</v>
+      </c>
+      <c r="R22">
+        <v>1.012145562705203</v>
+      </c>
+      <c r="S22">
+        <v>0.9638607577631614</v>
+      </c>
+      <c r="T22">
+        <v>1.012145562705203</v>
+      </c>
+      <c r="U22">
+        <v>1.014155450892597</v>
+      </c>
+      <c r="V22">
+        <v>1.044332266770259</v>
+      </c>
+      <c r="W22">
+        <v>1.004150175208586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.8745368999227625</v>
+      </c>
+      <c r="D23">
+        <v>0.6132311431620122</v>
+      </c>
+      <c r="E23">
+        <v>0.6132311431620122</v>
+      </c>
+      <c r="F23">
+        <v>0.9489468280812738</v>
+      </c>
+      <c r="G23">
+        <v>1.391676314260136</v>
+      </c>
+      <c r="H23">
+        <v>1.391676314260136</v>
+      </c>
+      <c r="I23">
+        <v>1.391676314260136</v>
+      </c>
+      <c r="J23">
+        <v>1.097446714224897</v>
+      </c>
+      <c r="K23">
+        <v>0.9525803801333577</v>
+      </c>
+      <c r="L23">
+        <v>1.16504839110238</v>
+      </c>
+      <c r="M23">
+        <v>0.7638635791204468</v>
+      </c>
+      <c r="N23">
+        <v>1.391676314260136</v>
+      </c>
+      <c r="O23">
+        <v>0.9489468280812738</v>
+      </c>
+      <c r="P23">
+        <v>0.781088985621643</v>
+      </c>
+      <c r="Q23">
+        <v>0.9507636041073158</v>
+      </c>
+      <c r="R23">
+        <v>0.9846180951678072</v>
+      </c>
+      <c r="S23">
+        <v>0.8382527837922146</v>
+      </c>
+      <c r="T23">
+        <v>0.9846180951678072</v>
+      </c>
+      <c r="U23">
+        <v>0.9766086664091949</v>
+      </c>
+      <c r="V23">
+        <v>1.059622195979383</v>
+      </c>
+      <c r="W23">
+        <v>0.9759162812509081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9921446998649259</v>
+      </c>
+      <c r="D24">
+        <v>0.9208543484117759</v>
+      </c>
+      <c r="E24">
+        <v>0.9208543484117759</v>
+      </c>
+      <c r="F24">
+        <v>1.114500948424145</v>
+      </c>
+      <c r="G24">
+        <v>1.044247981991259</v>
+      </c>
+      <c r="H24">
+        <v>1.044247981991259</v>
+      </c>
+      <c r="I24">
+        <v>1.044247981991259</v>
+      </c>
+      <c r="J24">
+        <v>1.074483415934369</v>
+      </c>
+      <c r="K24">
+        <v>0.9330467897408178</v>
+      </c>
+      <c r="L24">
+        <v>0.9797230111250645</v>
+      </c>
+      <c r="M24">
+        <v>0.9170928555211185</v>
+      </c>
+      <c r="N24">
+        <v>1.044247981991259</v>
+      </c>
+      <c r="O24">
+        <v>1.114500948424145</v>
+      </c>
+      <c r="P24">
+        <v>1.017677648417961</v>
+      </c>
+      <c r="Q24">
+        <v>1.023773869082481</v>
+      </c>
+      <c r="R24">
+        <v>1.026534426275727</v>
+      </c>
+      <c r="S24">
+        <v>0.9894673621922463</v>
+      </c>
+      <c r="T24">
+        <v>1.026534426275727</v>
+      </c>
+      <c r="U24">
+        <v>1.003162517142</v>
+      </c>
+      <c r="V24">
+        <v>1.011379610111852</v>
+      </c>
+      <c r="W24">
+        <v>0.9970117563766845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.097375869095959</v>
+      </c>
+      <c r="D25">
+        <v>0.6474123980439753</v>
+      </c>
+      <c r="E25">
+        <v>0.6474123980439753</v>
+      </c>
+      <c r="F25">
+        <v>1.383247727733637</v>
+      </c>
+      <c r="G25">
+        <v>0.7695134981280533</v>
+      </c>
+      <c r="H25">
+        <v>0.7695134981280533</v>
+      </c>
+      <c r="I25">
+        <v>0.7695134981280533</v>
+      </c>
+      <c r="J25">
+        <v>1.176299178148569</v>
+      </c>
+      <c r="K25">
+        <v>0.9210545075827427</v>
+      </c>
+      <c r="L25">
+        <v>0.9294315679662115</v>
+      </c>
+      <c r="M25">
+        <v>0.8036241904562451</v>
+      </c>
+      <c r="N25">
+        <v>0.7695134981280533</v>
+      </c>
+      <c r="O25">
+        <v>1.383247727733637</v>
+      </c>
+      <c r="P25">
+        <v>1.015330062888806</v>
+      </c>
+      <c r="Q25">
+        <v>1.15215111765819</v>
+      </c>
+      <c r="R25">
+        <v>0.9333912079685552</v>
+      </c>
+      <c r="S25">
+        <v>0.983904877786785</v>
+      </c>
+      <c r="T25">
+        <v>0.9333912079685552</v>
+      </c>
+      <c r="U25">
+        <v>0.9303070328721021</v>
+      </c>
+      <c r="V25">
+        <v>0.8981483259232924</v>
+      </c>
+      <c r="W25">
+        <v>0.9659948671444242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9361305276650941</v>
+      </c>
+      <c r="D26">
+        <v>1.013927747195857</v>
+      </c>
+      <c r="E26">
+        <v>1.013927747195857</v>
+      </c>
+      <c r="F26">
+        <v>0.8574694106388463</v>
+      </c>
+      <c r="G26">
+        <v>1.165039530280905</v>
+      </c>
+      <c r="H26">
+        <v>1.165039530280905</v>
+      </c>
+      <c r="I26">
+        <v>1.165039530280905</v>
+      </c>
+      <c r="J26">
+        <v>0.9650377884299971</v>
+      </c>
+      <c r="K26">
+        <v>1.020185115454781</v>
+      </c>
+      <c r="L26">
+        <v>1.069688241736297</v>
+      </c>
+      <c r="M26">
+        <v>1.00572304026691</v>
+      </c>
+      <c r="N26">
+        <v>1.165039530280905</v>
+      </c>
+      <c r="O26">
+        <v>0.8574694106388463</v>
+      </c>
+      <c r="P26">
+        <v>0.9356985789173516</v>
+      </c>
+      <c r="Q26">
+        <v>0.9388272630468135</v>
+      </c>
+      <c r="R26">
+        <v>1.012145562705203</v>
+      </c>
+      <c r="S26">
+        <v>0.9638607577631614</v>
+      </c>
+      <c r="T26">
+        <v>1.012145562705203</v>
+      </c>
+      <c r="U26">
+        <v>1.014155450892597</v>
+      </c>
+      <c r="V26">
+        <v>1.044332266770259</v>
+      </c>
+      <c r="W26">
+        <v>1.004150175208586</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.040789098745243</v>
+      </c>
+      <c r="D27">
+        <v>1.097862878032881</v>
+      </c>
+      <c r="E27">
+        <v>1.097862878032881</v>
+      </c>
+      <c r="F27">
+        <v>0.9594025300772111</v>
+      </c>
+      <c r="G27">
+        <v>0.8953943628454462</v>
+      </c>
+      <c r="H27">
+        <v>0.8953943628454462</v>
+      </c>
+      <c r="I27">
+        <v>0.8953943628454462</v>
+      </c>
+      <c r="J27">
+        <v>0.9429354979296316</v>
+      </c>
+      <c r="K27">
+        <v>1.041540739109217</v>
+      </c>
+      <c r="L27">
+        <v>0.9721315662460449</v>
+      </c>
+      <c r="M27">
+        <v>1.083685311755372</v>
+      </c>
+      <c r="N27">
+        <v>0.8953943628454462</v>
+      </c>
+      <c r="O27">
+        <v>0.9594025300772111</v>
+      </c>
+      <c r="P27">
+        <v>1.028632704055046</v>
+      </c>
+      <c r="Q27">
+        <v>1.000471634593214</v>
+      </c>
+      <c r="R27">
+        <v>0.9842199236518461</v>
+      </c>
+      <c r="S27">
+        <v>1.032935382406436</v>
+      </c>
+      <c r="T27">
+        <v>0.9842199236518461</v>
+      </c>
+      <c r="U27">
+        <v>0.9985501275161888</v>
+      </c>
+      <c r="V27">
+        <v>0.9779189745820404</v>
+      </c>
+      <c r="W27">
+        <v>1.004217748092631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.062864580180446</v>
+      </c>
+      <c r="D28">
+        <v>1.003375168059962</v>
+      </c>
+      <c r="E28">
+        <v>1.003375168059962</v>
+      </c>
+      <c r="F28">
+        <v>1.096089382620813</v>
+      </c>
+      <c r="G28">
+        <v>0.8541696514648782</v>
+      </c>
+      <c r="H28">
+        <v>0.8541696514648782</v>
+      </c>
+      <c r="I28">
+        <v>0.8541696514648782</v>
+      </c>
+      <c r="J28">
+        <v>1.008845290132268</v>
+      </c>
+      <c r="K28">
+        <v>0.9963567386157495</v>
+      </c>
+      <c r="L28">
+        <v>0.9412078236537136</v>
+      </c>
+      <c r="M28">
+        <v>1.014056563744896</v>
+      </c>
+      <c r="N28">
+        <v>0.8541696514648782</v>
+      </c>
+      <c r="O28">
+        <v>1.096089382620813</v>
+      </c>
+      <c r="P28">
+        <v>1.049732275340387</v>
+      </c>
+      <c r="Q28">
+        <v>1.046223060618281</v>
+      </c>
+      <c r="R28">
+        <v>0.9845447340485508</v>
+      </c>
+      <c r="S28">
+        <v>1.031940429765508</v>
+      </c>
+      <c r="T28">
+        <v>0.9845447340485508</v>
+      </c>
+      <c r="U28">
+        <v>0.9874977351903504</v>
+      </c>
+      <c r="V28">
+        <v>0.960832118445256</v>
+      </c>
+      <c r="W28">
+        <v>0.9971206498090907</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.008364823854495</v>
+      </c>
+      <c r="D29">
+        <v>0.5401362410033301</v>
+      </c>
+      <c r="E29">
+        <v>0.5401362410033301</v>
+      </c>
+      <c r="F29">
+        <v>1.237696528197049</v>
+      </c>
+      <c r="G29">
+        <v>1.063467323144168</v>
+      </c>
+      <c r="H29">
+        <v>1.063467323144168</v>
+      </c>
+      <c r="I29">
+        <v>1.063467323144168</v>
+      </c>
+      <c r="J29">
+        <v>1.169027282218172</v>
+      </c>
+      <c r="K29">
+        <v>0.9169181696287952</v>
+      </c>
+      <c r="L29">
+        <v>1.036152779586947</v>
+      </c>
+      <c r="M29">
+        <v>0.7345251761872527</v>
+      </c>
+      <c r="N29">
+        <v>1.063467323144168</v>
+      </c>
+      <c r="O29">
+        <v>1.237696528197049</v>
+      </c>
+      <c r="P29">
+        <v>0.8889163846001896</v>
+      </c>
+      <c r="Q29">
+        <v>1.077307348912922</v>
+      </c>
+      <c r="R29">
+        <v>0.9471000307815157</v>
+      </c>
+      <c r="S29">
+        <v>0.8982503129430581</v>
+      </c>
+      <c r="T29">
+        <v>0.9471000307815157</v>
+      </c>
+      <c r="U29">
+        <v>0.9395545654933356</v>
+      </c>
+      <c r="V29">
+        <v>0.9643371170235021</v>
+      </c>
+      <c r="W29">
+        <v>0.9632860404775261</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.042115245659225</v>
+        <v>1.037696498706205</v>
       </c>
       <c r="D4">
-        <v>1.36870651348404</v>
+        <v>1.37061559928647</v>
       </c>
       <c r="E4">
-        <v>1.36870651348404</v>
+        <v>1.37061559928647</v>
       </c>
       <c r="F4">
-        <v>0.9007147947639962</v>
+        <v>0.8967181020725841</v>
       </c>
       <c r="G4">
-        <v>0.8322912771900883</v>
+        <v>0.8419190577247671</v>
       </c>
       <c r="H4">
-        <v>0.8322912771900883</v>
+        <v>0.8419190577247671</v>
       </c>
       <c r="I4">
-        <v>0.8322912771900883</v>
+        <v>0.8419190577247671</v>
       </c>
       <c r="J4">
-        <v>0.8803710178967409</v>
+        <v>0.880961677183441</v>
       </c>
       <c r="K4">
-        <v>1.055906010167462</v>
+        <v>1.054467251998644</v>
       </c>
       <c r="L4">
-        <v>0.9216811425341112</v>
+        <v>0.9244589414005867</v>
       </c>
       <c r="M4">
-        <v>1.215365410615678</v>
+        <v>1.213892286069556</v>
       </c>
       <c r="N4">
-        <v>0.8322912771900883</v>
+        <v>0.8419190577247671</v>
       </c>
       <c r="O4">
-        <v>0.9007147947639962</v>
+        <v>0.8967181020725841</v>
       </c>
       <c r="P4">
-        <v>1.134710654124018</v>
+        <v>1.133666850679527</v>
       </c>
       <c r="Q4">
-        <v>0.9783104024657293</v>
+        <v>0.975592677035614</v>
       </c>
       <c r="R4">
-        <v>1.033904195146041</v>
+        <v>1.036417586361274</v>
       </c>
       <c r="S4">
-        <v>1.108442439471833</v>
+        <v>1.107266984452566</v>
       </c>
       <c r="T4">
-        <v>1.033904195146042</v>
+        <v>1.036417586361274</v>
       </c>
       <c r="U4">
-        <v>1.039404648901397</v>
+        <v>1.040930002770616</v>
       </c>
       <c r="V4">
-        <v>0.9979819745591352</v>
+        <v>1.001127813761447</v>
       </c>
       <c r="W4">
-        <v>1.027143926538918</v>
+        <v>1.027591176805282</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.047374604884727</v>
+        <v>1.21237980931583</v>
       </c>
       <c r="D5">
-        <v>1.461995371485593</v>
+        <v>1.765550952476064</v>
       </c>
       <c r="E5">
-        <v>1.461995371485593</v>
+        <v>1.765550952476064</v>
       </c>
       <c r="F5">
-        <v>0.8798063211023061</v>
+        <v>1.021184500117918</v>
       </c>
       <c r="G5">
-        <v>0.8010647349553307</v>
+        <v>0.346056142105057</v>
       </c>
       <c r="H5">
-        <v>0.8010647349553307</v>
+        <v>0.346056142105057</v>
       </c>
       <c r="I5">
-        <v>0.8010647349553307</v>
+        <v>0.346056142105057</v>
       </c>
       <c r="J5">
-        <v>0.855893715367433</v>
+        <v>0.7894356102796086</v>
       </c>
       <c r="K5">
-        <v>1.063723666822767</v>
+        <v>1.095223269890927</v>
       </c>
       <c r="L5">
-        <v>0.9028590499567732</v>
+        <v>0.7103156254172743</v>
       </c>
       <c r="M5">
-        <v>1.263500918170029</v>
+        <v>1.462304289233247</v>
       </c>
       <c r="N5">
-        <v>0.8010647349553307</v>
+        <v>0.346056142105057</v>
       </c>
       <c r="O5">
-        <v>0.8798063211023061</v>
+        <v>1.021184500117918</v>
       </c>
       <c r="P5">
-        <v>1.17090084629395</v>
+        <v>1.393367726296991</v>
       </c>
       <c r="Q5">
-        <v>0.9717649939625368</v>
+        <v>1.058203885004423</v>
       </c>
       <c r="R5">
-        <v>1.04762214251441</v>
+        <v>1.04426386489968</v>
       </c>
       <c r="S5">
-        <v>1.135175119803556</v>
+        <v>1.293986240828303</v>
       </c>
       <c r="T5">
-        <v>1.04762214251441</v>
+        <v>1.04426386489968</v>
       </c>
       <c r="U5">
-        <v>1.051647523591499</v>
+        <v>1.057003716147491</v>
       </c>
       <c r="V5">
-        <v>1.001530965864265</v>
+        <v>0.9148142013390046</v>
       </c>
       <c r="W5">
-        <v>1.03452729784312</v>
+        <v>1.050306274854491</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.097130482808417</v>
+        <v>1.042115245659225</v>
       </c>
       <c r="D6">
-        <v>2.656109404141916</v>
+        <v>1.36870651348404</v>
       </c>
       <c r="E6">
-        <v>2.656109404141916</v>
+        <v>1.36870651348404</v>
       </c>
       <c r="F6">
-        <v>0.5568150880210136</v>
+        <v>0.9007147947639962</v>
       </c>
       <c r="G6">
-        <v>0.4483900230707777</v>
+        <v>0.8322912771900883</v>
       </c>
       <c r="H6">
-        <v>0.4483900230707777</v>
+        <v>0.8322912771900883</v>
       </c>
       <c r="I6">
-        <v>0.4483900230707777</v>
+        <v>0.8322912771900883</v>
       </c>
       <c r="J6">
-        <v>0.524904094014556</v>
+        <v>0.8803710178967409</v>
       </c>
       <c r="K6">
-        <v>1.178596350589907</v>
+        <v>1.055906010167462</v>
       </c>
       <c r="L6">
-        <v>0.6868586105271516</v>
+        <v>0.9216811425341112</v>
       </c>
       <c r="M6">
-        <v>1.887336381531393</v>
+        <v>1.215365410615678</v>
       </c>
       <c r="N6">
-        <v>0.4483900230707777</v>
+        <v>0.8322912771900883</v>
       </c>
       <c r="O6">
-        <v>0.5568150880210136</v>
+        <v>0.9007147947639962</v>
       </c>
       <c r="P6">
-        <v>1.606462246081465</v>
+        <v>1.134710654124018</v>
       </c>
       <c r="Q6">
-        <v>0.8677057193054601</v>
+        <v>0.9783104024657293</v>
       </c>
       <c r="R6">
-        <v>1.220438171744569</v>
+        <v>1.033904195146041</v>
       </c>
       <c r="S6">
-        <v>1.463840280917612</v>
+        <v>1.108442439471833</v>
       </c>
       <c r="T6">
-        <v>1.220438171744569</v>
+        <v>1.033904195146042</v>
       </c>
       <c r="U6">
-        <v>1.209977716455903</v>
+        <v>1.039404648901397</v>
       </c>
       <c r="V6">
-        <v>1.057660177778878</v>
+        <v>0.9979819745591352</v>
       </c>
       <c r="W6">
-        <v>1.129517554338141</v>
+        <v>1.027143926538918</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.010184408263242</v>
+        <v>1.047374604884727</v>
       </c>
       <c r="D7">
-        <v>1.042846022819864</v>
+        <v>1.461995371485593</v>
       </c>
       <c r="E7">
-        <v>1.042846022819864</v>
+        <v>1.461995371485593</v>
       </c>
       <c r="F7">
-        <v>0.9980358260533719</v>
+        <v>0.8798063211023061</v>
       </c>
       <c r="G7">
-        <v>0.9676516073423105</v>
+        <v>0.8010647349553307</v>
       </c>
       <c r="H7">
-        <v>0.9676516073423105</v>
+        <v>0.8010647349553307</v>
       </c>
       <c r="I7">
-        <v>0.9676516073423105</v>
+        <v>0.8010647349553307</v>
       </c>
       <c r="J7">
-        <v>0.9876801666157652</v>
+        <v>0.855893715367433</v>
       </c>
       <c r="K7">
-        <v>1.005605799979156</v>
+        <v>1.063723666822767</v>
       </c>
       <c r="L7">
-        <v>0.9855160528997359</v>
+        <v>0.9028590499567732</v>
       </c>
       <c r="M7">
-        <v>1.025677135731166</v>
+        <v>1.263500918170029</v>
       </c>
       <c r="N7">
-        <v>0.9676516073423105</v>
+        <v>0.8010647349553307</v>
       </c>
       <c r="O7">
-        <v>0.9980358260533719</v>
+        <v>0.8798063211023061</v>
       </c>
       <c r="P7">
-        <v>1.020440924436618</v>
+        <v>1.17090084629395</v>
       </c>
       <c r="Q7">
-        <v>1.001820813016264</v>
+        <v>0.9717649939625368</v>
       </c>
       <c r="R7">
-        <v>1.002844485405182</v>
+        <v>1.04762214251441</v>
       </c>
       <c r="S7">
-        <v>1.015495882950797</v>
+        <v>1.135175119803556</v>
       </c>
       <c r="T7">
-        <v>1.002844485405182</v>
+        <v>1.04762214251441</v>
       </c>
       <c r="U7">
-        <v>1.003534814048676</v>
+        <v>1.051647523591499</v>
       </c>
       <c r="V7">
-        <v>0.9963581727074026</v>
+        <v>1.001530965864265</v>
       </c>
       <c r="W7">
-        <v>1.002899627463077</v>
+        <v>1.03452729784312</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000438000469342</v>
+        <v>1.097130482808417</v>
       </c>
       <c r="D8">
-        <v>1.003839306369855</v>
+        <v>2.656109404141916</v>
       </c>
       <c r="E8">
-        <v>1.003839306369855</v>
+        <v>2.656109404141916</v>
       </c>
       <c r="F8">
-        <v>0.9994168266002679</v>
+        <v>0.5568150880210136</v>
       </c>
       <c r="G8">
-        <v>0.998128435043112</v>
+        <v>0.4483900230707777</v>
       </c>
       <c r="H8">
-        <v>0.998128435043112</v>
+        <v>0.4483900230707777</v>
       </c>
       <c r="I8">
-        <v>0.998128435043112</v>
+        <v>0.4483900230707777</v>
       </c>
       <c r="J8">
-        <v>0.998989343418796</v>
+        <v>0.524904094014556</v>
       </c>
       <c r="K8">
-        <v>1.00038119888568</v>
+        <v>1.178596350589907</v>
       </c>
       <c r="L8">
-        <v>0.9990310435735678</v>
+        <v>0.6868586105271516</v>
       </c>
       <c r="M8">
-        <v>1.002098984670025</v>
+        <v>1.887336381531393</v>
       </c>
       <c r="N8">
-        <v>0.998128435043112</v>
+        <v>0.4483900230707777</v>
       </c>
       <c r="O8">
-        <v>0.9994168266002679</v>
+        <v>0.5568150880210136</v>
       </c>
       <c r="P8">
-        <v>1.001628066485061</v>
+        <v>1.606462246081465</v>
       </c>
       <c r="Q8">
-        <v>0.9998990127429738</v>
+        <v>0.8677057193054601</v>
       </c>
       <c r="R8">
-        <v>1.000461522671078</v>
+        <v>1.220438171744569</v>
       </c>
       <c r="S8">
-        <v>1.001212443951934</v>
+        <v>1.463840280917612</v>
       </c>
       <c r="T8">
-        <v>1.000461522671078</v>
+        <v>1.220438171744569</v>
       </c>
       <c r="U8">
-        <v>1.000441441724728</v>
+        <v>1.209977716455903</v>
       </c>
       <c r="V8">
-        <v>0.9999788403884052</v>
+        <v>1.057660177778878</v>
       </c>
       <c r="W8">
-        <v>1.00029039237883</v>
+        <v>1.129517554338141</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.017024146827711</v>
+        <v>1.010184408263242</v>
       </c>
       <c r="D9">
-        <v>1.072948661355545</v>
+        <v>1.042846022819864</v>
       </c>
       <c r="E9">
-        <v>1.072948661355545</v>
+        <v>1.042846022819864</v>
       </c>
       <c r="F9">
-        <v>0.997907526360858</v>
+        <v>0.9980358260533719</v>
       </c>
       <c r="G9">
-        <v>0.9455123443089511</v>
+        <v>0.9676516073423105</v>
       </c>
       <c r="H9">
-        <v>0.9455123443089511</v>
+        <v>0.9676516073423105</v>
       </c>
       <c r="I9">
-        <v>0.9455123443089511</v>
+        <v>0.9676516073423105</v>
       </c>
       <c r="J9">
-        <v>0.9798891519422757</v>
+        <v>0.9876801666157652</v>
       </c>
       <c r="K9">
-        <v>1.008630370789052</v>
+        <v>1.005605799979156</v>
       </c>
       <c r="L9">
-        <v>0.975086319551327</v>
+        <v>0.9855160528997359</v>
       </c>
       <c r="M9">
-        <v>1.042902422397654</v>
+        <v>1.025677135731166</v>
       </c>
       <c r="N9">
-        <v>0.9455123443089511</v>
+        <v>0.9676516073423105</v>
       </c>
       <c r="O9">
-        <v>0.997907526360858</v>
+        <v>0.9980358260533719</v>
       </c>
       <c r="P9">
-        <v>1.035428093858201</v>
+        <v>1.020440924436618</v>
       </c>
       <c r="Q9">
-        <v>1.003268948574955</v>
+        <v>1.001820813016264</v>
       </c>
       <c r="R9">
-        <v>1.005456177341785</v>
+        <v>1.002844485405182</v>
       </c>
       <c r="S9">
-        <v>1.026495519501818</v>
+        <v>1.015495882950797</v>
       </c>
       <c r="T9">
-        <v>1.005456177341785</v>
+        <v>1.002844485405182</v>
       </c>
       <c r="U9">
-        <v>1.006249725703601</v>
+        <v>1.003534814048676</v>
       </c>
       <c r="V9">
-        <v>0.9941022494246713</v>
+        <v>0.9963581727074026</v>
       </c>
       <c r="W9">
-        <v>1.004987617941671</v>
+        <v>1.002899627463077</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.094784945641312</v>
+        <v>1.000438000469342</v>
       </c>
       <c r="D10">
-        <v>2.69322854883295</v>
+        <v>1.003839306369855</v>
       </c>
       <c r="E10">
-        <v>2.69322854883295</v>
+        <v>1.003839306369855</v>
       </c>
       <c r="F10">
-        <v>0.5519893919522594</v>
+        <v>0.9994168266002679</v>
       </c>
       <c r="G10">
-        <v>0.4474462936349127</v>
+        <v>0.998128435043112</v>
       </c>
       <c r="H10">
-        <v>0.4474462936349127</v>
+        <v>0.998128435043112</v>
       </c>
       <c r="I10">
-        <v>0.4474462936349127</v>
+        <v>0.998128435043112</v>
       </c>
       <c r="J10">
-        <v>0.5199906024143297</v>
+        <v>0.998989343418796</v>
       </c>
       <c r="K10">
-        <v>1.175764032522311</v>
+        <v>1.00038119888568</v>
       </c>
       <c r="L10">
-        <v>0.6794064581312521</v>
+        <v>0.9990310435735678</v>
       </c>
       <c r="M10">
-        <v>1.901431690981314</v>
+        <v>1.002098984670025</v>
       </c>
       <c r="N10">
-        <v>0.4474462936349127</v>
+        <v>0.998128435043112</v>
       </c>
       <c r="O10">
-        <v>0.5519893919522594</v>
+        <v>0.9994168266002679</v>
       </c>
       <c r="P10">
-        <v>1.622608970392605</v>
+        <v>1.001628066485061</v>
       </c>
       <c r="Q10">
-        <v>0.8638767122372852</v>
+        <v>0.9998990127429738</v>
       </c>
       <c r="R10">
-        <v>1.230888078140041</v>
+        <v>1.000461522671078</v>
       </c>
       <c r="S10">
-        <v>1.473660657769173</v>
+        <v>1.001212443951934</v>
       </c>
       <c r="T10">
-        <v>1.230888078140041</v>
+        <v>1.000461522671078</v>
       </c>
       <c r="U10">
-        <v>1.217107066735608</v>
+        <v>1.000441441724728</v>
       </c>
       <c r="V10">
-        <v>1.063174912115469</v>
+        <v>0.9999788403884052</v>
       </c>
       <c r="W10">
-        <v>1.13300524551383</v>
+        <v>1.00029039237883</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000377852829018</v>
+        <v>1.017024146827711</v>
       </c>
       <c r="D11">
-        <v>1.267020059974008</v>
+        <v>1.072948661355545</v>
       </c>
       <c r="E11">
-        <v>1.267020059974008</v>
+        <v>1.072948661355545</v>
       </c>
       <c r="F11">
-        <v>0.8898629817129452</v>
+        <v>0.997907526360858</v>
       </c>
       <c r="G11">
-        <v>0.9577701891361196</v>
+        <v>0.9455123443089511</v>
       </c>
       <c r="H11">
-        <v>0.9577701891361196</v>
+        <v>0.9455123443089511</v>
       </c>
       <c r="I11">
-        <v>0.9577701891361196</v>
+        <v>0.9455123443089511</v>
       </c>
       <c r="J11">
-        <v>0.9129102717908916</v>
+        <v>0.9798891519422757</v>
       </c>
       <c r="K11">
-        <v>1.034438843493537</v>
+        <v>1.008630370789052</v>
       </c>
       <c r="L11">
-        <v>0.9670852576667915</v>
+        <v>0.975086319551327</v>
       </c>
       <c r="M11">
-        <v>1.144942954176899</v>
+        <v>1.042902422397654</v>
       </c>
       <c r="N11">
-        <v>0.9577701891361196</v>
+        <v>0.9455123443089511</v>
       </c>
       <c r="O11">
-        <v>0.8898629817129452</v>
+        <v>0.997907526360858</v>
       </c>
       <c r="P11">
-        <v>1.078441520843477</v>
+        <v>1.035428093858201</v>
       </c>
       <c r="Q11">
-        <v>0.962150912603241</v>
+        <v>1.003268948574955</v>
       </c>
       <c r="R11">
-        <v>1.038217743607691</v>
+        <v>1.005456177341785</v>
       </c>
       <c r="S11">
-        <v>1.06377396172683</v>
+        <v>1.026495519501818</v>
       </c>
       <c r="T11">
-        <v>1.038217743607691</v>
+        <v>1.005456177341785</v>
       </c>
       <c r="U11">
-        <v>1.037273018579153</v>
+        <v>1.006249725703601</v>
       </c>
       <c r="V11">
-        <v>1.021372452690546</v>
+        <v>0.9941022494246713</v>
       </c>
       <c r="W11">
-        <v>1.021801051347526</v>
+        <v>1.004987617941671</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.031928635410527</v>
+        <v>1.094784945641312</v>
       </c>
       <c r="D12">
-        <v>1.506451411185266</v>
+        <v>2.69322854883295</v>
       </c>
       <c r="E12">
-        <v>1.506451411185266</v>
+        <v>2.69322854883295</v>
       </c>
       <c r="F12">
-        <v>0.8672452017999999</v>
+        <v>0.5519893919522594</v>
       </c>
       <c r="G12">
-        <v>0.8320350566684199</v>
+        <v>0.4474462936349127</v>
       </c>
       <c r="H12">
-        <v>0.8320350566684199</v>
+        <v>0.4474462936349127</v>
       </c>
       <c r="I12">
-        <v>0.8320350566684199</v>
+        <v>0.4474462936349127</v>
       </c>
       <c r="J12">
-        <v>0.8547848749789464</v>
+        <v>0.5199906024143297</v>
       </c>
       <c r="K12">
-        <v>1.052912969105268</v>
+        <v>1.175764032522311</v>
       </c>
       <c r="L12">
-        <v>0.9008243625157891</v>
+        <v>0.6794064581312521</v>
       </c>
       <c r="M12">
-        <v>1.272027712210529</v>
+        <v>1.901431690981314</v>
       </c>
       <c r="N12">
-        <v>0.8320350566684199</v>
+        <v>0.4474462936349127</v>
       </c>
       <c r="O12">
-        <v>0.8672452017999999</v>
+        <v>0.5519893919522594</v>
       </c>
       <c r="P12">
-        <v>1.186848306492633</v>
+        <v>1.622608970392605</v>
       </c>
       <c r="Q12">
-        <v>0.9600790854526339</v>
+        <v>0.8638767122372852</v>
       </c>
       <c r="R12">
-        <v>1.068577223217895</v>
+        <v>1.230888078140041</v>
       </c>
       <c r="S12">
-        <v>1.142203194030178</v>
+        <v>1.473660657769173</v>
       </c>
       <c r="T12">
-        <v>1.068577223217895</v>
+        <v>1.230888078140041</v>
       </c>
       <c r="U12">
-        <v>1.064661159689738</v>
+        <v>1.217107066735608</v>
       </c>
       <c r="V12">
-        <v>1.018135939085475</v>
+        <v>1.063174912115469</v>
       </c>
       <c r="W12">
-        <v>1.039776277984343</v>
+        <v>1.13300524551383</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.948415354163217</v>
+        <v>1.000377852829018</v>
       </c>
       <c r="D13">
-        <v>0.7612809037377597</v>
+        <v>1.267020059974008</v>
       </c>
       <c r="E13">
-        <v>0.7612809037377597</v>
+        <v>1.267020059974008</v>
       </c>
       <c r="F13">
-        <v>1.084916004420995</v>
+        <v>0.8898629817129452</v>
       </c>
       <c r="G13">
-        <v>1.168697173486799</v>
+        <v>0.9577701891361196</v>
       </c>
       <c r="H13">
-        <v>1.168697173486799</v>
+        <v>0.9577701891361196</v>
       </c>
       <c r="I13">
-        <v>1.168697173486799</v>
+        <v>0.9577701891361196</v>
       </c>
       <c r="J13">
-        <v>1.104619725467156</v>
+        <v>0.9129102717908916</v>
       </c>
       <c r="K13">
-        <v>0.9312628468662161</v>
+        <v>1.034438843493537</v>
       </c>
       <c r="L13">
-        <v>1.05146463038284</v>
+        <v>0.9670852576667915</v>
       </c>
       <c r="M13">
-        <v>0.8318362937857001</v>
+        <v>1.144942954176899</v>
       </c>
       <c r="N13">
-        <v>1.168697173486799</v>
+        <v>0.9577701891361196</v>
       </c>
       <c r="O13">
-        <v>1.084916004420995</v>
+        <v>0.8898629817129452</v>
       </c>
       <c r="P13">
-        <v>0.9230984540793772</v>
+        <v>1.078441520843477</v>
       </c>
       <c r="Q13">
-        <v>1.008089425643605</v>
+        <v>0.962150912603241</v>
       </c>
       <c r="R13">
-        <v>1.004964693881851</v>
+        <v>1.038217743607691</v>
       </c>
       <c r="S13">
-        <v>0.9258199183416568</v>
+        <v>1.06377396172683</v>
       </c>
       <c r="T13">
-        <v>1.004964693881851</v>
+        <v>1.038217743607691</v>
       </c>
       <c r="U13">
-        <v>0.9865392321279425</v>
+        <v>1.037273018579153</v>
       </c>
       <c r="V13">
-        <v>1.022970820399714</v>
+        <v>1.021372452690546</v>
       </c>
       <c r="W13">
-        <v>0.9853116165388354</v>
+        <v>1.021801051347526</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.156870699999999</v>
+        <v>1.031928635410527</v>
       </c>
       <c r="D14">
-        <v>3.939353100000003</v>
+        <v>1.506451411185266</v>
       </c>
       <c r="E14">
-        <v>3.939353100000003</v>
+        <v>1.506451411185266</v>
       </c>
       <c r="F14">
-        <v>0.2188589699999998</v>
+        <v>0.8672452017999999</v>
       </c>
       <c r="G14">
-        <v>0.05435712199999995</v>
+        <v>0.8320350566684199</v>
       </c>
       <c r="H14">
-        <v>0.05435712199999995</v>
+        <v>0.8320350566684199</v>
       </c>
       <c r="I14">
-        <v>0.05435712199999995</v>
+        <v>0.8320350566684199</v>
       </c>
       <c r="J14">
-        <v>0.1699082099999997</v>
+        <v>0.8547848749789464</v>
       </c>
       <c r="K14">
-        <v>1.3021676</v>
+        <v>1.052912969105268</v>
       </c>
       <c r="L14">
-        <v>0.4490890699999996</v>
+        <v>0.9008243625157891</v>
       </c>
       <c r="M14">
-        <v>2.559413900000002</v>
+        <v>1.272027712210529</v>
       </c>
       <c r="N14">
-        <v>0.05435712199999995</v>
+        <v>0.8320350566684199</v>
       </c>
       <c r="O14">
-        <v>0.2188589699999998</v>
+        <v>0.8672452017999999</v>
       </c>
       <c r="P14">
-        <v>2.079106035000001</v>
+        <v>1.186848306492633</v>
       </c>
       <c r="Q14">
-        <v>0.7605132850000001</v>
+        <v>0.9600790854526339</v>
       </c>
       <c r="R14">
-        <v>1.404189730666668</v>
+        <v>1.068577223217895</v>
       </c>
       <c r="S14">
-        <v>1.820126556666668</v>
+        <v>1.142203194030178</v>
       </c>
       <c r="T14">
-        <v>1.404189730666668</v>
+        <v>1.068577223217895</v>
       </c>
       <c r="U14">
-        <v>1.378684198000001</v>
+        <v>1.064661159689738</v>
       </c>
       <c r="V14">
-        <v>1.113818782800001</v>
+        <v>1.018135939085475</v>
       </c>
       <c r="W14">
-        <v>1.231252334000001</v>
+        <v>1.039776277984343</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.1568707</v>
+        <v>0.948415354163217</v>
       </c>
       <c r="D15">
-        <v>3.9393531</v>
+        <v>0.7612809037377597</v>
       </c>
       <c r="E15">
-        <v>3.9393531</v>
+        <v>0.7612809037377597</v>
       </c>
       <c r="F15">
-        <v>0.21885897</v>
+        <v>1.084916004420995</v>
       </c>
       <c r="G15">
-        <v>0.054357122</v>
+        <v>1.168697173486799</v>
       </c>
       <c r="H15">
-        <v>0.054357122</v>
+        <v>1.168697173486799</v>
       </c>
       <c r="I15">
-        <v>0.054357122</v>
+        <v>1.168697173486799</v>
       </c>
       <c r="J15">
-        <v>0.16990821</v>
+        <v>1.104619725467156</v>
       </c>
       <c r="K15">
-        <v>1.3021676</v>
+        <v>0.9312628468662161</v>
       </c>
       <c r="L15">
-        <v>0.44908907</v>
+        <v>1.05146463038284</v>
       </c>
       <c r="M15">
-        <v>2.5594139</v>
+        <v>0.8318362937857001</v>
       </c>
       <c r="N15">
-        <v>0.054357122</v>
+        <v>1.168697173486799</v>
       </c>
       <c r="O15">
-        <v>0.21885897</v>
+        <v>1.084916004420995</v>
       </c>
       <c r="P15">
-        <v>2.079106035</v>
+        <v>0.9230984540793772</v>
       </c>
       <c r="Q15">
-        <v>0.760513285</v>
+        <v>1.008089425643605</v>
       </c>
       <c r="R15">
-        <v>1.404189730666667</v>
+        <v>1.004964693881851</v>
       </c>
       <c r="S15">
-        <v>1.820126556666667</v>
+        <v>0.9258199183416568</v>
       </c>
       <c r="T15">
-        <v>1.404189730666667</v>
+        <v>1.004964693881851</v>
       </c>
       <c r="U15">
-        <v>1.378684198</v>
+        <v>0.9865392321279425</v>
       </c>
       <c r="V15">
-        <v>1.1138187828</v>
+        <v>1.022970820399714</v>
       </c>
       <c r="W15">
-        <v>1.231252334</v>
+        <v>0.9853116165388354</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.1568707</v>
+        <v>1.156870699999999</v>
       </c>
       <c r="D16">
-        <v>3.9393531</v>
+        <v>3.939353100000003</v>
       </c>
       <c r="E16">
-        <v>3.9393531</v>
+        <v>3.939353100000003</v>
       </c>
       <c r="F16">
-        <v>0.21885897</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="G16">
-        <v>0.054357122</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="H16">
-        <v>0.054357122</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="I16">
-        <v>0.054357122</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="J16">
-        <v>0.16990821</v>
+        <v>0.1699082099999997</v>
       </c>
       <c r="K16">
         <v>1.3021676</v>
       </c>
       <c r="L16">
-        <v>0.44908907</v>
+        <v>0.4490890699999996</v>
       </c>
       <c r="M16">
-        <v>2.5594139</v>
+        <v>2.559413900000002</v>
       </c>
       <c r="N16">
-        <v>0.054357122</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="O16">
-        <v>0.21885897</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="P16">
-        <v>2.079106035</v>
+        <v>2.079106035000001</v>
       </c>
       <c r="Q16">
-        <v>0.760513285</v>
+        <v>0.7605132850000001</v>
       </c>
       <c r="R16">
-        <v>1.404189730666667</v>
+        <v>1.404189730666668</v>
       </c>
       <c r="S16">
-        <v>1.820126556666667</v>
+        <v>1.820126556666668</v>
       </c>
       <c r="T16">
-        <v>1.404189730666667</v>
+        <v>1.404189730666668</v>
       </c>
       <c r="U16">
-        <v>1.378684198</v>
+        <v>1.378684198000001</v>
       </c>
       <c r="V16">
-        <v>1.1138187828</v>
+        <v>1.113818782800001</v>
       </c>
       <c r="W16">
-        <v>1.231252334</v>
+        <v>1.231252334000001</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.240911</v>
+        <v>1.1568707</v>
       </c>
       <c r="D17">
-        <v>0.82576034</v>
+        <v>3.9393531</v>
       </c>
       <c r="E17">
-        <v>0.82576034</v>
+        <v>3.9393531</v>
       </c>
       <c r="F17">
-        <v>1.3656747</v>
+        <v>0.21885897</v>
       </c>
       <c r="G17">
-        <v>0.47174105</v>
+        <v>0.054357122</v>
       </c>
       <c r="H17">
-        <v>0.47174105</v>
+        <v>0.054357122</v>
       </c>
       <c r="I17">
-        <v>0.47174105</v>
+        <v>0.054357122</v>
       </c>
       <c r="J17">
-        <v>1.0555159</v>
+        <v>0.16990821</v>
       </c>
       <c r="K17">
-        <v>1.0027216</v>
+        <v>1.3021676</v>
       </c>
       <c r="L17">
-        <v>0.8263528499999999</v>
+        <v>0.44908907</v>
       </c>
       <c r="M17">
-        <v>0.98061785</v>
+        <v>2.5594139</v>
       </c>
       <c r="N17">
-        <v>0.47174105</v>
+        <v>0.054357122</v>
       </c>
       <c r="O17">
-        <v>1.3656747</v>
+        <v>0.21885897</v>
       </c>
       <c r="P17">
-        <v>1.09571752</v>
+        <v>2.079106035</v>
       </c>
       <c r="Q17">
-        <v>1.18419815</v>
+        <v>0.760513285</v>
       </c>
       <c r="R17">
-        <v>0.8877253633333333</v>
+        <v>1.404189730666667</v>
       </c>
       <c r="S17">
-        <v>1.06471888</v>
+        <v>1.820126556666667</v>
       </c>
       <c r="T17">
-        <v>0.8877253633333334</v>
+        <v>1.404189730666667</v>
       </c>
       <c r="U17">
-        <v>0.9164744225000001</v>
+        <v>1.378684198</v>
       </c>
       <c r="V17">
-        <v>0.8275277480000002</v>
+        <v>1.1138187828</v>
       </c>
       <c r="W17">
-        <v>0.9711619112500001</v>
+        <v>1.231252334</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.209545138356164</v>
+        <v>1.1568707</v>
       </c>
       <c r="D18">
-        <v>1.886962695068492</v>
+        <v>3.9393531</v>
       </c>
       <c r="E18">
-        <v>1.886962695068492</v>
+        <v>3.9393531</v>
       </c>
       <c r="F18">
-        <v>0.9753982209589043</v>
+        <v>0.21885897</v>
       </c>
       <c r="G18">
-        <v>0.3294725000821919</v>
+        <v>0.054357122</v>
       </c>
       <c r="H18">
-        <v>0.3294725000821919</v>
+        <v>0.054357122</v>
       </c>
       <c r="I18">
-        <v>0.3294725000821919</v>
+        <v>0.054357122</v>
       </c>
       <c r="J18">
-        <v>0.7541493502739726</v>
+        <v>0.16990821</v>
       </c>
       <c r="K18">
-        <v>1.107435649863014</v>
+        <v>1.3021676</v>
       </c>
       <c r="L18">
-        <v>0.6958725647945209</v>
+        <v>0.44908907</v>
       </c>
       <c r="M18">
-        <v>1.52421080630137</v>
+        <v>2.5594139</v>
       </c>
       <c r="N18">
-        <v>0.3294725000821919</v>
+        <v>0.054357122</v>
       </c>
       <c r="O18">
-        <v>0.9753982209589043</v>
+        <v>0.21885897</v>
       </c>
       <c r="P18">
-        <v>1.431180458013698</v>
+        <v>2.079106035</v>
       </c>
       <c r="Q18">
-        <v>1.041416935410959</v>
+        <v>0.760513285</v>
       </c>
       <c r="R18">
-        <v>1.06394447203653</v>
+        <v>1.404189730666667</v>
       </c>
       <c r="S18">
-        <v>1.32326552196347</v>
+        <v>1.820126556666667</v>
       </c>
       <c r="T18">
-        <v>1.063944472036529</v>
+        <v>1.404189730666667</v>
       </c>
       <c r="U18">
-        <v>1.074817266493151</v>
+        <v>1.378684198</v>
       </c>
       <c r="V18">
-        <v>0.9257483132109587</v>
+        <v>1.1138187828</v>
       </c>
       <c r="W18">
-        <v>1.060380865712329</v>
+        <v>1.231252334</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.207465884210527</v>
+        <v>1.240911</v>
       </c>
       <c r="D19">
-        <v>1.967978105789474</v>
+        <v>0.82576034</v>
       </c>
       <c r="E19">
-        <v>1.967978105789474</v>
+        <v>0.82576034</v>
       </c>
       <c r="F19">
-        <v>0.9455348294736843</v>
+        <v>1.3656747</v>
       </c>
       <c r="G19">
-        <v>0.3186126825263157</v>
+        <v>0.47174105</v>
       </c>
       <c r="H19">
-        <v>0.3186126825263157</v>
+        <v>0.47174105</v>
       </c>
       <c r="I19">
-        <v>0.3186126825263157</v>
+        <v>0.47174105</v>
       </c>
       <c r="J19">
-        <v>0.7310871999999999</v>
+        <v>1.0555159</v>
       </c>
       <c r="K19">
-        <v>1.115122437368421</v>
+        <v>1.0027216</v>
       </c>
       <c r="L19">
-        <v>0.6861311110526316</v>
+        <v>0.8263528499999999</v>
       </c>
       <c r="M19">
-        <v>1.565074086315789</v>
+        <v>0.98061785</v>
       </c>
       <c r="N19">
-        <v>0.3186126825263157</v>
+        <v>0.47174105</v>
       </c>
       <c r="O19">
-        <v>0.9455348294736843</v>
+        <v>1.3656747</v>
       </c>
       <c r="P19">
-        <v>1.456756467631579</v>
+        <v>1.09571752</v>
       </c>
       <c r="Q19">
-        <v>1.030328633421053</v>
+        <v>1.18419815</v>
       </c>
       <c r="R19">
-        <v>1.077375205929825</v>
+        <v>0.8877253633333333</v>
       </c>
       <c r="S19">
-        <v>1.34287845754386</v>
+        <v>1.06471888</v>
       </c>
       <c r="T19">
-        <v>1.077375205929824</v>
+        <v>0.8877253633333334</v>
       </c>
       <c r="U19">
-        <v>1.086812013789474</v>
+        <v>0.9164744225000001</v>
       </c>
       <c r="V19">
-        <v>0.933172147536842</v>
+        <v>0.8275277480000002</v>
       </c>
       <c r="W19">
-        <v>1.067125792092105</v>
+        <v>0.9711619112500001</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.207465884210527</v>
+        <v>1.209545138356164</v>
       </c>
       <c r="D20">
-        <v>1.967978105789474</v>
+        <v>1.886962695068492</v>
       </c>
       <c r="E20">
-        <v>1.967978105789474</v>
+        <v>1.886962695068492</v>
       </c>
       <c r="F20">
-        <v>0.9455348294736843</v>
+        <v>0.9753982209589043</v>
       </c>
       <c r="G20">
-        <v>0.3186126825263157</v>
+        <v>0.3294725000821919</v>
       </c>
       <c r="H20">
-        <v>0.3186126825263157</v>
+        <v>0.3294725000821919</v>
       </c>
       <c r="I20">
-        <v>0.3186126825263157</v>
+        <v>0.3294725000821919</v>
       </c>
       <c r="J20">
-        <v>0.7310871999999999</v>
+        <v>0.7541493502739726</v>
       </c>
       <c r="K20">
-        <v>1.115122437368421</v>
+        <v>1.107435649863014</v>
       </c>
       <c r="L20">
-        <v>0.6861311110526316</v>
+        <v>0.6958725647945209</v>
       </c>
       <c r="M20">
-        <v>1.565074086315789</v>
+        <v>1.52421080630137</v>
       </c>
       <c r="N20">
-        <v>0.3186126825263157</v>
+        <v>0.3294725000821919</v>
       </c>
       <c r="O20">
-        <v>0.9455348294736843</v>
+        <v>0.9753982209589043</v>
       </c>
       <c r="P20">
-        <v>1.456756467631579</v>
+        <v>1.431180458013698</v>
       </c>
       <c r="Q20">
-        <v>1.030328633421053</v>
+        <v>1.041416935410959</v>
       </c>
       <c r="R20">
-        <v>1.077375205929825</v>
+        <v>1.06394447203653</v>
       </c>
       <c r="S20">
-        <v>1.34287845754386</v>
+        <v>1.32326552196347</v>
       </c>
       <c r="T20">
-        <v>1.077375205929824</v>
+        <v>1.063944472036529</v>
       </c>
       <c r="U20">
-        <v>1.086812013789474</v>
+        <v>1.074817266493151</v>
       </c>
       <c r="V20">
-        <v>0.933172147536842</v>
+        <v>0.9257483132109587</v>
       </c>
       <c r="W20">
-        <v>1.067125792092105</v>
+        <v>1.060380865712329</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.097375869095959</v>
+        <v>1.207465884210527</v>
       </c>
       <c r="D21">
-        <v>0.6474123980439753</v>
+        <v>1.967978105789474</v>
       </c>
       <c r="E21">
-        <v>0.6474123980439753</v>
+        <v>1.967978105789474</v>
       </c>
       <c r="F21">
-        <v>1.383247727733637</v>
+        <v>0.9455348294736843</v>
       </c>
       <c r="G21">
-        <v>0.7695134981280533</v>
+        <v>0.3186126825263157</v>
       </c>
       <c r="H21">
-        <v>0.7695134981280533</v>
+        <v>0.3186126825263157</v>
       </c>
       <c r="I21">
-        <v>0.7695134981280533</v>
+        <v>0.3186126825263157</v>
       </c>
       <c r="J21">
-        <v>1.176299178148569</v>
+        <v>0.7310871999999999</v>
       </c>
       <c r="K21">
-        <v>0.9210545075827427</v>
+        <v>1.115122437368421</v>
       </c>
       <c r="L21">
-        <v>0.9294315679662116</v>
+        <v>0.6861311110526316</v>
       </c>
       <c r="M21">
-        <v>0.8036241904562451</v>
+        <v>1.565074086315789</v>
       </c>
       <c r="N21">
-        <v>0.7695134981280533</v>
+        <v>0.3186126825263157</v>
       </c>
       <c r="O21">
-        <v>1.383247727733637</v>
+        <v>0.9455348294736843</v>
       </c>
       <c r="P21">
-        <v>1.015330062888806</v>
+        <v>1.456756467631579</v>
       </c>
       <c r="Q21">
-        <v>1.15215111765819</v>
+        <v>1.030328633421053</v>
       </c>
       <c r="R21">
-        <v>0.9333912079685552</v>
+        <v>1.077375205929825</v>
       </c>
       <c r="S21">
-        <v>0.983904877786785</v>
+        <v>1.34287845754386</v>
       </c>
       <c r="T21">
-        <v>0.9333912079685552</v>
+        <v>1.077375205929824</v>
       </c>
       <c r="U21">
-        <v>0.9303070328721021</v>
+        <v>1.086812013789474</v>
       </c>
       <c r="V21">
-        <v>0.8981483259232924</v>
+        <v>0.933172147536842</v>
       </c>
       <c r="W21">
-        <v>0.9659948671444241</v>
+        <v>1.067125792092105</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9361305276650942</v>
+        <v>1.207465884210527</v>
       </c>
       <c r="D22">
-        <v>1.013927747195857</v>
+        <v>1.967978105789474</v>
       </c>
       <c r="E22">
-        <v>1.013927747195857</v>
+        <v>1.967978105789474</v>
       </c>
       <c r="F22">
-        <v>0.8574694106388464</v>
+        <v>0.9455348294736843</v>
       </c>
       <c r="G22">
-        <v>1.165039530280905</v>
+        <v>0.3186126825263157</v>
       </c>
       <c r="H22">
-        <v>1.165039530280905</v>
+        <v>0.3186126825263157</v>
       </c>
       <c r="I22">
-        <v>1.165039530280905</v>
+        <v>0.3186126825263157</v>
       </c>
       <c r="J22">
-        <v>0.9650377884299971</v>
+        <v>0.7310871999999999</v>
       </c>
       <c r="K22">
-        <v>1.020185115454781</v>
+        <v>1.115122437368421</v>
       </c>
       <c r="L22">
-        <v>1.069688241736297</v>
+        <v>0.6861311110526316</v>
       </c>
       <c r="M22">
-        <v>1.00572304026691</v>
+        <v>1.565074086315789</v>
       </c>
       <c r="N22">
-        <v>1.165039530280905</v>
+        <v>0.3186126825263157</v>
       </c>
       <c r="O22">
-        <v>0.8574694106388464</v>
+        <v>0.9455348294736843</v>
       </c>
       <c r="P22">
-        <v>0.9356985789173518</v>
+        <v>1.456756467631579</v>
       </c>
       <c r="Q22">
-        <v>0.9388272630468135</v>
+        <v>1.030328633421053</v>
       </c>
       <c r="R22">
-        <v>1.012145562705203</v>
+        <v>1.077375205929825</v>
       </c>
       <c r="S22">
-        <v>0.9638607577631614</v>
+        <v>1.34287845754386</v>
       </c>
       <c r="T22">
-        <v>1.012145562705203</v>
+        <v>1.077375205929824</v>
       </c>
       <c r="U22">
-        <v>1.014155450892597</v>
+        <v>1.086812013789474</v>
       </c>
       <c r="V22">
-        <v>1.044332266770259</v>
+        <v>0.933172147536842</v>
       </c>
       <c r="W22">
-        <v>1.004150175208586</v>
+        <v>1.067125792092105</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8745368999227625</v>
+        <v>1.097375869095959</v>
       </c>
       <c r="D23">
-        <v>0.6132311431620122</v>
+        <v>0.6474123980439753</v>
       </c>
       <c r="E23">
-        <v>0.6132311431620122</v>
+        <v>0.6474123980439753</v>
       </c>
       <c r="F23">
-        <v>0.9489468280812738</v>
+        <v>1.383247727733637</v>
       </c>
       <c r="G23">
-        <v>1.391676314260136</v>
+        <v>0.7695134981280533</v>
       </c>
       <c r="H23">
-        <v>1.391676314260136</v>
+        <v>0.7695134981280533</v>
       </c>
       <c r="I23">
-        <v>1.391676314260136</v>
+        <v>0.7695134981280533</v>
       </c>
       <c r="J23">
-        <v>1.097446714224897</v>
+        <v>1.176299178148569</v>
       </c>
       <c r="K23">
-        <v>0.9525803801333577</v>
+        <v>0.9210545075827427</v>
       </c>
       <c r="L23">
-        <v>1.16504839110238</v>
+        <v>0.9294315679662116</v>
       </c>
       <c r="M23">
-        <v>0.7638635791204468</v>
+        <v>0.8036241904562451</v>
       </c>
       <c r="N23">
-        <v>1.391676314260136</v>
+        <v>0.7695134981280533</v>
       </c>
       <c r="O23">
-        <v>0.9489468280812738</v>
+        <v>1.383247727733637</v>
       </c>
       <c r="P23">
-        <v>0.781088985621643</v>
+        <v>1.015330062888806</v>
       </c>
       <c r="Q23">
-        <v>0.9507636041073158</v>
+        <v>1.15215111765819</v>
       </c>
       <c r="R23">
-        <v>0.9846180951678072</v>
+        <v>0.9333912079685552</v>
       </c>
       <c r="S23">
-        <v>0.8382527837922146</v>
+        <v>0.983904877786785</v>
       </c>
       <c r="T23">
-        <v>0.9846180951678072</v>
+        <v>0.9333912079685552</v>
       </c>
       <c r="U23">
-        <v>0.9766086664091949</v>
+        <v>0.9303070328721021</v>
       </c>
       <c r="V23">
-        <v>1.059622195979383</v>
+        <v>0.8981483259232924</v>
       </c>
       <c r="W23">
-        <v>0.9759162812509081</v>
+        <v>0.9659948671444241</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9921446998649259</v>
+        <v>0.9361305276650942</v>
       </c>
       <c r="D24">
-        <v>0.9208543484117759</v>
+        <v>1.013927747195857</v>
       </c>
       <c r="E24">
-        <v>0.9208543484117759</v>
+        <v>1.013927747195857</v>
       </c>
       <c r="F24">
-        <v>1.114500948424145</v>
+        <v>0.8574694106388464</v>
       </c>
       <c r="G24">
-        <v>1.044247981991259</v>
+        <v>1.165039530280905</v>
       </c>
       <c r="H24">
-        <v>1.044247981991259</v>
+        <v>1.165039530280905</v>
       </c>
       <c r="I24">
-        <v>1.044247981991259</v>
+        <v>1.165039530280905</v>
       </c>
       <c r="J24">
-        <v>1.074483415934369</v>
+        <v>0.9650377884299971</v>
       </c>
       <c r="K24">
-        <v>0.9330467897408178</v>
+        <v>1.020185115454781</v>
       </c>
       <c r="L24">
-        <v>0.9797230111250645</v>
+        <v>1.069688241736297</v>
       </c>
       <c r="M24">
-        <v>0.9170928555211185</v>
+        <v>1.00572304026691</v>
       </c>
       <c r="N24">
-        <v>1.044247981991259</v>
+        <v>1.165039530280905</v>
       </c>
       <c r="O24">
-        <v>1.114500948424145</v>
+        <v>0.8574694106388464</v>
       </c>
       <c r="P24">
-        <v>1.017677648417961</v>
+        <v>0.9356985789173518</v>
       </c>
       <c r="Q24">
-        <v>1.023773869082481</v>
+        <v>0.9388272630468135</v>
       </c>
       <c r="R24">
-        <v>1.026534426275727</v>
+        <v>1.012145562705203</v>
       </c>
       <c r="S24">
-        <v>0.9894673621922463</v>
+        <v>0.9638607577631614</v>
       </c>
       <c r="T24">
-        <v>1.026534426275727</v>
+        <v>1.012145562705203</v>
       </c>
       <c r="U24">
-        <v>1.003162517142</v>
+        <v>1.014155450892597</v>
       </c>
       <c r="V24">
-        <v>1.011379610111852</v>
+        <v>1.044332266770259</v>
       </c>
       <c r="W24">
-        <v>0.9970117563766845</v>
+        <v>1.004150175208586</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.097375869095959</v>
+        <v>0.8745368999227625</v>
       </c>
       <c r="D25">
-        <v>0.6474123980439753</v>
+        <v>0.6132311431620122</v>
       </c>
       <c r="E25">
-        <v>0.6474123980439753</v>
+        <v>0.6132311431620122</v>
       </c>
       <c r="F25">
-        <v>1.383247727733637</v>
+        <v>0.9489468280812738</v>
       </c>
       <c r="G25">
-        <v>0.7695134981280533</v>
+        <v>1.391676314260136</v>
       </c>
       <c r="H25">
-        <v>0.7695134981280533</v>
+        <v>1.391676314260136</v>
       </c>
       <c r="I25">
-        <v>0.7695134981280533</v>
+        <v>1.391676314260136</v>
       </c>
       <c r="J25">
-        <v>1.176299178148569</v>
+        <v>1.097446714224897</v>
       </c>
       <c r="K25">
-        <v>0.9210545075827427</v>
+        <v>0.9525803801333577</v>
       </c>
       <c r="L25">
-        <v>0.9294315679662115</v>
+        <v>1.16504839110238</v>
       </c>
       <c r="M25">
-        <v>0.8036241904562451</v>
+        <v>0.7638635791204468</v>
       </c>
       <c r="N25">
-        <v>0.7695134981280533</v>
+        <v>1.391676314260136</v>
       </c>
       <c r="O25">
-        <v>1.383247727733637</v>
+        <v>0.9489468280812738</v>
       </c>
       <c r="P25">
-        <v>1.015330062888806</v>
+        <v>0.781088985621643</v>
       </c>
       <c r="Q25">
-        <v>1.15215111765819</v>
+        <v>0.9507636041073158</v>
       </c>
       <c r="R25">
-        <v>0.9333912079685552</v>
+        <v>0.9846180951678072</v>
       </c>
       <c r="S25">
-        <v>0.983904877786785</v>
+        <v>0.8382527837922146</v>
       </c>
       <c r="T25">
-        <v>0.9333912079685552</v>
+        <v>0.9846180951678072</v>
       </c>
       <c r="U25">
-        <v>0.9303070328721021</v>
+        <v>0.9766086664091949</v>
       </c>
       <c r="V25">
-        <v>0.8981483259232924</v>
+        <v>1.059622195979383</v>
       </c>
       <c r="W25">
-        <v>0.9659948671444242</v>
+        <v>0.9759162812509081</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9361305276650941</v>
+        <v>0.9921446998649259</v>
       </c>
       <c r="D26">
-        <v>1.013927747195857</v>
+        <v>0.9208543484117759</v>
       </c>
       <c r="E26">
-        <v>1.013927747195857</v>
+        <v>0.9208543484117759</v>
       </c>
       <c r="F26">
-        <v>0.8574694106388463</v>
+        <v>1.114500948424145</v>
       </c>
       <c r="G26">
-        <v>1.165039530280905</v>
+        <v>1.044247981991259</v>
       </c>
       <c r="H26">
-        <v>1.165039530280905</v>
+        <v>1.044247981991259</v>
       </c>
       <c r="I26">
-        <v>1.165039530280905</v>
+        <v>1.044247981991259</v>
       </c>
       <c r="J26">
-        <v>0.9650377884299971</v>
+        <v>1.074483415934369</v>
       </c>
       <c r="K26">
-        <v>1.020185115454781</v>
+        <v>0.9330467897408178</v>
       </c>
       <c r="L26">
-        <v>1.069688241736297</v>
+        <v>0.9797230111250645</v>
       </c>
       <c r="M26">
-        <v>1.00572304026691</v>
+        <v>0.9170928555211185</v>
       </c>
       <c r="N26">
-        <v>1.165039530280905</v>
+        <v>1.044247981991259</v>
       </c>
       <c r="O26">
-        <v>0.8574694106388463</v>
+        <v>1.114500948424145</v>
       </c>
       <c r="P26">
-        <v>0.9356985789173516</v>
+        <v>1.017677648417961</v>
       </c>
       <c r="Q26">
-        <v>0.9388272630468135</v>
+        <v>1.023773869082481</v>
       </c>
       <c r="R26">
-        <v>1.012145562705203</v>
+        <v>1.026534426275727</v>
       </c>
       <c r="S26">
-        <v>0.9638607577631614</v>
+        <v>0.9894673621922463</v>
       </c>
       <c r="T26">
-        <v>1.012145562705203</v>
+        <v>1.026534426275727</v>
       </c>
       <c r="U26">
-        <v>1.014155450892597</v>
+        <v>1.003162517142</v>
       </c>
       <c r="V26">
-        <v>1.044332266770259</v>
+        <v>1.011379610111852</v>
       </c>
       <c r="W26">
-        <v>1.004150175208586</v>
+        <v>0.9970117563766845</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.040789098745243</v>
+        <v>1.097375869095959</v>
       </c>
       <c r="D27">
-        <v>1.097862878032881</v>
+        <v>0.6474123980439753</v>
       </c>
       <c r="E27">
-        <v>1.097862878032881</v>
+        <v>0.6474123980439753</v>
       </c>
       <c r="F27">
-        <v>0.9594025300772111</v>
+        <v>1.383247727733637</v>
       </c>
       <c r="G27">
-        <v>0.8953943628454462</v>
+        <v>0.7695134981280533</v>
       </c>
       <c r="H27">
-        <v>0.8953943628454462</v>
+        <v>0.7695134981280533</v>
       </c>
       <c r="I27">
-        <v>0.8953943628454462</v>
+        <v>0.7695134981280533</v>
       </c>
       <c r="J27">
-        <v>0.9429354979296316</v>
+        <v>1.176299178148569</v>
       </c>
       <c r="K27">
-        <v>1.041540739109217</v>
+        <v>0.9210545075827427</v>
       </c>
       <c r="L27">
-        <v>0.9721315662460449</v>
+        <v>0.9294315679662115</v>
       </c>
       <c r="M27">
-        <v>1.083685311755372</v>
+        <v>0.8036241904562451</v>
       </c>
       <c r="N27">
-        <v>0.8953943628454462</v>
+        <v>0.7695134981280533</v>
       </c>
       <c r="O27">
-        <v>0.9594025300772111</v>
+        <v>1.383247727733637</v>
       </c>
       <c r="P27">
-        <v>1.028632704055046</v>
+        <v>1.015330062888806</v>
       </c>
       <c r="Q27">
-        <v>1.000471634593214</v>
+        <v>1.15215111765819</v>
       </c>
       <c r="R27">
-        <v>0.9842199236518461</v>
+        <v>0.9333912079685552</v>
       </c>
       <c r="S27">
-        <v>1.032935382406436</v>
+        <v>0.983904877786785</v>
       </c>
       <c r="T27">
-        <v>0.9842199236518461</v>
+        <v>0.9333912079685552</v>
       </c>
       <c r="U27">
-        <v>0.9985501275161888</v>
+        <v>0.9303070328721021</v>
       </c>
       <c r="V27">
-        <v>0.9779189745820404</v>
+        <v>0.8981483259232924</v>
       </c>
       <c r="W27">
-        <v>1.004217748092631</v>
+        <v>0.9659948671444242</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.062864580180446</v>
+        <v>0.9361305276650941</v>
       </c>
       <c r="D28">
-        <v>1.003375168059962</v>
+        <v>1.013927747195857</v>
       </c>
       <c r="E28">
-        <v>1.003375168059962</v>
+        <v>1.013927747195857</v>
       </c>
       <c r="F28">
-        <v>1.096089382620813</v>
+        <v>0.8574694106388463</v>
       </c>
       <c r="G28">
-        <v>0.8541696514648782</v>
+        <v>1.165039530280905</v>
       </c>
       <c r="H28">
-        <v>0.8541696514648782</v>
+        <v>1.165039530280905</v>
       </c>
       <c r="I28">
-        <v>0.8541696514648782</v>
+        <v>1.165039530280905</v>
       </c>
       <c r="J28">
-        <v>1.008845290132268</v>
+        <v>0.9650377884299971</v>
       </c>
       <c r="K28">
-        <v>0.9963567386157495</v>
+        <v>1.020185115454781</v>
       </c>
       <c r="L28">
-        <v>0.9412078236537136</v>
+        <v>1.069688241736297</v>
       </c>
       <c r="M28">
-        <v>1.014056563744896</v>
+        <v>1.00572304026691</v>
       </c>
       <c r="N28">
-        <v>0.8541696514648782</v>
+        <v>1.165039530280905</v>
       </c>
       <c r="O28">
-        <v>1.096089382620813</v>
+        <v>0.8574694106388463</v>
       </c>
       <c r="P28">
-        <v>1.049732275340387</v>
+        <v>0.9356985789173516</v>
       </c>
       <c r="Q28">
-        <v>1.046223060618281</v>
+        <v>0.9388272630468135</v>
       </c>
       <c r="R28">
-        <v>0.9845447340485508</v>
+        <v>1.012145562705203</v>
       </c>
       <c r="S28">
-        <v>1.031940429765508</v>
+        <v>0.9638607577631614</v>
       </c>
       <c r="T28">
-        <v>0.9845447340485508</v>
+        <v>1.012145562705203</v>
       </c>
       <c r="U28">
-        <v>0.9874977351903504</v>
+        <v>1.014155450892597</v>
       </c>
       <c r="V28">
-        <v>0.960832118445256</v>
+        <v>1.044332266770259</v>
       </c>
       <c r="W28">
-        <v>0.9971206498090907</v>
+        <v>1.004150175208586</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.040789098745243</v>
+      </c>
+      <c r="D29">
+        <v>1.097862878032881</v>
+      </c>
+      <c r="E29">
+        <v>1.097862878032881</v>
+      </c>
+      <c r="F29">
+        <v>0.9594025300772111</v>
+      </c>
+      <c r="G29">
+        <v>0.8953943628454462</v>
+      </c>
+      <c r="H29">
+        <v>0.8953943628454462</v>
+      </c>
+      <c r="I29">
+        <v>0.8953943628454462</v>
+      </c>
+      <c r="J29">
+        <v>0.9429354979296316</v>
+      </c>
+      <c r="K29">
+        <v>1.041540739109217</v>
+      </c>
+      <c r="L29">
+        <v>0.9721315662460449</v>
+      </c>
+      <c r="M29">
+        <v>1.083685311755372</v>
+      </c>
+      <c r="N29">
+        <v>0.8953943628454462</v>
+      </c>
+      <c r="O29">
+        <v>0.9594025300772111</v>
+      </c>
+      <c r="P29">
+        <v>1.028632704055046</v>
+      </c>
+      <c r="Q29">
+        <v>1.000471634593214</v>
+      </c>
+      <c r="R29">
+        <v>0.9842199236518461</v>
+      </c>
+      <c r="S29">
+        <v>1.032935382406436</v>
+      </c>
+      <c r="T29">
+        <v>0.9842199236518461</v>
+      </c>
+      <c r="U29">
+        <v>0.9985501275161888</v>
+      </c>
+      <c r="V29">
+        <v>0.9779189745820404</v>
+      </c>
+      <c r="W29">
+        <v>1.004217748092631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.062864580180446</v>
+      </c>
+      <c r="D30">
+        <v>1.003375168059962</v>
+      </c>
+      <c r="E30">
+        <v>1.003375168059962</v>
+      </c>
+      <c r="F30">
+        <v>1.096089382620813</v>
+      </c>
+      <c r="G30">
+        <v>0.8541696514648782</v>
+      </c>
+      <c r="H30">
+        <v>0.8541696514648782</v>
+      </c>
+      <c r="I30">
+        <v>0.8541696514648782</v>
+      </c>
+      <c r="J30">
+        <v>1.008845290132268</v>
+      </c>
+      <c r="K30">
+        <v>0.9963567386157495</v>
+      </c>
+      <c r="L30">
+        <v>0.9412078236537136</v>
+      </c>
+      <c r="M30">
+        <v>1.014056563744896</v>
+      </c>
+      <c r="N30">
+        <v>0.8541696514648782</v>
+      </c>
+      <c r="O30">
+        <v>1.096089382620813</v>
+      </c>
+      <c r="P30">
+        <v>1.049732275340387</v>
+      </c>
+      <c r="Q30">
+        <v>1.046223060618281</v>
+      </c>
+      <c r="R30">
+        <v>0.9845447340485508</v>
+      </c>
+      <c r="S30">
+        <v>1.031940429765508</v>
+      </c>
+      <c r="T30">
+        <v>0.9845447340485508</v>
+      </c>
+      <c r="U30">
+        <v>0.9874977351903504</v>
+      </c>
+      <c r="V30">
+        <v>0.960832118445256</v>
+      </c>
+      <c r="W30">
+        <v>0.9971206498090907</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.008364823854495</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.5401362410033301</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.5401362410033301</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.237696528197049</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.063467323144168</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.063467323144168</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.063467323144168</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.169027282218172</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9169181696287952</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.036152779586947</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.7345251761872527</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.063467323144168</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.237696528197049</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.8889163846001896</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.077307348912922</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9471000307815157</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.8982503129430581</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9471000307815157</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.9395545654933356</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9643371170235021</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.9632860404775261</v>
       </c>
     </row>
